--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$111</definedName>
+    <definedName name="web">'#system'!$U$2:$U$112</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3660" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="459">
   <si>
     <t>description</t>
   </si>
@@ -1437,6 +1437,9 @@
   </si>
   <si>
     <t>saveTableAsCsv(locator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>dragAndDrop(fromLocator,toLocator)</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1447,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="116" x14ac:knownFonts="1">
+  <fonts count="131" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2179,8 +2182,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="193">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3270,8 +3367,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="199">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5283,6 +5533,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5290,7 +5822,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="158">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5693,49 +6225,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="168" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="168" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="171" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="171" fontId="103" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="174" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="174" fontId="104" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="105" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="177" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="106" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="180" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="180" fontId="108" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="109" fillId="183" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="183" fontId="109" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="110" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="110" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="111" fillId="186" borderId="198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="186" fontId="111" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="112" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="112" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="113" fillId="192" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="113" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="114" fillId="189" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="114" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="115" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6090,7 +6667,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA111"/>
+  <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7302,7 +7879,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60">
@@ -7310,7 +7887,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="61">
@@ -7318,7 +7895,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62">
@@ -7326,7 +7903,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="63">
@@ -7334,7 +7911,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>448</v>
+        <v>141</v>
       </c>
     </row>
     <row r="64">
@@ -7342,7 +7919,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>142</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65">
@@ -7350,7 +7927,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="66">
@@ -7358,7 +7935,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="67">
@@ -7366,7 +7943,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68">
@@ -7374,7 +7951,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69">
@@ -7382,7 +7959,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70">
@@ -7390,7 +7967,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71">
@@ -7398,7 +7975,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72">
@@ -7406,7 +7983,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73">
@@ -7414,7 +7991,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74">
@@ -7422,7 +7999,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -7430,7 +8007,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="76">
@@ -7438,7 +8015,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="77">
@@ -7446,7 +8023,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="78">
@@ -7454,7 +8031,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="79">
@@ -7462,7 +8039,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80">
@@ -7470,7 +8047,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -7478,7 +8055,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82">
@@ -7486,7 +8063,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83">
@@ -7494,7 +8071,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84">
@@ -7502,7 +8079,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85">
@@ -7510,7 +8087,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86">
@@ -7518,7 +8095,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="87">
@@ -7526,7 +8103,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88">
@@ -7534,7 +8111,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89">
@@ -7542,7 +8119,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90">
@@ -7550,7 +8127,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="91">
@@ -7558,7 +8135,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
@@ -7566,101 +8143,106 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="U112" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -20,16 +20,16 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$C$2:$C$33</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$4</definedName>
+    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
     <definedName name="excel">'#system'!$F$2:$F$8</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$21</definedName>
+    <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$12</definedName>
+    <definedName name="json">'#system'!$K$2:$K$13</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,8 +43,8 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$112</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$6</definedName>
+    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
     <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4108" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1440,6 +1440,30 @@
   </si>
   <si>
     <t>dragAndDrop(fromLocator,toLocator)</t>
+  </si>
+  <si>
+    <t>fromExcel(excel,worksheet,csvFile)</t>
+  </si>
+  <si>
+    <t>writeFileAsIs(file,content,append)</t>
+  </si>
+  <si>
+    <t>fromCsv(csv,header,jsonFile)</t>
+  </si>
+  <si>
+    <t>checkAll(locator)</t>
+  </si>
+  <si>
+    <t>focus(locator)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator)</t>
+  </si>
+  <si>
+    <t>replyCancel(text)</t>
+  </si>
+  <si>
+    <t>replyOK(text)</t>
   </si>
 </sst>
 </file>
@@ -1447,7 +1471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="131" x14ac:knownFonts="1">
+  <fonts count="146" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2276,8 +2300,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3520,8 +3638,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="255">
     <border>
       <left/>
       <right/>
@@ -5815,6 +6086,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5822,7 +6375,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="173">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6270,49 +6823,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="115" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="116" fillId="195" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="195" fontId="116" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="117" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="118" fillId="198" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="198" fontId="118" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="119" fillId="201" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="201" fontId="119" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="120" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="120" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="121" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="121" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="122" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="207" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="207" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="210" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="210" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="213" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="213" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="128" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6667,7 +7265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA112"/>
+  <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6993,6 +7591,9 @@
       <c r="C5" t="s">
         <v>225</v>
       </c>
+      <c r="D5" t="s">
+        <v>459</v>
+      </c>
       <c r="E5" t="s">
         <v>337</v>
       </c>
@@ -7086,7 +7687,7 @@
         <v>100</v>
       </c>
       <c r="V6" t="s">
-        <v>176</v>
+        <v>465</v>
       </c>
       <c r="W6" t="s">
         <v>181</v>
@@ -7141,6 +7742,9 @@
       <c r="U7" t="s">
         <v>101</v>
       </c>
+      <c r="V7" t="s">
+        <v>466</v>
+      </c>
       <c r="W7" t="s">
         <v>182</v>
       </c>
@@ -7191,6 +7795,9 @@
       <c r="U8" t="s">
         <v>102</v>
       </c>
+      <c r="V8" t="s">
+        <v>176</v>
+      </c>
       <c r="W8" t="s">
         <v>183</v>
       </c>
@@ -7259,7 +7866,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -7294,7 +7901,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -7326,7 +7933,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -7354,6 +7961,9 @@
       <c r="I13" t="s">
         <v>83</v>
       </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
       <c r="M13" t="s">
         <v>95</v>
       </c>
@@ -7504,7 +8114,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -7521,7 +8131,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -7537,6 +8147,9 @@
       <c r="E22" t="s">
         <v>300</v>
       </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
       <c r="U22" t="s">
         <v>111</v>
       </c>
@@ -7767,7 +8380,7 @@
         <v>343</v>
       </c>
       <c r="U45" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="46">
@@ -7775,7 +8388,7 @@
         <v>212</v>
       </c>
       <c r="U46" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="47">
@@ -7783,7 +8396,7 @@
         <v>321</v>
       </c>
       <c r="U47" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48">
@@ -7791,7 +8404,7 @@
         <v>340</v>
       </c>
       <c r="U48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49">
@@ -7799,7 +8412,7 @@
         <v>369</v>
       </c>
       <c r="U49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50">
@@ -7807,7 +8420,7 @@
         <v>303</v>
       </c>
       <c r="U50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51">
@@ -7815,7 +8428,7 @@
         <v>357</v>
       </c>
       <c r="U51" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52">
@@ -7823,7 +8436,7 @@
         <v>332</v>
       </c>
       <c r="U52" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53">
@@ -7831,7 +8444,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54">
@@ -7839,7 +8452,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="55">
@@ -7847,7 +8460,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
@@ -7855,7 +8468,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57">
@@ -7863,7 +8476,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58">
@@ -7871,7 +8484,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="59">
@@ -7879,7 +8492,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -7887,7 +8500,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61">
@@ -7895,7 +8508,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62">
@@ -7903,7 +8516,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="63">
@@ -7911,7 +8524,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64">
@@ -7919,7 +8532,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>448</v>
+        <v>140</v>
       </c>
     </row>
     <row r="65">
@@ -7927,7 +8540,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="66">
@@ -7935,7 +8548,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="67">
@@ -7943,7 +8556,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68">
@@ -7951,7 +8564,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69">
@@ -7959,7 +8572,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>144</v>
+        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7967,7 +8580,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71">
@@ -7975,7 +8588,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72">
@@ -7983,7 +8596,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73">
@@ -7991,7 +8604,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="74">
@@ -7999,7 +8612,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75">
@@ -8007,7 +8620,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -8015,7 +8628,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77">
@@ -8023,7 +8636,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="78">
@@ -8031,7 +8644,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="79">
@@ -8039,7 +8652,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="80">
@@ -8047,7 +8660,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81">
@@ -8055,7 +8668,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="82">
@@ -8063,7 +8676,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="83">
@@ -8071,7 +8684,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84">
@@ -8079,7 +8692,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85">
@@ -8087,7 +8700,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="86">
@@ -8095,7 +8708,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87">
@@ -8103,7 +8716,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88">
@@ -8111,7 +8724,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89">
@@ -8119,7 +8732,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90">
@@ -8127,7 +8740,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91">
@@ -8135,7 +8748,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="92">
@@ -8143,106 +8756,116 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="U113" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="U114" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4563" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1471,7 +1471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="146" x14ac:knownFonts="1">
+  <fonts count="161" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2394,8 +2394,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3791,8 +3885,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="255">
+  <borders count="283">
     <border>
       <left/>
       <right/>
@@ -6368,6 +6615,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6375,7 +6904,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="188">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6868,49 +7397,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="222" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="222" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="225" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="225" fontId="133" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="228" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="228" fontId="134" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="135" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="136" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="234" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="234" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="237" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="237" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="240" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="240" fontId="141" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="142" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="144" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$13</definedName>
+    <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5018" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5474" uniqueCount="467">
   <si>
     <t>description</t>
   </si>
@@ -1471,7 +1471,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="161" x14ac:knownFonts="1">
+  <fonts count="176" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2488,8 +2488,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4038,8 +4132,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="283">
+  <borders count="311">
     <border>
       <left/>
       <right/>
@@ -6897,6 +7144,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6904,7 +7433,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="203">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7442,49 +7971,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="145" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="249" borderId="262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="249" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="252" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="252" fontId="148" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="255" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="255" fontId="149" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="150" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="151" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="261" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="261" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="264" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="264" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="267" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="267" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="157" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="158" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8296,7 +8870,7 @@
         <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="M7" t="s">
         <v>33</v>
@@ -8352,7 +8926,7 @@
         <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M8" t="s">
         <v>92</v>
@@ -8402,7 +8976,7 @@
         <v>391</v>
       </c>
       <c r="K9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" t="s">
         <v>93</v>
@@ -8440,7 +9014,7 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
-        <v>461</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
         <v>440</v>
@@ -8475,7 +9049,7 @@
         <v>42</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="M11" t="s">
         <v>94</v>
@@ -8507,7 +9081,7 @@
         <v>82</v>
       </c>
       <c r="K12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M12" t="s">
         <v>41</v>
@@ -8536,7 +9110,7 @@
         <v>83</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
         <v>95</v>
@@ -8563,6 +9137,9 @@
       </c>
       <c r="I14" t="s">
         <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>43</v>
       </c>
       <c r="M14" t="s">
         <v>96</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$8</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5474" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6848" uniqueCount="470">
   <si>
     <t>description</t>
   </si>
@@ -1464,6 +1464,15 @@
   </si>
   <si>
     <t>replyOK(text)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>json(file,worksheet,range,header,output)</t>
+  </si>
+  <si>
+    <t>csv(file,worksheet,range,output)</t>
   </si>
 </sst>
 </file>
@@ -1471,7 +1480,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="176" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2582,8 +2591,290 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4285,8 +4576,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="311">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -7426,6 +8176,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7433,7 +9029,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="203">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8016,49 +9612,184 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="276" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="276" fontId="161" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="279" borderId="294" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="279" fontId="163" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="282" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="282" fontId="164" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="165" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="166" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="288" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="288" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="291" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="291" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="294" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="294" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="173" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="174" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="175" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="303" fontId="176" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="306" fontId="178" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="309" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="181" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="318" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="321" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="330" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="336" fontId="194" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="195" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="196" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="348" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8601,7 +10332,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -8675,7 +10406,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -8746,7 +10477,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -8808,7 +10539,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -8864,7 +10595,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -8920,7 +10651,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -8972,6 +10703,9 @@
       <c r="E9" t="s">
         <v>307</v>
       </c>
+      <c r="F9" t="s">
+        <v>325</v>
+      </c>
       <c r="I9" t="s">
         <v>391</v>
       </c>
@@ -9009,6 +10743,9 @@
       </c>
       <c r="E10" t="s">
         <v>353</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,12 +19,12 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$33</definedName>
+    <definedName name="base">'#system'!$C$2:$C$34</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$10</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6848" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="474">
   <si>
     <t>description</t>
   </si>
@@ -1473,6 +1473,18 @@
   </si>
   <si>
     <t>csv(file,worksheet,range,output)</t>
+  </si>
+  <si>
+    <t>saveCount(text,regex,saveVar)</t>
+  </si>
+  <si>
+    <t>assertPassword(file)</t>
+  </si>
+  <si>
+    <t>clearPassword(file,password)</t>
+  </si>
+  <si>
+    <t>setPassword(file,password)</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1492,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="251" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2873,8 +2885,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="436">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5035,8 +5235,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9022,6 +9528,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9029,7 +10099,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="278">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9747,49 +10817,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="357" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="357" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="384" fontId="221" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="387" fontId="223" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="390" fontId="224" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="225" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="226" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="227" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="396" fontId="228" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="399" fontId="229" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="230" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="402" fontId="231" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="232" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="233" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10252,7 +11412,7 @@
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>471</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
@@ -10332,7 +11492,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>469</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
         <v>28</v>
@@ -10406,7 +11566,7 @@
         <v>388</v>
       </c>
       <c r="F4" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="H4" t="s">
         <v>352</v>
@@ -10477,7 +11637,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>469</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -10539,7 +11699,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>468</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -10595,7 +11755,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -10651,7 +11811,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -10704,7 +11864,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>325</v>
+        <v>473</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -10745,7 +11905,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -10782,6 +11942,9 @@
       <c r="E11" t="s">
         <v>275</v>
       </c>
+      <c r="F11" t="s">
+        <v>324</v>
+      </c>
       <c r="I11" t="s">
         <v>42</v>
       </c>
@@ -10814,6 +11977,9 @@
       <c r="E12" t="s">
         <v>264</v>
       </c>
+      <c r="F12" t="s">
+        <v>325</v>
+      </c>
       <c r="I12" t="s">
         <v>82</v>
       </c>
@@ -10843,6 +12009,9 @@
       <c r="E13" t="s">
         <v>317</v>
       </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
       <c r="I13" t="s">
         <v>83</v>
       </c>
@@ -11047,7 +12216,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -11061,7 +12230,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -11075,7 +12244,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>434</v>
+        <v>227</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -11089,7 +12258,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -11100,7 +12269,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -11111,7 +12280,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -11122,7 +12291,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -11133,7 +12302,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -11144,7 +12313,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -11155,7 +12324,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -11166,7 +12335,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -11176,6 +12345,9 @@
       </c>
     </row>
     <row r="34">
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
       <c r="E34" t="s">
         <v>331</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$114</definedName>
+    <definedName name="web">'#system'!$U$2:$U$115</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7772" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8698" uniqueCount="476">
   <si>
     <t>description</t>
   </si>
@@ -1485,6 +1485,12 @@
   </si>
   <si>
     <t>setPassword(file,password)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headerCellsLoc,rowLocator,cellLocator,nextPageLocator,file)</t>
+  </si>
+  <si>
+    <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
   </si>
 </sst>
 </file>
@@ -1492,7 +1498,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="251" x14ac:knownFonts="1">
+  <fonts count="281" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3073,8 +3079,196 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="436">
+  <fills count="490">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5541,8 +5735,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="507">
     <border>
       <left/>
       <right/>
@@ -10092,6 +10592,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10099,7 +11163,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="308">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10907,49 +11971,139 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="411" fontId="236" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="237" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="414" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="414" fontId="238" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="239" fillId="417" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="417" fontId="239" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="241" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="241" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="242" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="243" fillId="423" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="423" fontId="243" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="244" fillId="426" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="426" fontId="244" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="245" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="245" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="246" fillId="429" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="429" fontId="246" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="247" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="247" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="248" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="248" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="249" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="249" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="250" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="438" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="441" fontId="253" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="444" fontId="254" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="255" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="256" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="450" fontId="258" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="453" fontId="259" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="260" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="456" fontId="261" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="262" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="263" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="264" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11304,7 +12458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA114"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12696,7 +13850,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78">
@@ -12704,7 +13858,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="79">
@@ -12712,7 +13866,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="80">
@@ -12720,7 +13874,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="81">
@@ -12728,7 +13882,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82">
@@ -12736,7 +13890,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83">
@@ -12744,7 +13898,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84">
@@ -12752,7 +13906,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85">
@@ -12760,7 +13914,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86">
@@ -12768,7 +13922,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87">
@@ -12776,7 +13930,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88">
@@ -12784,7 +13938,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89">
@@ -12792,7 +13946,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="90">
@@ -12800,7 +13954,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91">
@@ -12808,7 +13962,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92">
@@ -12816,116 +13970,121 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="U115" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$115</definedName>
+    <definedName name="web">'#system'!$U$2:$U$116</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8698" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="477">
   <si>
     <t>description</t>
   </si>
@@ -1491,6 +1491,9 @@
   </si>
   <si>
     <t>saveDivsAsCsv(headers,rows,cells,nextPage,file)</t>
+  </si>
+  <si>
+    <t>openHttpBasic(url,username,password)</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="281" x14ac:knownFonts="1">
+  <fonts count="296" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3267,8 +3270,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="490">
+  <fills count="517">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6041,8 +6138,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="507">
+  <borders count="535">
     <border>
       <left/>
       <right/>
@@ -11156,6 +11406,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11163,7 +11695,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="323">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12061,49 +12593,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="465" borderId="486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="486" fillId="465" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="468" borderId="490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="468" fontId="268" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="471" borderId="494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="471" fontId="269" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="474" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="272" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="477" borderId="498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="477" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="480" borderId="502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="480" fontId="274" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="275" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="483" borderId="506" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="483" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12458,7 +13035,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AA116"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13794,7 +14371,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71">
@@ -13802,7 +14379,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72">
@@ -13810,7 +14387,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73">
@@ -13818,7 +14395,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74">
@@ -13826,7 +14403,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="75">
@@ -13834,7 +14411,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="76">
@@ -13842,7 +14419,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -13850,7 +14427,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78">
@@ -13858,7 +14435,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79">
@@ -13866,7 +14443,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -13874,7 +14451,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81">
@@ -13882,7 +14459,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="82">
@@ -13890,7 +14467,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83">
@@ -13898,7 +14475,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="84">
@@ -13906,7 +14483,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="85">
@@ -13914,7 +14491,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86">
@@ -13922,7 +14499,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87">
@@ -13930,7 +14507,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88">
@@ -13938,7 +14515,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89">
@@ -13946,7 +14523,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90">
@@ -13954,7 +14531,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="91">
@@ -13962,7 +14539,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="92">
@@ -13970,121 +14547,126 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="U116" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$13</definedName>
+    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
     <definedName name="io">'#system'!$I$2:$I$22</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9162" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="478">
   <si>
     <t>description</t>
   </si>
@@ -1494,6 +1494,9 @@
   </si>
   <si>
     <t>openHttpBasic(url,username,password)</t>
+  </si>
+  <si>
+    <t>columnarCsv(file,worksheet,ranges,output)</t>
   </si>
 </sst>
 </file>
@@ -1501,7 +1504,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="296" x14ac:knownFonts="1">
+  <fonts count="311" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3364,8 +3367,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="517">
+  <fills count="544">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6291,8 +6388,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="535">
+  <borders count="563">
     <border>
       <left/>
       <right/>
@@ -11688,6 +11938,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -11695,7 +12227,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="323">
+  <cellXfs count="338">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12638,49 +13170,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="492" borderId="514" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="492" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="495" borderId="518" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="518" fillId="495" fontId="283" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="498" borderId="522" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="498" fontId="284" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="285" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="286" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="286" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="288" fillId="504" borderId="526" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="504" fontId="288" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="507" borderId="530" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="507" fontId="289" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="290" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="291" fillId="510" borderId="534" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="510" fontId="291" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="292" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="292" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="293" fillId="516" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="293" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="294" fillId="513" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="294" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13368,7 +13945,7 @@
         <v>337</v>
       </c>
       <c r="F5" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="H5" t="s">
         <v>349</v>
@@ -13430,7 +14007,7 @@
         <v>389</v>
       </c>
       <c r="F6" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
@@ -13486,7 +14063,7 @@
         <v>367</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>468</v>
       </c>
       <c r="I7" t="s">
         <v>81</v>
@@ -13542,7 +14119,7 @@
         <v>368</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -13595,7 +14172,7 @@
         <v>307</v>
       </c>
       <c r="F9" t="s">
-        <v>473</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
         <v>391</v>
@@ -13636,7 +14213,7 @@
         <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -13674,7 +14251,7 @@
         <v>275</v>
       </c>
       <c r="F11" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I11" t="s">
         <v>42</v>
@@ -13709,7 +14286,7 @@
         <v>264</v>
       </c>
       <c r="F12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I12" t="s">
         <v>82</v>
@@ -13741,7 +14318,7 @@
         <v>317</v>
       </c>
       <c r="F13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I13" t="s">
         <v>83</v>
@@ -13771,6 +14348,9 @@
       </c>
       <c r="E14" t="s">
         <v>265</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
       </c>
       <c r="I14" t="s">
         <v>84</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$F$2:$F$14</definedName>
     <definedName name="external">'#system'!$G$2:$G$3</definedName>
     <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$22</definedName>
+    <definedName name="io">'#system'!$I$2:$I$23</definedName>
     <definedName name="jms">'#system'!$J$2:$J$4</definedName>
     <definedName name="json">'#system'!$K$2:$K$14</definedName>
     <definedName name="mail">'#system'!$L$2:$L$2</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9627" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10093" uniqueCount="479">
   <si>
     <t>description</t>
   </si>
@@ -1497,6 +1497,9 @@
   </si>
   <si>
     <t>columnarCsv(file,worksheet,ranges,output)</t>
+  </si>
+  <si>
+    <t>rename(target,newName)</t>
   </si>
 </sst>
 </file>
@@ -1504,7 +1507,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="311" x14ac:knownFonts="1">
+  <fonts count="326" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3461,8 +3464,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="544">
+  <fills count="571">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6541,8 +6638,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="563">
+  <borders count="591">
     <border>
       <left/>
       <right/>
@@ -12220,6 +12470,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12227,7 +12759,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="338">
+  <cellXfs count="353">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13215,49 +13747,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="295" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="296" fillId="519" borderId="542" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="519" fontId="296" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="298" fillId="522" borderId="546" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="522" fontId="298" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="299" fillId="525" borderId="550" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="550" fillId="525" fontId="299" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="300" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="301" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="301" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="302" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="531" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="531" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="534" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="534" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="305" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="537" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="537" fontId="306" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="308" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="309" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14353,7 +14930,7 @@
         <v>326</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="K14" t="s">
         <v>43</v>
@@ -14382,7 +14959,7 @@
         <v>266</v>
       </c>
       <c r="I15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M15" t="s">
         <v>97</v>
@@ -14408,7 +14985,7 @@
         <v>318</v>
       </c>
       <c r="I16" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="N16" t="s">
         <v>253</v>
@@ -14431,7 +15008,7 @@
         <v>90</v>
       </c>
       <c r="I17" t="s">
-        <v>44</v>
+        <v>381</v>
       </c>
       <c r="U17" t="s">
         <v>106</v>
@@ -14448,7 +15025,7 @@
         <v>91</v>
       </c>
       <c r="I18" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="U18" t="s">
         <v>107</v>
@@ -14465,7 +15042,7 @@
         <v>297</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="U19" t="s">
         <v>108</v>
@@ -14482,7 +15059,7 @@
         <v>298</v>
       </c>
       <c r="I20" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="U20" t="s">
         <v>109</v>
@@ -14499,7 +15076,7 @@
         <v>299</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="U21" t="s">
         <v>110</v>
@@ -14516,7 +15093,7 @@
         <v>300</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U22" t="s">
         <v>111</v>
@@ -14531,6 +15108,9 @@
       </c>
       <c r="E23" t="s">
         <v>291</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
       </c>
       <c r="U23" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$34</definedName>
+    <definedName name="base">'#system'!$C$2:$C$36</definedName>
     <definedName name="csv">'#system'!$D$2:$D$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10093" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10561" uniqueCount="481">
   <si>
     <t>description</t>
   </si>
@@ -1500,6 +1500,12 @@
   </si>
   <si>
     <t>rename(target,newName)</t>
+  </si>
+  <si>
+    <t>assertArrayContain(array,expected)</t>
+  </si>
+  <si>
+    <t>assertArrayNotContain(array,unexpected)</t>
   </si>
 </sst>
 </file>
@@ -1507,7 +1513,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="326" x14ac:knownFonts="1">
+  <fonts count="341" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3558,8 +3564,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="571">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6791,8 +6891,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="591">
+  <borders count="619">
     <border>
       <left/>
       <right/>
@@ -12752,6 +13005,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -12759,7 +13294,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="353">
+  <cellXfs count="368">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13792,49 +14327,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="546" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="546" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="549" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="549" fontId="313" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="552" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="552" fontId="314" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="316" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="558" borderId="582" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="582" fillId="558" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="561" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="561" fontId="319" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="320" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="322" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="323" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14368,7 +14948,7 @@
         <v>374</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>479</v>
       </c>
       <c r="D3" t="s">
         <v>366</v>
@@ -14442,7 +15022,7 @@
         <v>375</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>74</v>
@@ -14513,7 +15093,7 @@
         <v>376</v>
       </c>
       <c r="C5" t="s">
-        <v>225</v>
+        <v>480</v>
       </c>
       <c r="D5" t="s">
         <v>459</v>
@@ -14578,7 +15158,7 @@
         <v>377</v>
       </c>
       <c r="C6" t="s">
-        <v>319</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
         <v>389</v>
@@ -14634,7 +15214,7 @@
         <v>378</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
         <v>367</v>
@@ -14690,7 +15270,7 @@
         <v>379</v>
       </c>
       <c r="C8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E8" t="s">
         <v>368</v>
@@ -14743,7 +15323,7 @@
         <v>380</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
         <v>307</v>
@@ -14784,7 +15364,7 @@
         <v>334</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E10" t="s">
         <v>353</v>
@@ -14822,7 +15402,7 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>342</v>
+        <v>256</v>
       </c>
       <c r="E11" t="s">
         <v>275</v>
@@ -14857,7 +15437,7 @@
         <v>197</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>320</v>
       </c>
       <c r="E12" t="s">
         <v>264</v>
@@ -14889,7 +15469,7 @@
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>342</v>
       </c>
       <c r="E13" t="s">
         <v>317</v>
@@ -14921,7 +15501,7 @@
         <v>240</v>
       </c>
       <c r="C14" t="s">
-        <v>386</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
         <v>265</v>
@@ -14953,7 +15533,7 @@
         <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>387</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
         <v>266</v>
@@ -14979,7 +15559,7 @@
         <v>397</v>
       </c>
       <c r="C16" t="s">
-        <v>433</v>
+        <v>386</v>
       </c>
       <c r="E16" t="s">
         <v>318</v>
@@ -15002,7 +15582,7 @@
         <v>430</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>387</v>
       </c>
       <c r="E17" t="s">
         <v>90</v>
@@ -15019,7 +15599,7 @@
         <v>431</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>433</v>
       </c>
       <c r="E18" t="s">
         <v>91</v>
@@ -15036,7 +15616,7 @@
         <v>358</v>
       </c>
       <c r="C19" t="s">
-        <v>257</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>297</v>
@@ -15053,7 +15633,7 @@
         <v>398</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
         <v>298</v>
@@ -15070,7 +15650,7 @@
         <v>55</v>
       </c>
       <c r="C21" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E21" t="s">
         <v>299</v>
@@ -15087,7 +15667,7 @@
         <v>56</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
         <v>300</v>
@@ -15104,7 +15684,7 @@
         <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>470</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
         <v>291</v>
@@ -15121,7 +15701,7 @@
         <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>226</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
         <v>280</v>
@@ -15135,7 +15715,7 @@
         <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>227</v>
+        <v>470</v>
       </c>
       <c r="E25" t="s">
         <v>77</v>
@@ -15149,7 +15729,7 @@
         <v>228</v>
       </c>
       <c r="C26" t="s">
-        <v>434</v>
+        <v>226</v>
       </c>
       <c r="E26" t="s">
         <v>283</v>
@@ -15160,7 +15740,7 @@
     </row>
     <row r="27">
       <c r="C27" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="E27" t="s">
         <v>267</v>
@@ -15171,7 +15751,7 @@
     </row>
     <row r="28">
       <c r="C28" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="E28" t="s">
         <v>284</v>
@@ -15182,7 +15762,7 @@
     </row>
     <row r="29">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E29" t="s">
         <v>285</v>
@@ -15193,7 +15773,7 @@
     </row>
     <row r="30">
       <c r="C30" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>217</v>
@@ -15204,7 +15784,7 @@
     </row>
     <row r="31">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E31" t="s">
         <v>276</v>
@@ -15215,7 +15795,7 @@
     </row>
     <row r="32">
       <c r="C32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>286</v>
@@ -15226,7 +15806,7 @@
     </row>
     <row r="33">
       <c r="C33" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E33" t="s">
         <v>261</v>
@@ -15237,7 +15817,7 @@
     </row>
     <row r="34">
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E34" t="s">
         <v>331</v>
@@ -15247,6 +15827,9 @@
       </c>
     </row>
     <row r="35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="E35" t="s">
         <v>308</v>
       </c>
@@ -15255,6 +15838,9 @@
       </c>
     </row>
     <row r="36">
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
       <c r="E36" t="s">
         <v>262</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
     <definedName name="step">'#system'!$T$2:$T$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$116</definedName>
+    <definedName name="web">'#system'!$U$2:$U$117</definedName>
     <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
     <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
     <definedName name="ws">'#system'!$X$2:$X$16</definedName>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10561" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11030" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1506,6 +1506,9 @@
   </si>
   <si>
     <t>assertArrayNotContain(array,unexpected)</t>
+  </si>
+  <si>
+    <t>deselect(locator,text)</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1516,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="341" x14ac:knownFonts="1">
+  <fonts count="356" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3658,8 +3661,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="625">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7044,8 +7141,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="619">
+  <borders count="647">
     <border>
       <left/>
       <right/>
@@ -13287,6 +13537,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13294,7 +13826,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="368">
+  <cellXfs count="383">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14372,49 +14904,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="573" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="573" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="576" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="576" fontId="328" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="579" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="579" fontId="329" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="330" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="331" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="585" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="585" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="588" borderId="614" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="614" fillId="588" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="335" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="591" borderId="618" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="591" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14769,7 +15346,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA116"/>
+  <dimension ref="A1:AA117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15981,7 +16558,7 @@
         <v>269</v>
       </c>
       <c r="U53" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
@@ -15989,7 +16566,7 @@
         <v>293</v>
       </c>
       <c r="U54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
@@ -15997,7 +16574,7 @@
         <v>294</v>
       </c>
       <c r="U55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56">
@@ -16005,7 +16582,7 @@
         <v>295</v>
       </c>
       <c r="U56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57">
@@ -16013,7 +16590,7 @@
         <v>304</v>
       </c>
       <c r="U57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58">
@@ -16021,7 +16598,7 @@
         <v>313</v>
       </c>
       <c r="U58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59">
@@ -16029,7 +16606,7 @@
         <v>338</v>
       </c>
       <c r="U59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="60">
@@ -16037,7 +16614,7 @@
         <v>310</v>
       </c>
       <c r="U60" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61">
@@ -16045,7 +16622,7 @@
         <v>311</v>
       </c>
       <c r="U61" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62">
@@ -16053,7 +16630,7 @@
         <v>370</v>
       </c>
       <c r="U62" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63">
@@ -16061,7 +16638,7 @@
         <v>371</v>
       </c>
       <c r="U63" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64">
@@ -16069,7 +16646,7 @@
         <v>346</v>
       </c>
       <c r="U64" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65">
@@ -16077,7 +16654,7 @@
         <v>314</v>
       </c>
       <c r="U65" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
@@ -16085,7 +16662,7 @@
         <v>270</v>
       </c>
       <c r="U66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67">
@@ -16093,7 +16670,7 @@
         <v>354</v>
       </c>
       <c r="U67" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="68">
@@ -16101,7 +16678,7 @@
         <v>315</v>
       </c>
       <c r="U68" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69">
@@ -16109,7 +16686,7 @@
         <v>411</v>
       </c>
       <c r="U69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70">
@@ -16117,7 +16694,7 @@
         <v>305</v>
       </c>
       <c r="U70" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71">
@@ -16125,7 +16702,7 @@
         <v>412</v>
       </c>
       <c r="U71" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72">
@@ -16133,7 +16710,7 @@
         <v>263</v>
       </c>
       <c r="U72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73">
@@ -16141,7 +16718,7 @@
         <v>345</v>
       </c>
       <c r="U73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="74">
@@ -16149,7 +16726,7 @@
         <v>281</v>
       </c>
       <c r="U74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -16157,7 +16734,7 @@
         <v>287</v>
       </c>
       <c r="U75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -16165,7 +16742,7 @@
         <v>292</v>
       </c>
       <c r="U76" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -16173,7 +16750,7 @@
         <v>435</v>
       </c>
       <c r="U77" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -16181,7 +16758,7 @@
         <v>333</v>
       </c>
       <c r="U78" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="79">
@@ -16189,7 +16766,7 @@
         <v>271</v>
       </c>
       <c r="U79" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="80">
@@ -16197,7 +16774,7 @@
         <v>282</v>
       </c>
       <c r="U80" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81">
@@ -16205,7 +16782,7 @@
         <v>288</v>
       </c>
       <c r="U81" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="82">
@@ -16213,7 +16790,7 @@
         <v>277</v>
       </c>
       <c r="U82" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
@@ -16221,7 +16798,7 @@
         <v>272</v>
       </c>
       <c r="U83" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84">
@@ -16229,7 +16806,7 @@
         <v>289</v>
       </c>
       <c r="U84" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85">
@@ -16237,7 +16814,7 @@
         <v>273</v>
       </c>
       <c r="U85" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="86">
@@ -16245,7 +16822,7 @@
         <v>274</v>
       </c>
       <c r="U86" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="87">
@@ -16253,7 +16830,7 @@
         <v>306</v>
       </c>
       <c r="U87" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="88">
@@ -16261,7 +16838,7 @@
         <v>312</v>
       </c>
       <c r="U88" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="89">
@@ -16269,7 +16846,7 @@
         <v>296</v>
       </c>
       <c r="U89" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90">
@@ -16277,7 +16854,7 @@
         <v>341</v>
       </c>
       <c r="U90" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="91">
@@ -16285,7 +16862,7 @@
         <v>278</v>
       </c>
       <c r="U91" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92">
@@ -16293,126 +16870,131 @@
         <v>279</v>
       </c>
       <c r="U92" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93">
       <c r="U93" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94">
       <c r="U94" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="95">
       <c r="U95" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="U96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97">
       <c r="U97" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="98">
       <c r="U98" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99">
       <c r="U99" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="U100" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="101">
       <c r="U101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102">
       <c r="U102" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="103">
       <c r="U103" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="104">
       <c r="U104" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="105">
       <c r="U105" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="106">
       <c r="U106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107">
       <c r="U107" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="108">
       <c r="U108" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109">
       <c r="U109" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="110">
       <c r="U110" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="111">
       <c r="U111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112">
       <c r="U112" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="113">
       <c r="U113" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114">
       <c r="U114" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="115">
       <c r="U115" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="116">
       <c r="U116" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="U117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11030" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="482">
   <si>
     <t>description</t>
   </si>
@@ -1516,7 +1516,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="356" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3755,8 +3755,102 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="625">
+  <fills count="652">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7294,8 +7388,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="647">
+  <borders count="675">
     <border>
       <left/>
       <right/>
@@ -13819,6 +14066,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13826,7 +14355,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="383">
+  <cellXfs count="398">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14949,49 +15478,94 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="600" borderId="626" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="600" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="603" borderId="630" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="603" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="606" borderId="634" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="606" fontId="344" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="345" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="609" fontId="346" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="612" borderId="638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="612" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="615" borderId="642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="615" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="618" borderId="646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="646" fillId="618" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="624" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="624" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,36 +19,37 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$C$2:$C$36</definedName>
-    <definedName name="csv">'#system'!$D$2:$D$5</definedName>
+    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$E$2:$E$92</definedName>
-    <definedName name="excel">'#system'!$F$2:$F$14</definedName>
-    <definedName name="external">'#system'!$G$2:$G$3</definedName>
-    <definedName name="image">'#system'!$H$2:$H$5</definedName>
-    <definedName name="io">'#system'!$I$2:$I$23</definedName>
-    <definedName name="jms">'#system'!$J$2:$J$4</definedName>
-    <definedName name="json">'#system'!$K$2:$K$14</definedName>
-    <definedName name="mail">'#system'!$L$2:$L$2</definedName>
+    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
+    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
+    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
+    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$M$2:$M$15</definedName>
-    <definedName name="pdf">'#system'!$N$2:$N$16</definedName>
-    <definedName name="rdbms">'#system'!$O$2:$O$7</definedName>
-    <definedName name="redis">'#system'!$P$2:$P$10</definedName>
-    <definedName name="sms">'#system'!$Q$2:$Q$2</definedName>
-    <definedName name="sound">'#system'!$R$2:$R$5</definedName>
-    <definedName name="ssh">'#system'!$S$2:$S$9</definedName>
-    <definedName name="step">'#system'!$T$2:$T$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$26</definedName>
-    <definedName name="web">'#system'!$U$2:$U$117</definedName>
-    <definedName name="webalert">'#system'!$V$2:$V$8</definedName>
-    <definedName name="webcookie">'#system'!$W$2:$W$8</definedName>
-    <definedName name="ws">'#system'!$X$2:$X$16</definedName>
-    <definedName name="ws.async">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="xml">'#system'!$Z$2:$Z$11</definedName>
+    <definedName name="number">'#system'!$N$2:$N$15</definedName>
+    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
+    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
+    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
+    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
+    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
+    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
+    <definedName name="step">'#system'!$U$2:$U$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$27</definedName>
+    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
+    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
+    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
+    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11499" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11974" uniqueCount="487">
   <si>
     <t>description</t>
   </si>
@@ -1509,6 +1510,21 @@
   </si>
   <si>
     <t>deselect(locator,text)</t>
+  </si>
+  <si>
+    <t>aws.ses</t>
+  </si>
+  <si>
+    <t>sendMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>sendTextMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>base64(var,file)</t>
+  </si>
+  <si>
+    <t>upload(url,body,fileParams,var)</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1532,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="371" x14ac:knownFonts="1">
+  <fonts count="387" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3849,8 +3865,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="652">
+  <fills count="679">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7541,8 +7658,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="675">
+  <borders count="703">
     <border>
       <left/>
       <right/>
@@ -14348,6 +14618,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14355,7 +14907,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="398">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -15523,49 +16075,97 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="627" borderId="654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="627" fontId="356" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="357" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="630" borderId="658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="630" fontId="358" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="633" borderId="662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="633" fontId="359" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="360" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="636" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="636" fontId="361" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="639" borderId="666" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="639" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="642" borderId="670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="645" borderId="674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="645" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="651" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="651" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="648" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15920,7 +16520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA117"/>
+  <dimension ref="A1:AB117"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15939,75 +16539,78 @@
         <v>372</v>
       </c>
       <c r="C1" t="s">
+        <v>482</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>22</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>348</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>334</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>197</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>53</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>240</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>54</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>397</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>430</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>431</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>358</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>398</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>55</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>56</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>57</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>58</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>432</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -16019,1556 +16622,1571 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>73</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>471</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>350</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>316</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>385</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>436</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>437</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>438</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>254</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>218</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>399</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>442</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>443</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>382</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>408</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>172</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>177</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>184</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>451</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s">
         <v>374</v>
       </c>
       <c r="C3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D3" t="s">
         <v>479</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>366</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>50</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>342</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>335</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>439</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>241</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>219</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>400</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>444</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>383</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>409</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>99</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>173</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>178</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>365</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>185</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>388</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>472</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>352</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>336</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>26</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>220</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>401</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>445</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>359</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>410</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>355</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>174</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>179</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>185</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>452</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>480</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>459</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>337</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>477</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>349</v>
       </c>
-      <c r="I5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
+        <v>485</v>
+      </c>
+      <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>243</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>221</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>402</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>446</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>360</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>356</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>175</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>180</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>186</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>453</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>389</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>469</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>31</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>244</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>392</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>403</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>362</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>100</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>465</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>181</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>187</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>454</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>225</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>367</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>468</v>
       </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>33</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>245</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>441</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>404</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>361</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>101</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>466</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>188</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>455</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>319</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>368</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>329</v>
       </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>246</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>405</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>363</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>176</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>189</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>456</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>307</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>330</v>
       </c>
-      <c r="I9" t="s">
-        <v>391</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>93</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>247</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>406</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>364</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>210</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>190</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>316</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>353</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>473</v>
       </c>
-      <c r="I10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>440</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>248</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>407</v>
       </c>
-      <c r="U10" t="s">
+      <c r="V10" t="s">
         <v>258</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>191</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" t="s">
         <v>256</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>275</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>323</v>
       </c>
-      <c r="I11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" t="s">
         <v>461</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>94</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>249</v>
       </c>
-      <c r="U11" t="s">
+      <c r="V11" t="s">
         <v>259</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>260</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
         <v>320</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>264</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>324</v>
       </c>
-      <c r="I12" t="s">
-        <v>82</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L12" t="s">
         <v>39</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>250</v>
       </c>
-      <c r="U12" t="s">
+      <c r="V12" t="s">
         <v>103</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D13" t="s">
         <v>342</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>317</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>325</v>
       </c>
-      <c r="I13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" t="s">
         <v>40</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>95</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>255</v>
       </c>
-      <c r="U13" t="s">
+      <c r="V13" t="s">
         <v>327</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" t="s">
         <v>37</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>265</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>326</v>
       </c>
-      <c r="I14" t="s">
-        <v>478</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>96</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>251</v>
       </c>
-      <c r="U14" t="s">
+      <c r="V14" t="s">
         <v>104</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" t="s">
         <v>60</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>266</v>
       </c>
-      <c r="I15" t="s">
-        <v>84</v>
-      </c>
-      <c r="M15" t="s">
+      <c r="J15" t="s">
+        <v>478</v>
+      </c>
+      <c r="N15" t="s">
         <v>97</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>252</v>
       </c>
-      <c r="U15" t="s">
+      <c r="V15" t="s">
         <v>105</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>397</v>
-      </c>
-      <c r="C16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" t="s">
         <v>386</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>318</v>
       </c>
-      <c r="I16" t="s">
-        <v>85</v>
-      </c>
-      <c r="N16" t="s">
+      <c r="J16" t="s">
+        <v>84</v>
+      </c>
+      <c r="O16" t="s">
         <v>253</v>
       </c>
-      <c r="U16" t="s">
+      <c r="V16" t="s">
         <v>76</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>430</v>
-      </c>
-      <c r="C17" t="s">
+        <v>397</v>
+      </c>
+      <c r="D17" t="s">
         <v>387</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>90</v>
       </c>
-      <c r="I17" t="s">
-        <v>381</v>
-      </c>
-      <c r="U17" t="s">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="V17" t="s">
         <v>106</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>431</v>
-      </c>
-      <c r="C18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" t="s">
         <v>433</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>91</v>
       </c>
-      <c r="I18" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" t="s">
+      <c r="J18" t="s">
+        <v>381</v>
+      </c>
+      <c r="V18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>358</v>
-      </c>
-      <c r="C19" t="s">
+        <v>431</v>
+      </c>
+      <c r="D19" t="s">
         <v>61</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>297</v>
       </c>
-      <c r="I19" t="s">
-        <v>393</v>
-      </c>
-      <c r="U19" t="s">
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+      <c r="V19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>398</v>
-      </c>
-      <c r="C20" t="s">
+        <v>358</v>
+      </c>
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>298</v>
       </c>
-      <c r="I20" t="s">
-        <v>86</v>
-      </c>
-      <c r="U20" t="s">
+      <c r="J20" t="s">
+        <v>393</v>
+      </c>
+      <c r="V20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" t="s">
+        <v>398</v>
+      </c>
+      <c r="D21" t="s">
         <v>257</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="I21" t="s">
-        <v>460</v>
-      </c>
-      <c r="U21" t="s">
+      <c r="J21" t="s">
+        <v>86</v>
+      </c>
+      <c r="V21" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
         <v>63</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>300</v>
       </c>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U22" t="s">
+      <c r="J22" t="s">
+        <v>460</v>
+      </c>
+      <c r="V22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>322</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>291</v>
       </c>
-      <c r="I23" t="s">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s">
+      <c r="J23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
         <v>64</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>280</v>
       </c>
-      <c r="U24" t="s">
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="V24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>432</v>
-      </c>
-      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
         <v>470</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>77</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>226</v>
+      </c>
+      <c r="F26" t="s">
+        <v>283</v>
+      </c>
+      <c r="V26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
         <v>228</v>
       </c>
-      <c r="C26" t="s">
-        <v>226</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
-      </c>
-      <c r="U26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>227</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="U27" t="s">
+      <c r="V27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>434</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="U28" t="s">
+      <c r="V28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="29">
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>65</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="U29" t="s">
+      <c r="V29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>66</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="U30" t="s">
+      <c r="V30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="U31" t="s">
+      <c r="V31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>68</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="U32" t="s">
+      <c r="V32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>69</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>70</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="U34" t="s">
+      <c r="V34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="U35" t="s">
+      <c r="V35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="U36" t="s">
+      <c r="V36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="U37" t="s">
+      <c r="V37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="U38" t="s">
+      <c r="V38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="U39" t="s">
+      <c r="V39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="U40" t="s">
+      <c r="V40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="U41" t="s">
+      <c r="V41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="U42" t="s">
+      <c r="V42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="U43" t="s">
+      <c r="V43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="U44" t="s">
+      <c r="V44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="U45" t="s">
+      <c r="V45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="U46" t="s">
+      <c r="V46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="U47" t="s">
+      <c r="V47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="U48" t="s">
+      <c r="V48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="U49" t="s">
+      <c r="V49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="U50" t="s">
+      <c r="V50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="U51" t="s">
+      <c r="V51" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="52">
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="U52" t="s">
+      <c r="V52" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="53">
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="U53" t="s">
+      <c r="V53" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="54">
-      <c r="E54" t="s">
+      <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="U54" t="s">
+      <c r="V54" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="55">
-      <c r="E55" t="s">
+      <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="U55" t="s">
+      <c r="V55" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="56">
-      <c r="E56" t="s">
+      <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="U56" t="s">
+      <c r="V56" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="57">
-      <c r="E57" t="s">
+      <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="U57" t="s">
+      <c r="V57" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="58">
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="U58" t="s">
+      <c r="V58" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="59">
-      <c r="E59" t="s">
+      <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="U59" t="s">
+      <c r="V59" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="60">
-      <c r="E60" t="s">
+      <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="U60" t="s">
+      <c r="V60" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="61">
-      <c r="E61" t="s">
+      <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="U61" t="s">
+      <c r="V61" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="62">
-      <c r="E62" t="s">
+      <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="U62" t="s">
+      <c r="V62" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="63">
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="U63" t="s">
+      <c r="V63" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="64">
-      <c r="E64" t="s">
+      <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="U64" t="s">
+      <c r="V64" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="65">
-      <c r="E65" t="s">
+      <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="U65" t="s">
+      <c r="V65" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="66">
-      <c r="E66" t="s">
+      <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="U66" t="s">
+      <c r="V66" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="67">
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="U67" t="s">
+      <c r="V67" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="68">
-      <c r="E68" t="s">
+      <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="U68" t="s">
+      <c r="V68" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="69">
-      <c r="E69" t="s">
+      <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="U69" t="s">
+      <c r="V69" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="70">
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="U70" t="s">
+      <c r="V70" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="71">
-      <c r="E71" t="s">
+      <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="U71" t="s">
+      <c r="V71" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="72">
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="U72" t="s">
+      <c r="V72" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="73">
-      <c r="E73" t="s">
+      <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="U73" t="s">
+      <c r="V73" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="74">
-      <c r="E74" t="s">
+      <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="U74" t="s">
+      <c r="V74" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="75">
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="U75" t="s">
+      <c r="V75" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76">
-      <c r="E76" t="s">
+      <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="U76" t="s">
+      <c r="V76" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="77">
-      <c r="E77" t="s">
+      <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="U77" t="s">
+      <c r="V77" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="78">
-      <c r="E78" t="s">
+      <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="U78" t="s">
+      <c r="V78" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="79">
-      <c r="E79" t="s">
+      <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="U79" t="s">
+      <c r="V79" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="80">
-      <c r="E80" t="s">
+      <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="U80" t="s">
+      <c r="V80" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="81">
-      <c r="E81" t="s">
+      <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="U81" t="s">
+      <c r="V81" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="82">
-      <c r="E82" t="s">
+      <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="U82" t="s">
+      <c r="V82" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="83">
-      <c r="E83" t="s">
+      <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="U83" t="s">
+      <c r="V83" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="84">
-      <c r="E84" t="s">
+      <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="U84" t="s">
+      <c r="V84" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="85">
-      <c r="E85" t="s">
+      <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="U85" t="s">
+      <c r="V85" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="86">
-      <c r="E86" t="s">
+      <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="U86" t="s">
+      <c r="V86" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="87">
-      <c r="E87" t="s">
+      <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="U87" t="s">
+      <c r="V87" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="88">
-      <c r="E88" t="s">
+      <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="U88" t="s">
+      <c r="V88" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="89">
-      <c r="E89" t="s">
+      <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="U89" t="s">
+      <c r="V89" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="90">
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="U90" t="s">
+      <c r="V90" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="91">
-      <c r="E91" t="s">
+      <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="U91" t="s">
+      <c r="V91" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="92">
-      <c r="E92" t="s">
+      <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="U92" t="s">
+      <c r="V92" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="93">
-      <c r="U93" t="s">
+      <c r="V93" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="94">
-      <c r="U94" t="s">
+      <c r="V94" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="95">
-      <c r="U95" t="s">
+      <c r="V95" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="96">
-      <c r="U96" t="s">
+      <c r="V96" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="97">
-      <c r="U97" t="s">
+      <c r="V97" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="98">
-      <c r="U98" t="s">
+      <c r="V98" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="99">
-      <c r="U99" t="s">
+      <c r="V99" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="100">
-      <c r="U100" t="s">
+      <c r="V100" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101">
-      <c r="U101" t="s">
+      <c r="V101" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="102">
-      <c r="U102" t="s">
+      <c r="V102" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="103">
-      <c r="U103" t="s">
+      <c r="V103" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="104">
-      <c r="U104" t="s">
+      <c r="V104" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="105">
-      <c r="U105" t="s">
+      <c r="V105" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="106">
-      <c r="U106" t="s">
+      <c r="V106" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="107">
-      <c r="U107" t="s">
+      <c r="V107" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="108">
-      <c r="U108" t="s">
+      <c r="V108" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="109">
-      <c r="U109" t="s">
+      <c r="V109" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="110">
-      <c r="U110" t="s">
+      <c r="V110" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="111">
-      <c r="U111" t="s">
+      <c r="V111" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="112">
-      <c r="U112" t="s">
+      <c r="V112" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="113">
-      <c r="U113" t="s">
+      <c r="V113" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="114">
-      <c r="U114" t="s">
+      <c r="V114" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="115">
-      <c r="U115" t="s">
+      <c r="V115" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="116">
-      <c r="U116" t="s">
+      <c r="V116" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="117">
-      <c r="U117" t="s">
+      <c r="V117" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$117</definedName>
+    <definedName name="web">'#system'!$V$2:$V$118</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11974" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12450" uniqueCount="489">
   <si>
     <t>description</t>
   </si>
@@ -1525,6 +1525,12 @@
   </si>
   <si>
     <t>upload(url,body,fileParams,var)</t>
+  </si>
+  <si>
+    <t>sendHtmlMail(profile,to,subject,body)</t>
+  </si>
+  <si>
+    <t>clickWithKeys(locator,keys)</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1538,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="387" x14ac:knownFonts="1">
+  <fonts count="403" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3966,8 +3972,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="679">
+  <fills count="706">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7811,8 +7918,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="703">
+  <borders count="731">
     <border>
       <left/>
       <right/>
@@ -14900,6 +15160,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -14907,7 +15449,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="430">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16120,52 +16662,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="654" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="654" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="657" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="657" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="660" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="660" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="663" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="663" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="666" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="666" fontId="377" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="669" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="669" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="672" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="672" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="675" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="675" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="678" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="678" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="663" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="663" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -16520,7 +17110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB117"/>
+  <dimension ref="A1:AB118"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -16622,7 +17212,7 @@
         <v>373</v>
       </c>
       <c r="C2" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
@@ -17734,7 +18324,7 @@
         <v>357</v>
       </c>
       <c r="V51" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52">
@@ -17742,7 +18332,7 @@
         <v>332</v>
       </c>
       <c r="V52" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53">
@@ -17750,7 +18340,7 @@
         <v>269</v>
       </c>
       <c r="V53" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -17758,7 +18348,7 @@
         <v>293</v>
       </c>
       <c r="V54" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
@@ -17766,7 +18356,7 @@
         <v>294</v>
       </c>
       <c r="V55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56">
@@ -17774,7 +18364,7 @@
         <v>295</v>
       </c>
       <c r="V56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57">
@@ -17782,7 +18372,7 @@
         <v>304</v>
       </c>
       <c r="V57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58">
@@ -17790,7 +18380,7 @@
         <v>313</v>
       </c>
       <c r="V58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="59">
@@ -17798,7 +18388,7 @@
         <v>338</v>
       </c>
       <c r="V59" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60">
@@ -17806,7 +18396,7 @@
         <v>310</v>
       </c>
       <c r="V60" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61">
@@ -17814,7 +18404,7 @@
         <v>311</v>
       </c>
       <c r="V61" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62">
@@ -17822,7 +18412,7 @@
         <v>370</v>
       </c>
       <c r="V62" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="63">
@@ -17830,7 +18420,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64">
@@ -17838,7 +18428,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="65">
@@ -17846,7 +18436,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="66">
@@ -17854,7 +18444,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
@@ -17862,7 +18452,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68">
@@ -17870,7 +18460,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="69">
@@ -17878,7 +18468,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70">
@@ -17886,7 +18476,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71">
@@ -17894,7 +18484,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72">
@@ -17902,7 +18492,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73">
@@ -17910,7 +18500,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74">
@@ -17918,7 +18508,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75">
@@ -17926,7 +18516,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76">
@@ -17934,7 +18524,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77">
@@ -17942,7 +18532,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78">
@@ -17950,7 +18540,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -17958,7 +18548,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80">
@@ -17966,7 +18556,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81">
@@ -17974,7 +18564,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82">
@@ -17982,7 +18572,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83">
@@ -17990,7 +18580,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84">
@@ -17998,7 +18588,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="85">
@@ -18006,7 +18596,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86">
@@ -18014,7 +18604,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="87">
@@ -18022,7 +18612,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="88">
@@ -18030,7 +18620,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89">
@@ -18038,7 +18628,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90">
@@ -18046,7 +18636,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
@@ -18054,7 +18644,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92">
@@ -18062,131 +18652,136 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="V118" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
-    <definedName name="image">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$24</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12450" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13882" uniqueCount="492">
   <si>
     <t>description</t>
   </si>
@@ -1531,6 +1531,15 @@
   </si>
   <si>
     <t>clickWithKeys(locator,keys)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>saveDiff(baseline,actual,saveTo)</t>
+  </si>
+  <si>
+    <t>colorbit(source,bit,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1547,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="403" x14ac:knownFonts="1">
+  <fonts count="451" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4073,8 +4082,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="706">
+  <fills count="787">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8071,8 +8383,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="731">
+  <borders count="815">
     <border>
       <left/>
       <right/>
@@ -15442,6 +16213,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15449,7 +17066,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="430">
+  <cellXfs count="478">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16710,52 +18327,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="681" borderId="710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="710" fillId="681" fontId="387" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="684" borderId="714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="684" fontId="389" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="687" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="687" fontId="390" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="690" borderId="718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="690" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="392" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="693" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="693" fontId="393" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="696" borderId="722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="699" borderId="726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="396" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="397" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="397" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="398" fillId="702" borderId="730" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="702" fontId="398" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="399" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="399" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="400" fillId="705" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="705" fontId="400" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="401" fillId="690" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="690" fontId="401" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="402" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="403" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="742" fillId="711" fontId="405" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="714" fontId="406" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="408" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="720" fontId="409" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="723" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="726" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="413" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="729" fontId="414" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="415" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="732" fontId="416" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="717" fontId="417" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="735" fontId="419" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="738" fontId="421" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="741" fontId="422" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="774" fillId="744" fontId="423" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="424" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="747" fontId="425" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="426" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="750" fontId="427" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="753" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="756" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="431" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="759" fontId="432" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="744" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17230,7 +18991,7 @@
         <v>80</v>
       </c>
       <c r="I2" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="J2" t="s">
         <v>316</v>
@@ -17313,7 +19074,7 @@
         <v>28</v>
       </c>
       <c r="I3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J3" t="s">
         <v>342</v>
@@ -17384,7 +19145,7 @@
         <v>472</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J4" t="s">
         <v>239</v>
@@ -17455,7 +19216,7 @@
         <v>477</v>
       </c>
       <c r="I5" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
         <v>485</v>
@@ -17515,6 +19276,9 @@
       </c>
       <c r="G6" t="s">
         <v>469</v>
+      </c>
+      <c r="I6" t="s">
+        <v>349</v>
       </c>
       <c r="J6" t="s">
         <v>73</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$36</definedName>
+    <definedName name="base">'#system'!$D$2:$D$38</definedName>
     <definedName name="csv">'#system'!$E$2:$E$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
     <definedName name="external">'#system'!$H$2:$H$3</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$24</definedName>
+    <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$14</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$118</definedName>
+    <definedName name="web">'#system'!$V$2:$V$119</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13882" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15321" uniqueCount="496">
   <si>
     <t>description</t>
   </si>
@@ -1540,6 +1540,18 @@
   </si>
   <si>
     <t>colorbit(source,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>openIgnoreTimeout(url)</t>
+  </si>
+  <si>
+    <t>saveVariablesByPrefix(var,prefix)</t>
+  </si>
+  <si>
+    <t>saveVariablesByRegex(var,regex)</t>
+  </si>
+  <si>
+    <t>searchAndReplace(file,config,saveAs)</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1559,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="451" x14ac:knownFonts="1">
+  <fonts count="499" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4385,8 +4397,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="787">
+  <fills count="868">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8842,8 +9157,467 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="815">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -17059,6 +17833,852 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17066,7 +18686,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="478">
+  <cellXfs count="526">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18471,52 +20091,196 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="435" fillId="762" borderId="794" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="762" fontId="435" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="436" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="437" fillId="765" borderId="798" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="765" fontId="437" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="438" fillId="768" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="768" fontId="438" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="439" fillId="771" borderId="802" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="771" fontId="439" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="440" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="441" fillId="774" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="774" fontId="441" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="442" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="443" fillId="777" borderId="806" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="806" fillId="777" fontId="443" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="444" fillId="780" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="780" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="783" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="783" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="447" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="786" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="786" fontId="448" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="771" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="771" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="789" fontId="451" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="792" fontId="453" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="795" fontId="454" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="798" fontId="455" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="456" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="801" fontId="457" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="458" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="804" fontId="459" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="838" fillId="807" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="461" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="810" fontId="462" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="463" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="813" fontId="464" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="798" fontId="465" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="816" fontId="467" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="819" fontId="469" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="822" fontId="470" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="825" fontId="471" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="472" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="828" fontId="473" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="474" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="831" fontId="475" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="834" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="477" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="870" fillId="837" fontId="478" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="479" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="840" fontId="480" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="825" fontId="481" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18871,7 +20635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB118"/>
+  <dimension ref="A1:AB119"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -19739,7 +21503,7 @@
         <v>297</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="V19" t="s">
         <v>108</v>
@@ -19756,7 +21520,7 @@
         <v>298</v>
       </c>
       <c r="J20" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="V20" t="s">
         <v>109</v>
@@ -19773,7 +21537,7 @@
         <v>299</v>
       </c>
       <c r="J21" t="s">
-        <v>86</v>
+        <v>393</v>
       </c>
       <c r="V21" t="s">
         <v>110</v>
@@ -19790,7 +21554,7 @@
         <v>300</v>
       </c>
       <c r="J22" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="V22" t="s">
         <v>111</v>
@@ -19807,7 +21571,7 @@
         <v>291</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="V23" t="s">
         <v>112</v>
@@ -19824,7 +21588,7 @@
         <v>280</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V24" t="s">
         <v>113</v>
@@ -19840,6 +21604,9 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
       <c r="V25" t="s">
         <v>114</v>
       </c>
@@ -19874,7 +21641,7 @@
     </row>
     <row r="28">
       <c r="D28" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
@@ -19885,7 +21652,7 @@
     </row>
     <row r="29">
       <c r="D29" t="s">
-        <v>65</v>
+        <v>494</v>
       </c>
       <c r="F29" t="s">
         <v>285</v>
@@ -19896,7 +21663,7 @@
     </row>
     <row r="30">
       <c r="D30" t="s">
-        <v>66</v>
+        <v>434</v>
       </c>
       <c r="F30" t="s">
         <v>217</v>
@@ -19907,7 +21674,7 @@
     </row>
     <row r="31">
       <c r="D31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" t="s">
         <v>276</v>
@@ -19918,7 +21685,7 @@
     </row>
     <row r="32">
       <c r="D32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" t="s">
         <v>286</v>
@@ -19929,7 +21696,7 @@
     </row>
     <row r="33">
       <c r="D33" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F33" t="s">
         <v>261</v>
@@ -19940,7 +21707,7 @@
     </row>
     <row r="34">
       <c r="D34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
         <v>331</v>
@@ -19951,7 +21718,7 @@
     </row>
     <row r="35">
       <c r="D35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
         <v>308</v>
@@ -19962,7 +21729,7 @@
     </row>
     <row r="36">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F36" t="s">
         <v>262</v>
@@ -19972,6 +21739,9 @@
       </c>
     </row>
     <row r="37">
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
       <c r="F37" t="s">
         <v>309</v>
       </c>
@@ -19980,6 +21750,9 @@
       </c>
     </row>
     <row r="38">
+      <c r="D38" t="s">
+        <v>72</v>
+      </c>
       <c r="F38" t="s">
         <v>268</v>
       </c>
@@ -20264,7 +22037,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74">
@@ -20272,7 +22045,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75">
@@ -20280,7 +22053,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76">
@@ -20288,7 +22061,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77">
@@ -20296,7 +22069,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="78">
@@ -20304,7 +22077,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79">
@@ -20312,7 +22085,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -20320,7 +22093,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="81">
@@ -20328,7 +22101,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="82">
@@ -20336,7 +22109,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83">
@@ -20344,7 +22117,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84">
@@ -20352,7 +22125,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85">
@@ -20360,7 +22133,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="86">
@@ -20368,7 +22141,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="87">
@@ -20376,7 +22149,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="88">
@@ -20384,7 +22157,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="89">
@@ -20392,7 +22165,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90">
@@ -20400,7 +22173,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91">
@@ -20408,7 +22181,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92">
@@ -20416,136 +22189,141 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="V119" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$14</definedName>
+    <definedName name="json">'#system'!$L$2:$L$16</definedName>
     <definedName name="mail">'#system'!$M$2:$M$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15321" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15804" uniqueCount="498">
   <si>
     <t>description</t>
   </si>
@@ -1552,6 +1552,12 @@
   </si>
   <si>
     <t>searchAndReplace(file,config,saveAs)</t>
+  </si>
+  <si>
+    <t>beautify(json,var)</t>
+  </si>
+  <si>
+    <t>minify(json,var)</t>
   </si>
 </sst>
 </file>
@@ -1559,7 +1565,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="499" x14ac:knownFonts="1">
+  <fonts count="515" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4700,8 +4706,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="868">
+  <fills count="895">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9616,8 +9723,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="927">
     <border>
       <left/>
       <right/>
@@ -18679,6 +18939,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18686,7 +19228,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="526">
+  <cellXfs count="542">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20235,52 +20777,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="843" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="843" fontId="483" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="846" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="846" fontId="485" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="849" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="849" fontId="486" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="852" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="852" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="488" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="855" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="855" fontId="489" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="858" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="858" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="861" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="861" fontId="492" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="493" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="493" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="494" fillId="864" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="864" fontId="494" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="495" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="495" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="496" fillId="867" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="867" fontId="496" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="497" fillId="852" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="852" fontId="497" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21292,7 +21882,7 @@
         <v>17</v>
       </c>
       <c r="L11" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="N11" t="s">
         <v>94</v>
@@ -21327,7 +21917,7 @@
         <v>42</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>461</v>
       </c>
       <c r="N12" t="s">
         <v>41</v>
@@ -21359,7 +21949,7 @@
         <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>497</v>
       </c>
       <c r="N13" t="s">
         <v>95</v>
@@ -21391,7 +21981,7 @@
         <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="N14" t="s">
         <v>96</v>
@@ -21419,6 +22009,9 @@
       <c r="J15" t="s">
         <v>478</v>
       </c>
+      <c r="L15" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" t="s">
         <v>97</v>
       </c>
@@ -21444,6 +22037,9 @@
       </c>
       <c r="J16" t="s">
         <v>84</v>
+      </c>
+      <c r="L16" t="s">
+        <v>43</v>
       </c>
       <c r="O16" t="s">
         <v>253</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
     <definedName name="step">'#system'!$U$2:$U$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$119</definedName>
+    <definedName name="web">'#system'!$V$2:$V$120</definedName>
     <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
     <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
     <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
     <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$11</definedName>
+    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15804" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16290" uniqueCount="501">
   <si>
     <t>description</t>
   </si>
@@ -1558,6 +1558,15 @@
   </si>
   <si>
     <t>minify(json,var)</t>
+  </si>
+  <si>
+    <t>dragTo(fromLocator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>beautify(xml,var)</t>
+  </si>
+  <si>
+    <t>minify(xml,var)</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1574,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="515" x14ac:knownFonts="1">
+  <fonts count="531" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4807,8 +4816,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="895">
+  <fills count="922">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9876,8 +9986,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="927">
+  <borders count="955">
     <border>
       <left/>
       <right/>
@@ -19221,6 +19484,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19228,7 +19773,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="542">
+  <cellXfs count="558">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20825,52 +21370,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="498" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="499" fillId="870" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="906" fillId="870" fontId="499" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="500" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="501" fillId="873" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="910" fillId="873" fontId="501" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="502" fillId="876" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="876" fontId="502" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="503" fillId="879" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="914" fillId="879" fontId="503" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="504" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="504" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="505" fillId="882" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="882" fontId="505" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="506" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="506" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="507" fillId="885" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="918" fillId="885" fontId="507" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="508" fillId="888" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="922" fillId="888" fontId="508" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="509" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="509" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="510" fillId="891" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="926" fillId="891" fontId="510" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="511" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="511" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="512" fillId="894" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="894" fontId="512" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="513" fillId="879" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="879" fontId="513" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="514" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21225,7 +21818,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB119"/>
+  <dimension ref="A1:AB120"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21824,7 +22417,7 @@
         <v>190</v>
       </c>
       <c r="AA9" t="s">
-        <v>236</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10">
@@ -21862,7 +22455,7 @@
         <v>191</v>
       </c>
       <c r="AA10" t="s">
-        <v>237</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -21897,7 +22490,7 @@
         <v>260</v>
       </c>
       <c r="AA11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
@@ -21931,6 +22524,9 @@
       <c r="Y12" t="s">
         <v>192</v>
       </c>
+      <c r="AA12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -21963,6 +22559,9 @@
       <c r="Y13" t="s">
         <v>193</v>
       </c>
+      <c r="AA13" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
@@ -22553,7 +23152,7 @@
         <v>371</v>
       </c>
       <c r="V63" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64">
@@ -22561,7 +23160,7 @@
         <v>346</v>
       </c>
       <c r="V64" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="65">
@@ -22569,7 +23168,7 @@
         <v>314</v>
       </c>
       <c r="V65" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66">
@@ -22577,7 +23176,7 @@
         <v>270</v>
       </c>
       <c r="V66" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67">
@@ -22585,7 +23184,7 @@
         <v>354</v>
       </c>
       <c r="V67" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="68">
@@ -22593,7 +23192,7 @@
         <v>315</v>
       </c>
       <c r="V68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69">
@@ -22601,7 +23200,7 @@
         <v>411</v>
       </c>
       <c r="V69" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="70">
@@ -22609,7 +23208,7 @@
         <v>305</v>
       </c>
       <c r="V70" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="71">
@@ -22617,7 +23216,7 @@
         <v>412</v>
       </c>
       <c r="V71" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="72">
@@ -22625,7 +23224,7 @@
         <v>263</v>
       </c>
       <c r="V72" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73">
@@ -22633,7 +23232,7 @@
         <v>345</v>
       </c>
       <c r="V73" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74">
@@ -22641,7 +23240,7 @@
         <v>281</v>
       </c>
       <c r="V74" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75">
@@ -22649,7 +23248,7 @@
         <v>287</v>
       </c>
       <c r="V75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76">
@@ -22657,7 +23256,7 @@
         <v>292</v>
       </c>
       <c r="V76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="77">
@@ -22665,7 +23264,7 @@
         <v>435</v>
       </c>
       <c r="V77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78">
@@ -22673,7 +23272,7 @@
         <v>333</v>
       </c>
       <c r="V78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79">
@@ -22681,7 +23280,7 @@
         <v>271</v>
       </c>
       <c r="V79" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80">
@@ -22689,7 +23288,7 @@
         <v>282</v>
       </c>
       <c r="V80" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -22697,7 +23296,7 @@
         <v>288</v>
       </c>
       <c r="V81" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82">
@@ -22705,7 +23304,7 @@
         <v>277</v>
       </c>
       <c r="V82" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83">
@@ -22713,7 +23312,7 @@
         <v>272</v>
       </c>
       <c r="V83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84">
@@ -22721,7 +23320,7 @@
         <v>289</v>
       </c>
       <c r="V84" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85">
@@ -22729,7 +23328,7 @@
         <v>273</v>
       </c>
       <c r="V85" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86">
@@ -22737,7 +23336,7 @@
         <v>274</v>
       </c>
       <c r="V86" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="87">
@@ -22745,7 +23344,7 @@
         <v>306</v>
       </c>
       <c r="V87" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88">
@@ -22753,7 +23352,7 @@
         <v>312</v>
       </c>
       <c r="V88" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="89">
@@ -22761,7 +23360,7 @@
         <v>296</v>
       </c>
       <c r="V89" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="90">
@@ -22769,7 +23368,7 @@
         <v>341</v>
       </c>
       <c r="V90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91">
@@ -22777,7 +23376,7 @@
         <v>278</v>
       </c>
       <c r="V91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92">
@@ -22785,141 +23384,146 @@
         <v>279</v>
       </c>
       <c r="V92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93">
       <c r="V93" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94">
       <c r="V94" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
       <c r="V95" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="96">
       <c r="V96" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97">
       <c r="V97" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="98">
       <c r="V98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="V99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100">
       <c r="V100" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="101">
       <c r="V101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102">
       <c r="V102" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="V103" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="104">
       <c r="V104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105">
       <c r="V105" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106">
       <c r="V106" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="107">
       <c r="V107" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="108">
       <c r="V108" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="109">
       <c r="V109" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110">
       <c r="V110" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="111">
       <c r="V111" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="112">
       <c r="V112" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113">
       <c r="V113" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="114">
       <c r="V114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115">
       <c r="V115" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="116">
       <c r="V116" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117">
       <c r="V117" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="118">
       <c r="V118" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="119">
       <c r="V119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="V120" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -25,31 +25,32 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
     <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$3</definedName>
+    <definedName name="external">'#system'!$H$2:$H$4</definedName>
     <definedName name="image">'#system'!$I$2:$I$6</definedName>
     <definedName name="io">'#system'!$J$2:$J$25</definedName>
     <definedName name="jms">'#system'!$K$2:$K$4</definedName>
     <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$M$2:$M$2</definedName>
+    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$N$2:$N$15</definedName>
-    <definedName name="pdf">'#system'!$O$2:$O$16</definedName>
-    <definedName name="rdbms">'#system'!$P$2:$P$7</definedName>
-    <definedName name="redis">'#system'!$Q$2:$Q$10</definedName>
-    <definedName name="sms">'#system'!$R$2:$R$2</definedName>
-    <definedName name="sound">'#system'!$S$2:$S$5</definedName>
-    <definedName name="ssh">'#system'!$T$2:$T$9</definedName>
-    <definedName name="step">'#system'!$U$2:$U$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$27</definedName>
-    <definedName name="web">'#system'!$V$2:$V$120</definedName>
-    <definedName name="webalert">'#system'!$W$2:$W$8</definedName>
-    <definedName name="webcookie">'#system'!$X$2:$X$8</definedName>
-    <definedName name="ws">'#system'!$Y$2:$Y$17</definedName>
-    <definedName name="ws.async">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="xml">'#system'!$AA$2:$AA$13</definedName>
+    <definedName name="number">'#system'!$O$2:$O$15</definedName>
+    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
+    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
+    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
+    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
+    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
+    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
+    <definedName name="step">'#system'!$V$2:$V$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$28</definedName>
+    <definedName name="web">'#system'!$W$2:$W$122</definedName>
+    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
+    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
+    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
+    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16290" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16784" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1567,6 +1568,33 @@
   </si>
   <si>
     <t>minify(xml,var)</t>
+  </si>
+  <si>
+    <t>macro</t>
+  </si>
+  <si>
+    <t>runProgram(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>runProgramNoWait(programPathAndParams)</t>
+  </si>
+  <si>
+    <t>description()</t>
+  </si>
+  <si>
+    <t>expects(var,default)</t>
+  </si>
+  <si>
+    <t>produces(var,value)</t>
+  </si>
+  <si>
+    <t>assertIENativeMode()</t>
+  </si>
+  <si>
+    <t>clickOffset(locator,x,y)</t>
+  </si>
+  <si>
+    <t>saveAttributeList(var,locator,attrName)</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="531" x14ac:knownFonts="1">
+  <fonts count="547" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4917,8 +4945,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="922">
+  <fills count="949">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10139,8 +10268,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="955">
+  <borders count="983">
     <border>
       <left/>
       <right/>
@@ -19766,6 +20048,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19773,7 +20337,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="558">
+  <cellXfs count="574">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -21418,52 +21982,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="514" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="515" fillId="897" borderId="934" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="934" fillId="897" fontId="515" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="516" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="516" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="517" fillId="900" borderId="938" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="938" fillId="900" fontId="517" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="518" fillId="903" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="903" fontId="518" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="519" fillId="906" borderId="942" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="942" fillId="906" fontId="519" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="520" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="520" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="521" fillId="909" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="909" fontId="521" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="522" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="522" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="523" fillId="912" borderId="946" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="946" fillId="912" fontId="523" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="524" fillId="915" borderId="950" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="950" fillId="915" fontId="524" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="525" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="525" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="526" fillId="918" borderId="954" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="954" fillId="918" fontId="526" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="527" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="527" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="528" fillId="921" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="921" fontId="528" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="529" fillId="906" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="906" fontId="529" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="530" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -21818,7 +22430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB120"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -21867,48 +22479,51 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
+        <v>501</v>
+      </c>
+      <c r="N1" t="s">
         <v>197</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>53</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>240</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>54</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>430</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>431</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>358</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>398</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>55</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>56</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>57</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>58</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>432</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -21950,48 +22565,51 @@
         <v>436</v>
       </c>
       <c r="M2" t="s">
+        <v>504</v>
+      </c>
+      <c r="N2" t="s">
         <v>437</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>438</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>254</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>218</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>399</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>442</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>443</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>382</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>408</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>98</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>172</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>177</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>184</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>451</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>229</v>
       </c>
     </row>
@@ -22018,7 +22636,7 @@
         <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>502</v>
       </c>
       <c r="I3" t="s">
         <v>350</v>
@@ -22032,43 +22650,46 @@
       <c r="L3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="M3" t="s">
+        <v>505</v>
+      </c>
+      <c r="O3" t="s">
         <v>439</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>241</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>219</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>400</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>444</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>383</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>409</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>99</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>173</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>178</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>365</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>185</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>230</v>
       </c>
     </row>
@@ -22091,6 +22712,9 @@
       <c r="G4" t="s">
         <v>472</v>
       </c>
+      <c r="H4" t="s">
+        <v>503</v>
+      </c>
       <c r="I4" t="s">
         <v>351</v>
       </c>
@@ -22103,43 +22727,46 @@
       <c r="L4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" t="s">
+        <v>506</v>
+      </c>
+      <c r="O4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>242</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>401</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>445</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>359</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>410</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>355</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>174</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>179</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>185</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>452</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -22171,40 +22798,40 @@
       <c r="L5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>30</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>243</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>221</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>402</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>446</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>360</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>356</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>175</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>180</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>186</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>453</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -22233,37 +22860,37 @@
       <c r="L6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>244</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>392</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>403</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>362</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>100</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>465</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>181</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>454</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>233</v>
       </c>
     </row>
@@ -22289,37 +22916,37 @@
       <c r="L7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>33</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>441</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>404</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>361</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>101</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>466</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>182</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>188</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>455</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -22345,34 +22972,34 @@
       <c r="L8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>246</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>405</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>363</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>102</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>176</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>183</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>189</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>456</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>235</v>
       </c>
     </row>
@@ -22398,25 +23025,25 @@
       <c r="L9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>93</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>247</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>406</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>364</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>210</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>190</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>499</v>
       </c>
     </row>
@@ -22439,22 +23066,22 @@
       <c r="L10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>440</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>248</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>407</v>
       </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>258</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>191</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>500</v>
       </c>
     </row>
@@ -22477,19 +23104,19 @@
       <c r="L11" t="s">
         <v>496</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>94</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>249</v>
       </c>
-      <c r="V11" t="s">
+      <c r="W11" t="s">
         <v>259</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>260</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>236</v>
       </c>
     </row>
@@ -22512,25 +23139,25 @@
       <c r="L12" t="s">
         <v>461</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>250</v>
       </c>
-      <c r="V12" t="s">
+      <c r="W12" t="s">
         <v>103</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>192</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="D13" t="s">
         <v>342</v>
@@ -22547,25 +23174,25 @@
       <c r="L13" t="s">
         <v>497</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>95</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>255</v>
       </c>
-      <c r="V13" t="s">
+      <c r="W13" t="s">
         <v>327</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>193</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="D14" t="s">
         <v>37</v>
@@ -22582,22 +23209,22 @@
       <c r="L14" t="s">
         <v>39</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>96</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>251</v>
       </c>
-      <c r="V14" t="s">
+      <c r="W14" t="s">
         <v>104</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>60</v>
@@ -22611,22 +23238,22 @@
       <c r="L15" t="s">
         <v>40</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>97</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>252</v>
       </c>
-      <c r="V15" t="s">
+      <c r="W15" t="s">
         <v>105</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="D16" t="s">
         <v>386</v>
@@ -22640,19 +23267,19 @@
       <c r="L16" t="s">
         <v>43</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>253</v>
       </c>
-      <c r="V16" t="s">
+      <c r="W16" t="s">
         <v>76</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
         <v>387</v>
@@ -22663,16 +23290,16 @@
       <c r="J17" t="s">
         <v>85</v>
       </c>
-      <c r="V17" t="s">
+      <c r="W17" t="s">
         <v>106</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="D18" t="s">
         <v>433</v>
@@ -22683,13 +23310,13 @@
       <c r="J18" t="s">
         <v>381</v>
       </c>
-      <c r="V18" t="s">
+      <c r="W18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D19" t="s">
         <v>61</v>
@@ -22700,13 +23327,13 @@
       <c r="J19" t="s">
         <v>495</v>
       </c>
-      <c r="V19" t="s">
+      <c r="W19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
         <v>62</v>
@@ -22717,13 +23344,13 @@
       <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="D21" t="s">
         <v>257</v>
@@ -22734,13 +23361,13 @@
       <c r="J21" t="s">
         <v>393</v>
       </c>
-      <c r="V21" t="s">
-        <v>110</v>
+      <c r="W21" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="D22" t="s">
         <v>63</v>
@@ -22751,13 +23378,13 @@
       <c r="J22" t="s">
         <v>86</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
         <v>322</v>
@@ -22768,13 +23395,13 @@
       <c r="J23" t="s">
         <v>460</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
         <v>64</v>
@@ -22785,13 +23412,13 @@
       <c r="J24" t="s">
         <v>45</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D25" t="s">
         <v>470</v>
@@ -22802,13 +23429,13 @@
       <c r="J25" t="s">
         <v>46</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>226</v>
@@ -22816,13 +23443,13 @@
       <c r="F26" t="s">
         <v>283</v>
       </c>
-      <c r="V26" t="s">
+      <c r="W26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="D27" t="s">
         <v>227</v>
@@ -22830,18 +23457,21 @@
       <c r="F27" t="s">
         <v>267</v>
       </c>
-      <c r="V27" t="s">
+      <c r="W27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="s">
+        <v>228</v>
+      </c>
       <c r="D28" t="s">
         <v>493</v>
       </c>
       <c r="F28" t="s">
         <v>284</v>
       </c>
-      <c r="V28" t="s">
+      <c r="W28" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22852,7 +23482,7 @@
       <c r="F29" t="s">
         <v>285</v>
       </c>
-      <c r="V29" t="s">
+      <c r="W29" t="s">
         <v>117</v>
       </c>
     </row>
@@ -22863,7 +23493,7 @@
       <c r="F30" t="s">
         <v>217</v>
       </c>
-      <c r="V30" t="s">
+      <c r="W30" t="s">
         <v>118</v>
       </c>
     </row>
@@ -22874,7 +23504,7 @@
       <c r="F31" t="s">
         <v>276</v>
       </c>
-      <c r="V31" t="s">
+      <c r="W31" t="s">
         <v>119</v>
       </c>
     </row>
@@ -22885,7 +23515,7 @@
       <c r="F32" t="s">
         <v>286</v>
       </c>
-      <c r="V32" t="s">
+      <c r="W32" t="s">
         <v>120</v>
       </c>
     </row>
@@ -22896,7 +23526,7 @@
       <c r="F33" t="s">
         <v>261</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>121</v>
       </c>
     </row>
@@ -22907,7 +23537,7 @@
       <c r="F34" t="s">
         <v>331</v>
       </c>
-      <c r="V34" t="s">
+      <c r="W34" t="s">
         <v>211</v>
       </c>
     </row>
@@ -22918,7 +23548,7 @@
       <c r="F35" t="s">
         <v>308</v>
       </c>
-      <c r="V35" t="s">
+      <c r="W35" t="s">
         <v>122</v>
       </c>
     </row>
@@ -22929,7 +23559,7 @@
       <c r="F36" t="s">
         <v>262</v>
       </c>
-      <c r="V36" t="s">
+      <c r="W36" t="s">
         <v>339</v>
       </c>
     </row>
@@ -22940,7 +23570,7 @@
       <c r="F37" t="s">
         <v>309</v>
       </c>
-      <c r="V37" t="s">
+      <c r="W37" t="s">
         <v>447</v>
       </c>
     </row>
@@ -22951,7 +23581,7 @@
       <c r="F38" t="s">
         <v>268</v>
       </c>
-      <c r="V38" t="s">
+      <c r="W38" t="s">
         <v>394</v>
       </c>
     </row>
@@ -22959,7 +23589,7 @@
       <c r="F39" t="s">
         <v>79</v>
       </c>
-      <c r="V39" t="s">
+      <c r="W39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -22967,7 +23597,7 @@
       <c r="F40" t="s">
         <v>213</v>
       </c>
-      <c r="V40" t="s">
+      <c r="W40" t="s">
         <v>124</v>
       </c>
     </row>
@@ -22975,7 +23605,7 @@
       <c r="F41" t="s">
         <v>290</v>
       </c>
-      <c r="V41" t="s">
+      <c r="W41" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22983,7 +23613,7 @@
       <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="V42" t="s">
+      <c r="W42" t="s">
         <v>126</v>
       </c>
     </row>
@@ -22991,7 +23621,7 @@
       <c r="F43" t="s">
         <v>302</v>
       </c>
-      <c r="V43" t="s">
+      <c r="W43" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22999,7 +23629,7 @@
       <c r="F44" t="s">
         <v>344</v>
       </c>
-      <c r="V44" t="s">
+      <c r="W44" t="s">
         <v>128</v>
       </c>
     </row>
@@ -23007,7 +23637,7 @@
       <c r="F45" t="s">
         <v>343</v>
       </c>
-      <c r="V45" t="s">
+      <c r="W45" t="s">
         <v>462</v>
       </c>
     </row>
@@ -23015,7 +23645,7 @@
       <c r="F46" t="s">
         <v>212</v>
       </c>
-      <c r="V46" t="s">
+      <c r="W46" t="s">
         <v>214</v>
       </c>
     </row>
@@ -23023,7 +23653,7 @@
       <c r="F47" t="s">
         <v>321</v>
       </c>
-      <c r="V47" t="s">
+      <c r="W47" t="s">
         <v>78</v>
       </c>
     </row>
@@ -23031,7 +23661,7 @@
       <c r="F48" t="s">
         <v>340</v>
       </c>
-      <c r="V48" t="s">
+      <c r="W48" t="s">
         <v>129</v>
       </c>
     </row>
@@ -23039,7 +23669,7 @@
       <c r="F49" t="s">
         <v>369</v>
       </c>
-      <c r="V49" t="s">
+      <c r="W49" t="s">
         <v>130</v>
       </c>
     </row>
@@ -23047,7 +23677,7 @@
       <c r="F50" t="s">
         <v>303</v>
       </c>
-      <c r="V50" t="s">
+      <c r="W50" t="s">
         <v>131</v>
       </c>
     </row>
@@ -23055,475 +23685,485 @@
       <c r="F51" t="s">
         <v>357</v>
       </c>
-      <c r="V51" t="s">
-        <v>488</v>
+      <c r="W51" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="52">
       <c r="F52" t="s">
         <v>332</v>
       </c>
-      <c r="V52" t="s">
-        <v>132</v>
+      <c r="W52" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="53">
       <c r="F53" t="s">
         <v>269</v>
       </c>
-      <c r="V53" t="s">
-        <v>347</v>
+      <c r="W53" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="54">
       <c r="F54" t="s">
         <v>293</v>
       </c>
-      <c r="V54" t="s">
-        <v>481</v>
+      <c r="W54" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="55">
       <c r="F55" t="s">
         <v>294</v>
       </c>
-      <c r="V55" t="s">
-        <v>133</v>
+      <c r="W55" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="56">
       <c r="F56" t="s">
         <v>295</v>
       </c>
-      <c r="V56" t="s">
-        <v>134</v>
+      <c r="W56" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="57">
       <c r="F57" t="s">
         <v>304</v>
       </c>
-      <c r="V57" t="s">
-        <v>135</v>
+      <c r="W57" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="s">
         <v>313</v>
       </c>
-      <c r="V58" t="s">
-        <v>136</v>
+      <c r="W58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="s">
         <v>338</v>
       </c>
-      <c r="V59" t="s">
-        <v>137</v>
+      <c r="W59" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="60">
       <c r="F60" t="s">
         <v>310</v>
       </c>
-      <c r="V60" t="s">
-        <v>138</v>
+      <c r="W60" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="61">
       <c r="F61" t="s">
         <v>311</v>
       </c>
-      <c r="V61" t="s">
-        <v>139</v>
+      <c r="W61" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="62">
       <c r="F62" t="s">
         <v>370</v>
       </c>
-      <c r="V62" t="s">
-        <v>458</v>
+      <c r="W62" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="63">
       <c r="F63" t="s">
         <v>371</v>
       </c>
-      <c r="V63" t="s">
-        <v>498</v>
+      <c r="W63" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="s">
         <v>346</v>
       </c>
-      <c r="V64" t="s">
-        <v>215</v>
+      <c r="W64" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="65">
       <c r="F65" t="s">
         <v>314</v>
       </c>
-      <c r="V65" t="s">
-        <v>390</v>
+      <c r="W65" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="F66" t="s">
         <v>270</v>
       </c>
-      <c r="V66" t="s">
-        <v>463</v>
+      <c r="W66" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="67">
       <c r="F67" t="s">
         <v>354</v>
       </c>
-      <c r="V67" t="s">
-        <v>140</v>
+      <c r="W67" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="68">
       <c r="F68" t="s">
         <v>315</v>
       </c>
-      <c r="V68" t="s">
-        <v>141</v>
+      <c r="W68" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69">
       <c r="F69" t="s">
         <v>411</v>
       </c>
-      <c r="V69" t="s">
-        <v>142</v>
+      <c r="W69" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="70">
       <c r="F70" t="s">
         <v>305</v>
       </c>
-      <c r="V70" t="s">
-        <v>143</v>
+      <c r="W70" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="s">
         <v>412</v>
       </c>
-      <c r="V71" t="s">
-        <v>198</v>
+      <c r="W71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="F72" t="s">
         <v>263</v>
       </c>
-      <c r="V72" t="s">
-        <v>199</v>
+      <c r="W72" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="73">
       <c r="F73" t="s">
         <v>345</v>
       </c>
-      <c r="V73" t="s">
-        <v>476</v>
+      <c r="W73" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="74">
       <c r="F74" t="s">
         <v>281</v>
       </c>
-      <c r="V74" t="s">
-        <v>492</v>
+      <c r="W74" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="75">
       <c r="F75" t="s">
         <v>287</v>
       </c>
-      <c r="V75" t="s">
-        <v>144</v>
+      <c r="W75" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="76">
       <c r="F76" t="s">
         <v>292</v>
       </c>
-      <c r="V76" t="s">
-        <v>145</v>
+      <c r="W76" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="77">
       <c r="F77" t="s">
         <v>435</v>
       </c>
-      <c r="V77" t="s">
-        <v>146</v>
+      <c r="W77" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="78">
       <c r="F78" t="s">
         <v>333</v>
       </c>
-      <c r="V78" t="s">
-        <v>147</v>
+      <c r="W78" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="79">
       <c r="F79" t="s">
         <v>271</v>
       </c>
-      <c r="V79" t="s">
-        <v>148</v>
+      <c r="W79" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="80">
       <c r="F80" t="s">
         <v>282</v>
       </c>
-      <c r="V80" t="s">
-        <v>200</v>
+      <c r="W80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81">
       <c r="F81" t="s">
         <v>288</v>
       </c>
-      <c r="V81" t="s">
-        <v>201</v>
+      <c r="W81" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
       <c r="F82" t="s">
         <v>277</v>
       </c>
-      <c r="V82" t="s">
-        <v>475</v>
+      <c r="W82" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="83">
       <c r="F83" t="s">
         <v>272</v>
       </c>
-      <c r="V83" t="s">
-        <v>202</v>
+      <c r="W83" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="84">
       <c r="F84" t="s">
         <v>289</v>
       </c>
-      <c r="V84" t="s">
-        <v>203</v>
+      <c r="W84" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="85">
       <c r="F85" t="s">
         <v>273</v>
       </c>
-      <c r="V85" t="s">
-        <v>216</v>
+      <c r="W85" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="86">
       <c r="F86" t="s">
         <v>274</v>
       </c>
-      <c r="V86" t="s">
-        <v>149</v>
+      <c r="W86" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="87">
       <c r="F87" t="s">
         <v>306</v>
       </c>
-      <c r="V87" t="s">
-        <v>204</v>
+      <c r="W87" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="s">
         <v>312</v>
       </c>
-      <c r="V88" t="s">
-        <v>449</v>
+      <c r="W88" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="89">
       <c r="F89" t="s">
         <v>296</v>
       </c>
-      <c r="V89" t="s">
-        <v>457</v>
+      <c r="W89" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="F90" t="s">
         <v>341</v>
       </c>
-      <c r="V90" t="s">
-        <v>205</v>
+      <c r="W90" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="91">
       <c r="F91" t="s">
         <v>278</v>
       </c>
-      <c r="V91" t="s">
-        <v>206</v>
+      <c r="W91" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="92">
       <c r="F92" t="s">
         <v>279</v>
       </c>
-      <c r="V92" t="s">
+      <c r="W92" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="W93" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="W94" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="93">
-      <c r="V93" t="s">
+    <row r="95">
+      <c r="W95" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="94">
-      <c r="V94" t="s">
+    <row r="96">
+      <c r="W96" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="95">
-      <c r="V95" t="s">
+    <row r="97">
+      <c r="W97" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="96">
-      <c r="V96" t="s">
+    <row r="98">
+      <c r="W98" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="97">
-      <c r="V97" t="s">
+    <row r="99">
+      <c r="W99" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="V98" t="s">
+    <row r="100">
+      <c r="W100" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="99">
-      <c r="V99" t="s">
+    <row r="101">
+      <c r="W101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="100">
-      <c r="V100" t="s">
+    <row r="102">
+      <c r="W102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="101">
-      <c r="V101" t="s">
+    <row r="103">
+      <c r="W103" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="102">
-      <c r="V102" t="s">
+    <row r="104">
+      <c r="W104" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="103">
-      <c r="V103" t="s">
+    <row r="105">
+      <c r="W105" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="104">
-      <c r="V104" t="s">
+    <row r="106">
+      <c r="W106" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="105">
-      <c r="V105" t="s">
+    <row r="107">
+      <c r="W107" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="106">
-      <c r="V106" t="s">
+    <row r="108">
+      <c r="W108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="107">
-      <c r="V107" t="s">
+    <row r="109">
+      <c r="W109" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="108">
-      <c r="V108" t="s">
+    <row r="110">
+      <c r="W110" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="109">
-      <c r="V109" t="s">
+    <row r="111">
+      <c r="W111" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="110">
-      <c r="V110" t="s">
+    <row r="112">
+      <c r="W112" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="111">
-      <c r="V111" t="s">
+    <row r="113">
+      <c r="W113" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="112">
-      <c r="V112" t="s">
+    <row r="114">
+      <c r="W114" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="113">
-      <c r="V113" t="s">
+    <row r="115">
+      <c r="W115" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="114">
-      <c r="V114" t="s">
+    <row r="116">
+      <c r="W116" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="115">
-      <c r="V115" t="s">
+    <row r="117">
+      <c r="W117" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="116">
-      <c r="V116" t="s">
+    <row r="118">
+      <c r="W118" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="117">
-      <c r="V117" t="s">
+    <row r="119">
+      <c r="W119" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="118">
-      <c r="V118" t="s">
+    <row r="120">
+      <c r="W120" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="119">
-      <c r="V119" t="s">
+    <row r="121">
+      <c r="W121" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120">
-      <c r="V120" t="s">
+    <row r="122">
+      <c r="W122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16784" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17278" uniqueCount="510">
   <si>
     <t>description</t>
   </si>
@@ -1602,7 +1602,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="547" x14ac:knownFonts="1">
+  <fonts count="563" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5046,8 +5046,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="949">
+  <fills count="976">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10421,8 +10522,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="983">
+  <borders count="1011">
     <border>
       <left/>
       <right/>
@@ -20330,6 +20584,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20337,7 +20873,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="574">
+  <cellXfs count="590">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22030,52 +22566,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="530" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="531" fillId="924" borderId="962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="962" fillId="924" fontId="531" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="532" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="532" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="533" fillId="927" borderId="966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="966" fillId="927" fontId="533" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="534" fillId="930" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="930" fontId="534" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="535" fillId="933" borderId="970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="970" fillId="933" fontId="535" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="536" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="536" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="537" fillId="936" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="936" fontId="537" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="538" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="538" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="539" fillId="939" borderId="974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="974" fillId="939" fontId="539" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="540" fillId="942" borderId="978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="978" fillId="942" fontId="540" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="541" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="541" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="542" fillId="945" borderId="982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="982" fillId="945" fontId="542" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="543" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="543" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="544" fillId="948" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="948" fontId="544" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="545" fillId="933" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="933" fontId="545" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="546" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,38 +19,39 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$D$2:$D$38</definedName>
-    <definedName name="csv">'#system'!$E$2:$E$5</definedName>
+    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$F$2:$F$92</definedName>
-    <definedName name="excel">'#system'!$G$2:$G$14</definedName>
-    <definedName name="external">'#system'!$H$2:$H$4</definedName>
-    <definedName name="image">'#system'!$I$2:$I$6</definedName>
-    <definedName name="io">'#system'!$J$2:$J$25</definedName>
-    <definedName name="jms">'#system'!$K$2:$K$4</definedName>
-    <definedName name="json">'#system'!$L$2:$L$16</definedName>
-    <definedName name="mail">'#system'!$N$2:$N$2</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
+    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
+    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$O$2:$O$15</definedName>
-    <definedName name="pdf">'#system'!$P$2:$P$16</definedName>
-    <definedName name="rdbms">'#system'!$Q$2:$Q$7</definedName>
-    <definedName name="redis">'#system'!$R$2:$R$10</definedName>
-    <definedName name="sms">'#system'!$S$2:$S$2</definedName>
-    <definedName name="sound">'#system'!$T$2:$T$5</definedName>
-    <definedName name="ssh">'#system'!$U$2:$U$9</definedName>
-    <definedName name="step">'#system'!$V$2:$V$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$28</definedName>
-    <definedName name="web">'#system'!$W$2:$W$122</definedName>
-    <definedName name="webalert">'#system'!$X$2:$X$8</definedName>
-    <definedName name="webcookie">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="ws">'#system'!$Z$2:$Z$17</definedName>
-    <definedName name="ws.async">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="xml">'#system'!$AB$2:$AB$13</definedName>
+    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
+    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
+    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
+    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
+    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
+    <definedName name="step">'#system'!$W$2:$W$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$29</definedName>
+    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
+    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
+    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$M$2:$M$4</definedName>
+    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17278" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18283" uniqueCount="520">
   <si>
     <t>description</t>
   </si>
@@ -1595,6 +1596,36 @@
   </si>
   <si>
     <t>saveAttributeList(var,locator,attrName)</t>
+  </si>
+  <si>
+    <t>aws.sqs</t>
+  </si>
+  <si>
+    <t>deleteMessage(profile,queue,receiptHandle)</t>
+  </si>
+  <si>
+    <t>receiveMessage(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>receiveMessages(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>sendMessage(profile,queue,message,var)</t>
+  </si>
+  <si>
+    <t>append(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>clear(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>delete(xml,xpath,var)</t>
+  </si>
+  <si>
+    <t>prepend(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replace(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1602,7 +1633,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="563" x14ac:knownFonts="1">
+  <fonts count="595" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5147,8 +5178,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="976">
+  <fills count="1030">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10675,8 +10908,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1011">
+  <borders count="1067">
     <border>
       <left/>
       <right/>
@@ -20866,6 +21405,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -20873,7 +21976,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="590">
+  <cellXfs count="622">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -22614,52 +23717,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="546" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="547" fillId="951" borderId="990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="990" fillId="951" fontId="547" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="548" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="548" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="549" fillId="954" borderId="994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="994" fillId="954" fontId="549" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="550" fillId="957" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="957" fontId="550" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="551" fillId="960" borderId="998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="998" fillId="960" fontId="551" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="552" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="552" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="553" fillId="963" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="963" fontId="553" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="554" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="554" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="555" fillId="966" borderId="1002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1002" fillId="966" fontId="555" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="556" fillId="969" borderId="1006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1006" fillId="969" fontId="556" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="557" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="557" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="558" fillId="972" borderId="1010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1010" fillId="972" fontId="558" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="559" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="559" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="560" fillId="975" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="975" fontId="560" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="561" fillId="960" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="960" fontId="561" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="562" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="562" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1018" fillId="978" fontId="563" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="564" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1022" fillId="981" fontId="565" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="984" fontId="566" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1026" fillId="987" fontId="567" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="568" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="990" fontId="569" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="570" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1030" fillId="993" fontId="571" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1034" fillId="996" fontId="572" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="573" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1038" fillId="999" fontId="574" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="575" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1002" fontId="576" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="987" fontId="577" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="579" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="581" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="582" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="585" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="588" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="589" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="591" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="593" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -23014,7 +24213,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AD122"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -23036,78 +24235,81 @@
         <v>482</v>
       </c>
       <c r="D1" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>52</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>348</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>24</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>501</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>197</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>53</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>54</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>397</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>430</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>431</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>358</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>398</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>55</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>56</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>57</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>58</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>432</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -23122,79 +24324,82 @@
         <v>487</v>
       </c>
       <c r="D2" t="s">
+        <v>511</v>
+      </c>
+      <c r="E2" t="s">
         <v>59</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>73</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>75</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>471</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>80</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>491</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>316</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>385</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>436</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>504</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>437</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>438</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>218</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>399</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>442</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>443</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>382</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>408</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>98</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>172</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>177</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>451</v>
       </c>
-      <c r="AB2" t="s">
-        <v>229</v>
+      <c r="AC2" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="3">
@@ -23208,1546 +24413,1573 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E3" t="s">
         <v>479</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>366</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>89</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>50</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>502</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>350</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>342</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>335</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>87</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>505</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>439</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>241</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>219</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>400</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>444</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>383</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>409</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>99</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>173</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>178</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>185</v>
       </c>
-      <c r="AB3" t="s">
-        <v>230</v>
+      <c r="AC3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>375</v>
       </c>
       <c r="D4" t="s">
+        <v>513</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>388</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>472</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>503</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>351</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>336</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>25</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>506</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>242</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>220</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>401</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>445</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>359</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>410</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>355</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>179</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>185</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>452</v>
       </c>
-      <c r="AB4" t="s">
-        <v>231</v>
+      <c r="AC4" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
       </c>
       <c r="D5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E5" t="s">
         <v>480</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>459</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>337</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>352</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>485</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>30</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>243</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>221</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>402</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>446</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>360</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>356</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>175</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>180</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>186</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>453</v>
       </c>
-      <c r="AB5" t="s">
-        <v>232</v>
+      <c r="AC5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>389</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>469</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>349</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>31</v>
       </c>
-      <c r="P6" t="s">
+      <c r="Q6" t="s">
         <v>244</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>392</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>403</v>
       </c>
-      <c r="U6" t="s">
+      <c r="V6" t="s">
         <v>362</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>100</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>465</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>181</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>187</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>454</v>
       </c>
-      <c r="AB6" t="s">
-        <v>233</v>
+      <c r="AC6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>225</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>367</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>16</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>33</v>
       </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>245</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>441</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>404</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>361</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>101</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>466</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>182</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>188</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>455</v>
       </c>
-      <c r="AB7" t="s">
-        <v>234</v>
+      <c r="AC7" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>319</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>368</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>329</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>81</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>92</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>246</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>405</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>363</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>102</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>176</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>183</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>189</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>456</v>
       </c>
-      <c r="AB8" t="s">
-        <v>235</v>
+      <c r="AC8" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>307</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>330</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>38</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>93</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>247</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>406</v>
       </c>
-      <c r="U9" t="s">
+      <c r="V9" t="s">
         <v>364</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>210</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>190</v>
       </c>
-      <c r="AB9" t="s">
-        <v>499</v>
+      <c r="AC9" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>353</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>473</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>391</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>440</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>248</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>407</v>
       </c>
-      <c r="W10" t="s">
+      <c r="X10" t="s">
         <v>258</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>191</v>
       </c>
-      <c r="AB10" t="s">
-        <v>500</v>
+      <c r="AC10" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
-      </c>
-      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
         <v>256</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>275</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>323</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>17</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>94</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>249</v>
       </c>
-      <c r="W11" t="s">
+      <c r="X11" t="s">
         <v>259</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>260</v>
       </c>
-      <c r="AB11" t="s">
-        <v>236</v>
+      <c r="AC11" t="s">
+        <v>516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
+        <v>334</v>
+      </c>
+      <c r="E12" t="s">
         <v>320</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>264</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>324</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>42</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="O12" t="s">
+      <c r="P12" t="s">
         <v>41</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>250</v>
       </c>
-      <c r="W12" t="s">
+      <c r="X12" t="s">
         <v>103</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>192</v>
       </c>
-      <c r="AB12" t="s">
-        <v>237</v>
+      <c r="AC12" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>501</v>
-      </c>
-      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>342</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>317</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>325</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>82</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13" t="s">
         <v>95</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>255</v>
       </c>
-      <c r="W13" t="s">
+      <c r="X13" t="s">
         <v>327</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>193</v>
       </c>
-      <c r="AB13" t="s">
-        <v>238</v>
+      <c r="AC13" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D14" t="s">
+        <v>501</v>
+      </c>
+      <c r="E14" t="s">
         <v>37</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>265</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>326</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>83</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="O14" t="s">
+      <c r="P14" t="s">
         <v>96</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>251</v>
       </c>
-      <c r="W14" t="s">
+      <c r="X14" t="s">
         <v>104</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>194</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
+        <v>197</v>
+      </c>
+      <c r="E15" t="s">
         <v>60</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>266</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>478</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="O15" t="s">
+      <c r="P15" t="s">
         <v>97</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>252</v>
       </c>
-      <c r="W15" t="s">
+      <c r="X15" t="s">
         <v>105</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>195</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
-      </c>
-      <c r="D16" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" t="s">
         <v>386</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>318</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>84</v>
       </c>
-      <c r="L16" t="s">
+      <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>253</v>
       </c>
-      <c r="W16" t="s">
+      <c r="X16" t="s">
         <v>76</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>196</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E17" t="s">
         <v>387</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>90</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>85</v>
       </c>
-      <c r="W17" t="s">
+      <c r="X17" t="s">
         <v>106</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>486</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>397</v>
-      </c>
-      <c r="D18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" t="s">
         <v>433</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>91</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>381</v>
       </c>
-      <c r="W18" t="s">
+      <c r="X18" t="s">
         <v>107</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>430</v>
-      </c>
-      <c r="D19" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" t="s">
         <v>61</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>297</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>495</v>
       </c>
-      <c r="W19" t="s">
+      <c r="X19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>431</v>
-      </c>
-      <c r="D20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>298</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>44</v>
       </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" t="s">
+        <v>431</v>
+      </c>
+      <c r="E21" t="s">
         <v>257</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>393</v>
       </c>
-      <c r="W21" t="s">
+      <c r="X21" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>398</v>
-      </c>
-      <c r="D22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E22" t="s">
         <v>63</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>300</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>86</v>
       </c>
-      <c r="W22" t="s">
+      <c r="X22" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
+        <v>398</v>
+      </c>
+      <c r="E23" t="s">
         <v>322</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>291</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>460</v>
       </c>
-      <c r="W23" t="s">
+      <c r="X23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>64</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>280</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>45</v>
       </c>
-      <c r="W24" t="s">
+      <c r="X24" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
         <v>470</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>77</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>46</v>
       </c>
-      <c r="W25" t="s">
+      <c r="X25" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>226</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>283</v>
       </c>
-      <c r="W26" t="s">
+      <c r="X26" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
         <v>227</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>267</v>
       </c>
-      <c r="W27" t="s">
+      <c r="X27" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>432</v>
+      </c>
+      <c r="E28" t="s">
+        <v>493</v>
+      </c>
+      <c r="G28" t="s">
+        <v>284</v>
+      </c>
+      <c r="X28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
         <v>228</v>
       </c>
-      <c r="D28" t="s">
-        <v>493</v>
-      </c>
-      <c r="F28" t="s">
-        <v>284</v>
-      </c>
-      <c r="W28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>494</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="W29" t="s">
+      <c r="X29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="30">
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>434</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="W30" t="s">
+      <c r="X30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31">
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>65</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="W31" t="s">
+      <c r="X31" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="32">
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>66</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="W32" t="s">
+      <c r="X32" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="33">
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>67</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>261</v>
       </c>
-      <c r="W33" t="s">
+      <c r="X33" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="34">
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>68</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>331</v>
       </c>
-      <c r="W34" t="s">
+      <c r="X34" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>69</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>308</v>
       </c>
-      <c r="W35" t="s">
+      <c r="X35" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="36">
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>70</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>262</v>
       </c>
-      <c r="W36" t="s">
+      <c r="X36" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>71</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>309</v>
       </c>
-      <c r="W37" t="s">
+      <c r="X37" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>72</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>268</v>
       </c>
-      <c r="W38" t="s">
+      <c r="X38" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>79</v>
       </c>
-      <c r="W39" t="s">
+      <c r="X39" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>213</v>
       </c>
-      <c r="W40" t="s">
+      <c r="X40" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>290</v>
       </c>
-      <c r="W41" t="s">
+      <c r="X41" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>301</v>
       </c>
-      <c r="W42" t="s">
+      <c r="X42" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>302</v>
       </c>
-      <c r="W43" t="s">
+      <c r="X43" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>344</v>
       </c>
-      <c r="W44" t="s">
+      <c r="X44" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>343</v>
       </c>
-      <c r="W45" t="s">
+      <c r="X45" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>212</v>
       </c>
-      <c r="W46" t="s">
+      <c r="X46" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>321</v>
       </c>
-      <c r="W47" t="s">
+      <c r="X47" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>340</v>
       </c>
-      <c r="W48" t="s">
+      <c r="X48" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>369</v>
       </c>
-      <c r="W49" t="s">
+      <c r="X49" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>303</v>
       </c>
-      <c r="W50" t="s">
+      <c r="X50" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>357</v>
       </c>
-      <c r="W51" t="s">
+      <c r="X51" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="52">
-      <c r="F52" t="s">
+      <c r="G52" t="s">
         <v>332</v>
       </c>
-      <c r="W52" t="s">
+      <c r="X52" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="53">
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>269</v>
       </c>
-      <c r="W53" t="s">
+      <c r="X53" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="s">
+      <c r="G54" t="s">
         <v>293</v>
       </c>
-      <c r="W54" t="s">
+      <c r="X54" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="55">
-      <c r="F55" t="s">
+      <c r="G55" t="s">
         <v>294</v>
       </c>
-      <c r="W55" t="s">
+      <c r="X55" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="W56" t="s">
+      <c r="X56" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="57">
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>304</v>
       </c>
-      <c r="W57" t="s">
+      <c r="X57" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>313</v>
       </c>
-      <c r="W58" t="s">
+      <c r="X58" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>338</v>
       </c>
-      <c r="W59" t="s">
+      <c r="X59" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="s">
+      <c r="G60" t="s">
         <v>310</v>
       </c>
-      <c r="W60" t="s">
+      <c r="X60" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="W61" t="s">
+      <c r="X61" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="s">
+      <c r="G62" t="s">
         <v>370</v>
       </c>
-      <c r="W62" t="s">
+      <c r="X62" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="s">
+      <c r="G63" t="s">
         <v>371</v>
       </c>
-      <c r="W63" t="s">
+      <c r="X63" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="s">
+      <c r="G64" t="s">
         <v>346</v>
       </c>
-      <c r="W64" t="s">
+      <c r="X64" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="s">
+      <c r="G65" t="s">
         <v>314</v>
       </c>
-      <c r="W65" t="s">
+      <c r="X65" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="s">
+      <c r="G66" t="s">
         <v>270</v>
       </c>
-      <c r="W66" t="s">
+      <c r="X66" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="s">
+      <c r="G67" t="s">
         <v>354</v>
       </c>
-      <c r="W67" t="s">
+      <c r="X67" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="s">
+      <c r="G68" t="s">
         <v>315</v>
       </c>
-      <c r="W68" t="s">
+      <c r="X68" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="s">
+      <c r="G69" t="s">
         <v>411</v>
       </c>
-      <c r="W69" t="s">
+      <c r="X69" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="s">
+      <c r="G70" t="s">
         <v>305</v>
       </c>
-      <c r="W70" t="s">
+      <c r="X70" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="s">
+      <c r="G71" t="s">
         <v>412</v>
       </c>
-      <c r="W71" t="s">
+      <c r="X71" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="s">
+      <c r="G72" t="s">
         <v>263</v>
       </c>
-      <c r="W72" t="s">
+      <c r="X72" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="s">
+      <c r="G73" t="s">
         <v>345</v>
       </c>
-      <c r="W73" t="s">
+      <c r="X73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="s">
+      <c r="G74" t="s">
         <v>281</v>
       </c>
-      <c r="W74" t="s">
+      <c r="X74" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="s">
+      <c r="G75" t="s">
         <v>287</v>
       </c>
-      <c r="W75" t="s">
+      <c r="X75" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="76">
-      <c r="F76" t="s">
+      <c r="G76" t="s">
         <v>292</v>
       </c>
-      <c r="W76" t="s">
+      <c r="X76" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="77">
-      <c r="F77" t="s">
+      <c r="G77" t="s">
         <v>435</v>
       </c>
-      <c r="W77" t="s">
+      <c r="X77" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>333</v>
       </c>
-      <c r="W78" t="s">
+      <c r="X78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="79">
-      <c r="F79" t="s">
+      <c r="G79" t="s">
         <v>271</v>
       </c>
-      <c r="W79" t="s">
+      <c r="X79" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="80">
-      <c r="F80" t="s">
+      <c r="G80" t="s">
         <v>282</v>
       </c>
-      <c r="W80" t="s">
+      <c r="X80" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>288</v>
       </c>
-      <c r="W81" t="s">
+      <c r="X81" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="82">
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>277</v>
       </c>
-      <c r="W82" t="s">
+      <c r="X82" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="83">
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>272</v>
       </c>
-      <c r="W83" t="s">
+      <c r="X83" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>289</v>
       </c>
-      <c r="W84" t="s">
+      <c r="X84" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="85">
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>273</v>
       </c>
-      <c r="W85" t="s">
+      <c r="X85" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="86">
-      <c r="F86" t="s">
+      <c r="G86" t="s">
         <v>274</v>
       </c>
-      <c r="W86" t="s">
+      <c r="X86" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="87">
-      <c r="F87" t="s">
+      <c r="G87" t="s">
         <v>306</v>
       </c>
-      <c r="W87" t="s">
+      <c r="X87" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="s">
+      <c r="G88" t="s">
         <v>312</v>
       </c>
-      <c r="W88" t="s">
+      <c r="X88" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="s">
+      <c r="G89" t="s">
         <v>296</v>
       </c>
-      <c r="W89" t="s">
+      <c r="X89" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>341</v>
       </c>
-      <c r="W90" t="s">
+      <c r="X90" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="s">
+      <c r="G91" t="s">
         <v>278</v>
       </c>
-      <c r="W91" t="s">
+      <c r="X91" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="s">
+      <c r="G92" t="s">
         <v>279</v>
       </c>
-      <c r="W92" t="s">
+      <c r="X92" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="93">
-      <c r="W93" t="s">
+      <c r="X93" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="94">
-      <c r="W94" t="s">
+      <c r="X94" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="95">
-      <c r="W95" t="s">
+      <c r="X95" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="96">
-      <c r="W96" t="s">
+      <c r="X96" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="97">
-      <c r="W97" t="s">
+      <c r="X97" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98">
-      <c r="W98" t="s">
+      <c r="X98" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="99">
-      <c r="W99" t="s">
+      <c r="X99" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="100">
-      <c r="W100" t="s">
+      <c r="X100" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="101">
-      <c r="W101" t="s">
+      <c r="X101" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="102">
-      <c r="W102" t="s">
+      <c r="X102" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="103">
-      <c r="W103" t="s">
+      <c r="X103" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="104">
-      <c r="W104" t="s">
+      <c r="X104" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="105">
-      <c r="W105" t="s">
+      <c r="X105" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="106">
-      <c r="W106" t="s">
+      <c r="X106" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="107">
-      <c r="W107" t="s">
+      <c r="X107" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="108">
-      <c r="W108" t="s">
+      <c r="X108" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="109">
-      <c r="W109" t="s">
+      <c r="X109" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="110">
-      <c r="W110" t="s">
+      <c r="X110" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="111">
-      <c r="W111" t="s">
+      <c r="X111" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="112">
-      <c r="W112" t="s">
+      <c r="X112" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="113">
-      <c r="W113" t="s">
+      <c r="X113" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="114">
-      <c r="W114" t="s">
+      <c r="X114" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="115">
-      <c r="W115" t="s">
+      <c r="X115" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="116">
-      <c r="W116" t="s">
+      <c r="X116" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="117">
-      <c r="W117" t="s">
+      <c r="X117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="118">
-      <c r="W118" t="s">
+      <c r="X118" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="119">
-      <c r="W119" t="s">
+      <c r="X119" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="120">
-      <c r="W120" t="s">
+      <c r="X120" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="121">
-      <c r="W121" t="s">
+      <c r="X121" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="122">
-      <c r="W122" t="s">
+      <c r="X122" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$122</definedName>
+    <definedName name="web">'#system'!$X$2:$X$123</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
     <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$18</definedName>
+    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$N$2:$N$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18283" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18792" uniqueCount="524">
   <si>
     <t>description</t>
   </si>
@@ -1626,6 +1626,18 @@
   </si>
   <si>
     <t>replace(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>rightClick(locator)</t>
+  </si>
+  <si>
+    <t>insertAfter(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>insertBefore(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>replaceIn(xml,xpath,content,var)</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="595" x14ac:knownFonts="1">
+  <fonts count="611" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5380,8 +5392,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1030">
+  <fills count="1057">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11214,8 +11327,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1067">
+  <borders count="1095">
     <border>
       <left/>
       <right/>
@@ -21969,6 +22235,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -21976,7 +22524,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="622">
+  <cellXfs count="638">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -23813,52 +24361,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="578" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="579" fillId="1005" borderId="1046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1046" fillId="1005" fontId="579" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="580" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="580" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="581" fillId="1008" borderId="1050" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1050" fillId="1008" fontId="581" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="582" fillId="1011" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1011" fontId="582" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="583" fillId="1014" borderId="1054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1054" fillId="1014" fontId="583" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="584" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="584" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="585" fillId="1017" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1017" fontId="585" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="586" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="586" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="587" fillId="1020" borderId="1058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1058" fillId="1020" fontId="587" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="588" fillId="1023" borderId="1062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1062" fillId="1023" fontId="588" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="589" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="589" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="590" fillId="1026" borderId="1066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1066" fillId="1026" fontId="590" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="591" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="591" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="592" fillId="1029" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1029" fontId="592" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="593" fillId="1014" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1014" fontId="593" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="594" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="595" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="597" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="598" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="599" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="601" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="603" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="604" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="605" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="606" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="607" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="609" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24213,7 +24809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD122"/>
+  <dimension ref="A1:AD123"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -24985,7 +25581,7 @@
         <v>193</v>
       </c>
       <c r="AC13" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
@@ -25020,7 +25616,7 @@
         <v>194</v>
       </c>
       <c r="AC14" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15">
@@ -25052,7 +25648,7 @@
         <v>195</v>
       </c>
       <c r="AC15" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
@@ -25081,7 +25677,7 @@
         <v>196</v>
       </c>
       <c r="AC16" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17">
@@ -25104,7 +25700,7 @@
         <v>486</v>
       </c>
       <c r="AC17" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="18">
@@ -25124,7 +25720,7 @@
         <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19">
@@ -25143,6 +25739,9 @@
       <c r="X19" t="s">
         <v>108</v>
       </c>
+      <c r="AC19" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -25160,6 +25759,9 @@
       <c r="X20" t="s">
         <v>109</v>
       </c>
+      <c r="AC20" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -25177,6 +25779,9 @@
       <c r="X21" t="s">
         <v>507</v>
       </c>
+      <c r="AC21" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -25726,7 +26331,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="80">
@@ -25734,7 +26339,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81">
@@ -25742,7 +26347,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82">
@@ -25750,7 +26355,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -25758,7 +26363,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="84">
@@ -25766,7 +26371,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85">
@@ -25774,7 +26379,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86">
@@ -25782,7 +26387,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87">
@@ -25790,7 +26395,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88">
@@ -25798,7 +26403,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="89">
@@ -25806,7 +26411,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="90">
@@ -25814,7 +26419,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91">
@@ -25822,7 +26427,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92">
@@ -25830,156 +26435,161 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="X123" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -34,7 +34,7 @@
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$15</definedName>
+    <definedName name="number">'#system'!$P$2:$P$16</definedName>
     <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
     <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
     <definedName name="redis">'#system'!$S$2:$S$10</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$123</definedName>
+    <definedName name="web">'#system'!$X$2:$X$124</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18792" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19813" uniqueCount="527">
   <si>
     <t>description</t>
   </si>
@@ -1638,6 +1638,15 @@
   </si>
   <si>
     <t>replaceIn(xml,xpath,content,var)</t>
+  </si>
+  <si>
+    <t>roundTo(var,closestDigit)</t>
+  </si>
+  <si>
+    <t>whole(var)</t>
+  </si>
+  <si>
+    <t>assertElementsPresent(prefix)</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1654,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="611" x14ac:knownFonts="1">
+  <fonts count="643" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5493,8 +5502,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1057">
+  <fills count="1111">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11480,8 +11691,314 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1095">
+  <borders count="1151">
     <border>
       <left/>
       <right/>
@@ -22517,6 +23034,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -22524,7 +23605,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="638">
+  <cellXfs count="670">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -24409,52 +25490,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="594" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="595" fillId="1032" borderId="1074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1074" fillId="1032" fontId="595" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="596" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="596" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="597" fillId="1035" borderId="1078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1078" fillId="1035" fontId="597" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="598" fillId="1038" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1038" fontId="598" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="599" fillId="1041" borderId="1082" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1082" fillId="1041" fontId="599" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="600" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="600" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="601" fillId="1044" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1044" fontId="601" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="602" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="602" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="603" fillId="1047" borderId="1086" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1086" fillId="1047" fontId="603" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="604" fillId="1050" borderId="1090" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1090" fillId="1050" fontId="604" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="605" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="605" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="606" fillId="1053" borderId="1094" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1094" fillId="1053" fontId="606" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="607" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="607" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="608" fillId="1056" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1056" fontId="608" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="609" fillId="1041" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1041" fontId="609" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="610" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="610" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1102" fillId="1059" fontId="611" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="612" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1106" fillId="1062" fontId="613" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1065" fontId="614" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1110" fillId="1068" fontId="615" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="616" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1071" fontId="617" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="618" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1114" fillId="1074" fontId="619" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1118" fillId="1077" fontId="620" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="621" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1122" fillId="1080" fontId="622" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="623" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1083" fontId="624" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1068" fontId="625" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="627" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="629" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="630" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="631" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="633" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="636" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="637" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="639" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="640" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="641" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -24809,7 +25986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD123"/>
+  <dimension ref="A1:AD124"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -25636,7 +26813,7 @@
         <v>40</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>524</v>
       </c>
       <c r="Q15" t="s">
         <v>252</v>
@@ -25667,6 +26844,9 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
+      <c r="P16" t="s">
+        <v>525</v>
+      </c>
       <c r="Q16" t="s">
         <v>253</v>
       </c>
@@ -25694,7 +26874,7 @@
         <v>85</v>
       </c>
       <c r="X17" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="AA17" t="s">
         <v>486</v>
@@ -25717,7 +26897,7 @@
         <v>381</v>
       </c>
       <c r="X18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AC18" t="s">
         <v>523</v>
@@ -25737,7 +26917,7 @@
         <v>495</v>
       </c>
       <c r="X19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
         <v>236</v>
@@ -25757,7 +26937,7 @@
         <v>44</v>
       </c>
       <c r="X20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AC20" t="s">
         <v>237</v>
@@ -25777,7 +26957,7 @@
         <v>393</v>
       </c>
       <c r="X21" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AC21" t="s">
         <v>238</v>
@@ -25797,7 +26977,7 @@
         <v>86</v>
       </c>
       <c r="X22" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23">
@@ -25814,7 +26994,7 @@
         <v>460</v>
       </c>
       <c r="X23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24">
@@ -25831,7 +27011,7 @@
         <v>45</v>
       </c>
       <c r="X24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -25848,7 +27028,7 @@
         <v>46</v>
       </c>
       <c r="X25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -25862,7 +27042,7 @@
         <v>283</v>
       </c>
       <c r="X26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27">
@@ -25876,7 +27056,7 @@
         <v>267</v>
       </c>
       <c r="X27" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28">
@@ -25890,7 +27070,7 @@
         <v>284</v>
       </c>
       <c r="X28" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29">
@@ -25904,7 +27084,7 @@
         <v>285</v>
       </c>
       <c r="X29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30">
@@ -25915,7 +27095,7 @@
         <v>217</v>
       </c>
       <c r="X30" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31">
@@ -25926,7 +27106,7 @@
         <v>276</v>
       </c>
       <c r="X31" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32">
@@ -25937,7 +27117,7 @@
         <v>286</v>
       </c>
       <c r="X32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -25948,7 +27128,7 @@
         <v>261</v>
       </c>
       <c r="X33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -25959,7 +27139,7 @@
         <v>331</v>
       </c>
       <c r="X34" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
@@ -25970,7 +27150,7 @@
         <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
@@ -25981,7 +27161,7 @@
         <v>262</v>
       </c>
       <c r="X36" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -25992,7 +27172,7 @@
         <v>309</v>
       </c>
       <c r="X37" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
     <row r="38">
@@ -26003,7 +27183,7 @@
         <v>268</v>
       </c>
       <c r="X38" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="39">
@@ -26011,7 +27191,7 @@
         <v>79</v>
       </c>
       <c r="X39" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40">
@@ -26019,7 +27199,7 @@
         <v>213</v>
       </c>
       <c r="X40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
@@ -26027,7 +27207,7 @@
         <v>290</v>
       </c>
       <c r="X41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -26035,7 +27215,7 @@
         <v>301</v>
       </c>
       <c r="X42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -26043,7 +27223,7 @@
         <v>302</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
@@ -26051,7 +27231,7 @@
         <v>344</v>
       </c>
       <c r="X44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
@@ -26059,7 +27239,7 @@
         <v>343</v>
       </c>
       <c r="X45" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
@@ -26067,7 +27247,7 @@
         <v>212</v>
       </c>
       <c r="X46" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47">
@@ -26075,7 +27255,7 @@
         <v>321</v>
       </c>
       <c r="X47" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48">
@@ -26083,7 +27263,7 @@
         <v>340</v>
       </c>
       <c r="X48" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49">
@@ -26091,7 +27271,7 @@
         <v>369</v>
       </c>
       <c r="X49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -26099,7 +27279,7 @@
         <v>303</v>
       </c>
       <c r="X50" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51">
@@ -26107,7 +27287,7 @@
         <v>357</v>
       </c>
       <c r="X51" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52">
@@ -26115,7 +27295,7 @@
         <v>332</v>
       </c>
       <c r="X52" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="53">
@@ -26123,7 +27303,7 @@
         <v>269</v>
       </c>
       <c r="X53" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54">
@@ -26131,7 +27311,7 @@
         <v>293</v>
       </c>
       <c r="X54" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55">
@@ -26139,7 +27319,7 @@
         <v>294</v>
       </c>
       <c r="X55" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="56">
@@ -26147,7 +27327,7 @@
         <v>295</v>
       </c>
       <c r="X56" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57">
@@ -26155,7 +27335,7 @@
         <v>304</v>
       </c>
       <c r="X57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58">
@@ -26163,7 +27343,7 @@
         <v>313</v>
       </c>
       <c r="X58" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59">
@@ -26171,7 +27351,7 @@
         <v>338</v>
       </c>
       <c r="X59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="60">
@@ -26179,7 +27359,7 @@
         <v>310</v>
       </c>
       <c r="X60" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="61">
@@ -26187,7 +27367,7 @@
         <v>311</v>
       </c>
       <c r="X61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62">
@@ -26195,7 +27375,7 @@
         <v>370</v>
       </c>
       <c r="X62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63">
@@ -26203,7 +27383,7 @@
         <v>371</v>
       </c>
       <c r="X63" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -26211,7 +27391,7 @@
         <v>346</v>
       </c>
       <c r="X64" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="65">
@@ -26219,7 +27399,7 @@
         <v>314</v>
       </c>
       <c r="X65" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66">
@@ -26227,7 +27407,7 @@
         <v>270</v>
       </c>
       <c r="X66" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="67">
@@ -26235,7 +27415,7 @@
         <v>354</v>
       </c>
       <c r="X67" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68">
@@ -26243,7 +27423,7 @@
         <v>315</v>
       </c>
       <c r="X68" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="69">
@@ -26251,7 +27431,7 @@
         <v>411</v>
       </c>
       <c r="X69" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="70">
@@ -26259,7 +27439,7 @@
         <v>305</v>
       </c>
       <c r="X70" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71">
@@ -26267,7 +27447,7 @@
         <v>412</v>
       </c>
       <c r="X71" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72">
@@ -26275,7 +27455,7 @@
         <v>263</v>
       </c>
       <c r="X72" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73">
@@ -26283,7 +27463,7 @@
         <v>345</v>
       </c>
       <c r="X73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
@@ -26291,7 +27471,7 @@
         <v>281</v>
       </c>
       <c r="X74" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75">
@@ -26299,7 +27479,7 @@
         <v>287</v>
       </c>
       <c r="X75" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="76">
@@ -26307,7 +27487,7 @@
         <v>292</v>
       </c>
       <c r="X76" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77">
@@ -26315,7 +27495,7 @@
         <v>435</v>
       </c>
       <c r="X77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78">
@@ -26323,7 +27503,7 @@
         <v>333</v>
       </c>
       <c r="X78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79">
@@ -26331,7 +27511,7 @@
         <v>271</v>
       </c>
       <c r="X79" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80">
@@ -26339,7 +27519,7 @@
         <v>282</v>
       </c>
       <c r="X80" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="81">
@@ -26347,7 +27527,7 @@
         <v>288</v>
       </c>
       <c r="X81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="82">
@@ -26355,7 +27535,7 @@
         <v>277</v>
       </c>
       <c r="X82" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83">
@@ -26363,7 +27543,7 @@
         <v>272</v>
       </c>
       <c r="X83" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -26371,7 +27551,7 @@
         <v>289</v>
       </c>
       <c r="X84" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85">
@@ -26379,7 +27559,7 @@
         <v>273</v>
       </c>
       <c r="X85" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86">
@@ -26387,7 +27567,7 @@
         <v>274</v>
       </c>
       <c r="X86" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="87">
@@ -26395,7 +27575,7 @@
         <v>306</v>
       </c>
       <c r="X87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88">
@@ -26403,7 +27583,7 @@
         <v>312</v>
       </c>
       <c r="X88" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89">
@@ -26411,7 +27591,7 @@
         <v>296</v>
       </c>
       <c r="X89" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="90">
@@ -26419,7 +27599,7 @@
         <v>341</v>
       </c>
       <c r="X90" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91">
@@ -26427,7 +27607,7 @@
         <v>278</v>
       </c>
       <c r="X91" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92">
@@ -26435,161 +27615,166 @@
         <v>279</v>
       </c>
       <c r="X92" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93">
       <c r="X93" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="94">
       <c r="X94" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="95">
       <c r="X95" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="96">
       <c r="X96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97">
       <c r="X97" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="98">
       <c r="X98" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="99">
       <c r="X99" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="X124" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -20,14 +20,14 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="base">'#system'!$E$2:$E$38</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$5</definedName>
+    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$25</definedName>
+    <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$O$2:$O$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$124</definedName>
+    <definedName name="web">'#system'!$X$2:$X$125</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19813" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20329" uniqueCount="532">
   <si>
     <t>description</t>
   </si>
@@ -1647,6 +1647,21 @@
   </si>
   <si>
     <t>assertElementsPresent(prefix)</t>
+  </si>
+  <si>
+    <t>toExcel(csvFile,excel,worksheet,startCell)</t>
+  </si>
+  <si>
+    <t>copyFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>deleteFilesByRegex(sourceDir,regex)</t>
+  </si>
+  <si>
+    <t>moveFilesByRegex(sourceDir,regex,target)</t>
+  </si>
+  <si>
+    <t>saveValues(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1654,7 +1669,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="643" x14ac:knownFonts="1">
+  <fonts count="659" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5704,8 +5719,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1111">
+  <fills count="1138">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11997,8 +12113,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1151">
+  <borders count="1179">
     <border>
       <left/>
       <right/>
@@ -23598,6 +23867,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -23605,7 +24156,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="670">
+  <cellXfs count="686">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -25586,52 +26137,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="626" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="627" fillId="1086" borderId="1130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1130" fillId="1086" fontId="627" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="628" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="628" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="629" fillId="1089" borderId="1134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1134" fillId="1089" fontId="629" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="630" fillId="1092" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1092" fontId="630" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="631" fillId="1095" borderId="1138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1138" fillId="1095" fontId="631" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="632" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="632" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="633" fillId="1098" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1098" fontId="633" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="634" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="634" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="635" fillId="1101" borderId="1142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1142" fillId="1101" fontId="635" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="636" fillId="1104" borderId="1146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1146" fillId="1104" fontId="636" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="637" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="637" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="638" fillId="1107" borderId="1150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1150" fillId="1107" fontId="638" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="639" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="639" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="640" fillId="1110" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1110" fontId="640" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="641" fillId="1095" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1095" fontId="641" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="642" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="643" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="645" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="646" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="647" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="649" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="651" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="652" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="653" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="657" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -25986,7 +26585,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD124"/>
+  <dimension ref="A1:AD125"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -26416,6 +27015,9 @@
       <c r="E6" t="s">
         <v>27</v>
       </c>
+      <c r="F6" t="s">
+        <v>527</v>
+      </c>
       <c r="G6" t="s">
         <v>389</v>
       </c>
@@ -26538,7 +27140,7 @@
         <v>329</v>
       </c>
       <c r="K8" t="s">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="M8" t="s">
         <v>34</v>
@@ -26591,7 +27193,7 @@
         <v>330</v>
       </c>
       <c r="K9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s">
         <v>35</v>
@@ -26632,7 +27234,7 @@
         <v>473</v>
       </c>
       <c r="K10" t="s">
-        <v>391</v>
+        <v>38</v>
       </c>
       <c r="M10" t="s">
         <v>36</v>
@@ -26670,7 +27272,7 @@
         <v>323</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>529</v>
       </c>
       <c r="M11" t="s">
         <v>496</v>
@@ -26705,7 +27307,7 @@
         <v>324</v>
       </c>
       <c r="K12" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="M12" t="s">
         <v>461</v>
@@ -26740,7 +27342,7 @@
         <v>325</v>
       </c>
       <c r="K13" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="M13" t="s">
         <v>497</v>
@@ -26775,7 +27377,7 @@
         <v>326</v>
       </c>
       <c r="K14" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="M14" t="s">
         <v>39</v>
@@ -26807,7 +27409,7 @@
         <v>266</v>
       </c>
       <c r="K15" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M15" t="s">
         <v>40</v>
@@ -26839,7 +27441,7 @@
         <v>318</v>
       </c>
       <c r="K16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M16" t="s">
         <v>43</v>
@@ -26871,7 +27473,7 @@
         <v>90</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="X17" t="s">
         <v>526</v>
@@ -26894,7 +27496,7 @@
         <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="X18" t="s">
         <v>106</v>
@@ -26914,7 +27516,7 @@
         <v>297</v>
       </c>
       <c r="K19" t="s">
-        <v>495</v>
+        <v>84</v>
       </c>
       <c r="X19" t="s">
         <v>107</v>
@@ -26934,7 +27536,7 @@
         <v>298</v>
       </c>
       <c r="K20" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="X20" t="s">
         <v>108</v>
@@ -26954,7 +27556,7 @@
         <v>299</v>
       </c>
       <c r="K21" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="X21" t="s">
         <v>109</v>
@@ -26974,7 +27576,7 @@
         <v>300</v>
       </c>
       <c r="K22" t="s">
-        <v>86</v>
+        <v>495</v>
       </c>
       <c r="X22" t="s">
         <v>507</v>
@@ -26991,7 +27593,7 @@
         <v>291</v>
       </c>
       <c r="K23" t="s">
-        <v>460</v>
+        <v>44</v>
       </c>
       <c r="X23" t="s">
         <v>111</v>
@@ -27008,7 +27610,7 @@
         <v>280</v>
       </c>
       <c r="K24" t="s">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="X24" t="s">
         <v>112</v>
@@ -27025,7 +27627,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="X25" t="s">
         <v>113</v>
@@ -27041,6 +27643,9 @@
       <c r="G26" t="s">
         <v>283</v>
       </c>
+      <c r="K26" t="s">
+        <v>460</v>
+      </c>
       <c r="X26" t="s">
         <v>114</v>
       </c>
@@ -27055,6 +27660,9 @@
       <c r="G27" t="s">
         <v>267</v>
       </c>
+      <c r="K27" t="s">
+        <v>45</v>
+      </c>
       <c r="X27" t="s">
         <v>115</v>
       </c>
@@ -27069,6 +27677,9 @@
       <c r="G28" t="s">
         <v>284</v>
       </c>
+      <c r="K28" t="s">
+        <v>46</v>
+      </c>
       <c r="X28" t="s">
         <v>328</v>
       </c>
@@ -27655,126 +28266,131 @@
     </row>
     <row r="100">
       <c r="X100" t="s">
-        <v>150</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="X125" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$92</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20329" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20847" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -1662,6 +1662,12 @@
   </si>
   <si>
     <t>saveValues(var,locator)</t>
+  </si>
+  <si>
+    <t>clickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveTextByLocator(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1675,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="659" x14ac:knownFonts="1">
+  <fonts count="675" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5820,8 +5826,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1138">
+  <fills count="1165">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12266,8 +12373,161 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1179">
+  <borders count="1207">
     <border>
       <left/>
       <right/>
@@ -24149,6 +24409,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -24156,7 +24698,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="686">
+  <cellXfs count="702">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26185,52 +26727,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="642" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="643" fillId="1113" borderId="1158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1158" fillId="1113" fontId="643" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="644" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="644" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="645" fillId="1116" borderId="1162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1162" fillId="1116" fontId="645" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="646" fillId="1119" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1119" fontId="646" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="647" fillId="1122" borderId="1166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1166" fillId="1122" fontId="647" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="648" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="648" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="649" fillId="1125" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1125" fontId="649" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="650" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="650" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="651" fillId="1128" borderId="1170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1170" fillId="1128" fontId="651" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="652" fillId="1131" borderId="1174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1174" fillId="1131" fontId="652" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="653" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="653" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="654" fillId="1134" borderId="1178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1178" fillId="1134" fontId="654" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="655" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="655" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="656" fillId="1137" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1137" fontId="656" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="657" fillId="1122" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1122" fontId="657" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="658" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="659" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="661" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="662" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="663" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="665" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="668" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="669" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="671" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="672" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="673" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27736,7 +28326,7 @@
         <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>261</v>
+        <v>532</v>
       </c>
       <c r="X33" t="s">
         <v>120</v>
@@ -27747,7 +28337,7 @@
         <v>68</v>
       </c>
       <c r="G34" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="X34" t="s">
         <v>121</v>
@@ -27758,7 +28348,7 @@
         <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="X35" t="s">
         <v>211</v>
@@ -27769,7 +28359,7 @@
         <v>70</v>
       </c>
       <c r="G36" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="X36" t="s">
         <v>122</v>
@@ -27780,7 +28370,7 @@
         <v>71</v>
       </c>
       <c r="G37" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="X37" t="s">
         <v>339</v>
@@ -27791,7 +28381,7 @@
         <v>72</v>
       </c>
       <c r="G38" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="X38" t="s">
         <v>447</v>
@@ -27799,7 +28389,7 @@
     </row>
     <row r="39">
       <c r="G39" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="X39" t="s">
         <v>394</v>
@@ -27807,7 +28397,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s">
         <v>123</v>
@@ -27815,7 +28405,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>290</v>
+        <v>213</v>
       </c>
       <c r="X41" t="s">
         <v>124</v>
@@ -27823,7 +28413,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="X42" t="s">
         <v>125</v>
@@ -27831,7 +28421,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="X43" t="s">
         <v>126</v>
@@ -27839,7 +28429,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="X44" t="s">
         <v>127</v>
@@ -27847,7 +28437,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="X45" t="s">
         <v>128</v>
@@ -27855,7 +28445,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="X46" t="s">
         <v>462</v>
@@ -27863,7 +28453,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="X47" t="s">
         <v>214</v>
@@ -27871,7 +28461,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="X48" t="s">
         <v>78</v>
@@ -27879,7 +28469,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="X49" t="s">
         <v>129</v>
@@ -27887,7 +28477,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="X50" t="s">
         <v>130</v>
@@ -27895,7 +28485,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="X51" t="s">
         <v>131</v>
@@ -27903,7 +28493,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="X52" t="s">
         <v>508</v>
@@ -27911,7 +28501,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="X53" t="s">
         <v>488</v>
@@ -27919,7 +28509,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="X54" t="s">
         <v>132</v>
@@ -27927,7 +28517,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="X55" t="s">
         <v>347</v>
@@ -27935,7 +28525,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="X56" t="s">
         <v>481</v>
@@ -27943,7 +28533,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="X57" t="s">
         <v>133</v>
@@ -27951,7 +28541,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="X58" t="s">
         <v>134</v>
@@ -27959,7 +28549,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="X59" t="s">
         <v>135</v>
@@ -27967,7 +28557,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="X60" t="s">
         <v>136</v>
@@ -27975,7 +28565,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X61" t="s">
         <v>137</v>
@@ -27983,7 +28573,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="X62" t="s">
         <v>138</v>
@@ -27991,7 +28581,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="X63" t="s">
         <v>139</v>
@@ -27999,7 +28589,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="X64" t="s">
         <v>458</v>
@@ -28007,7 +28597,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="X65" t="s">
         <v>498</v>
@@ -28015,7 +28605,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="X66" t="s">
         <v>215</v>
@@ -28023,7 +28613,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="X67" t="s">
         <v>390</v>
@@ -28031,7 +28621,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
       <c r="X68" t="s">
         <v>463</v>
@@ -28039,7 +28629,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="X69" t="s">
         <v>140</v>
@@ -28047,7 +28637,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="X70" t="s">
         <v>141</v>
@@ -28055,7 +28645,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="X71" t="s">
         <v>142</v>
@@ -28063,7 +28653,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="X72" t="s">
         <v>143</v>
@@ -28071,7 +28661,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="X73" t="s">
         <v>198</v>
@@ -28079,7 +28669,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="X74" t="s">
         <v>199</v>
@@ -28087,7 +28677,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="X75" t="s">
         <v>476</v>
@@ -28095,7 +28685,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="X76" t="s">
         <v>492</v>
@@ -28103,7 +28693,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="X77" t="s">
         <v>144</v>
@@ -28111,7 +28701,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="X78" t="s">
         <v>145</v>
@@ -28119,7 +28709,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="X79" t="s">
         <v>146</v>
@@ -28127,7 +28717,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="X80" t="s">
         <v>520</v>
@@ -28135,7 +28725,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="X81" t="s">
         <v>147</v>
@@ -28143,7 +28733,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="X82" t="s">
         <v>148</v>
@@ -28151,7 +28741,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="X83" t="s">
         <v>200</v>
@@ -28159,7 +28749,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="X84" t="s">
         <v>509</v>
@@ -28167,7 +28757,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="X85" t="s">
         <v>201</v>
@@ -28175,7 +28765,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="X86" t="s">
         <v>475</v>
@@ -28183,7 +28773,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="X87" t="s">
         <v>202</v>
@@ -28191,7 +28781,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="X88" t="s">
         <v>203</v>
@@ -28199,7 +28789,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="X89" t="s">
         <v>216</v>
@@ -28207,7 +28797,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="X90" t="s">
         <v>149</v>
@@ -28215,7 +28805,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="X91" t="s">
         <v>204</v>
@@ -28223,18 +28813,24 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="X92" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="93">
+      <c r="G93" t="s">
+        <v>278</v>
+      </c>
       <c r="X93" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="94">
+      <c r="G94" t="s">
+        <v>279</v>
+      </c>
       <c r="X94" t="s">
         <v>205</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20847" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21367" uniqueCount="536">
   <si>
     <t>description</t>
   </si>
@@ -1668,6 +1668,12 @@
   </si>
   <si>
     <t>saveTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1681,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="675" x14ac:knownFonts="1">
+  <fonts count="691" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5927,8 +5933,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1165">
+  <fills count="1195">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12526,8 +12633,178 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1207">
+  <borders count="1235">
     <border>
       <left/>
       <right/>
@@ -12564,6 +12841,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -24698,7 +25257,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="702">
+  <cellXfs count="718">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -26775,52 +27334,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="658" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="659" fillId="1140" borderId="1186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1186" fillId="1140" fontId="659" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="660" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="660" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="661" fillId="1143" borderId="1190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1190" fillId="1143" fontId="661" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="662" fillId="1146" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1146" fontId="662" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="663" fillId="1149" borderId="1194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1194" fillId="1149" fontId="663" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="664" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="664" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="665" fillId="1152" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1152" fontId="665" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="666" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="666" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="667" fillId="1155" borderId="1198" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1198" fillId="1155" fontId="667" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="668" fillId="1158" borderId="1202" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1202" fillId="1158" fontId="668" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="669" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="669" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="670" fillId="1161" borderId="1206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1206" fillId="1161" fontId="670" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="671" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="671" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="672" fillId="1164" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1164" fontId="672" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="673" fillId="1149" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1149" fontId="673" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="674" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="675" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="677" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="687" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="688" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="689" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="690" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27175,7 +27782,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -28867,126 +29474,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>384</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>151</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>152</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>464</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>165</v>
+        <v>464</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -30,28 +30,29 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -66,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21367" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21895" uniqueCount="543">
   <si>
     <t>description</t>
   </si>
@@ -1674,6 +1675,27 @@
   </si>
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
   </si>
 </sst>
 </file>
@@ -1681,7 +1703,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="691" x14ac:knownFonts="1">
+  <fonts count="707" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6034,8 +6056,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1195">
+  <fills count="1225">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12803,8 +12926,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1235">
+  <borders count="1263">
     <border>
       <left/>
       <right/>
@@ -12841,6 +13134,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25257,7 +25832,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="718">
+  <cellXfs count="734">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -27382,52 +27957,100 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="674" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="675" fillId="1167" borderId="1214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1214" fillId="1167" fontId="675" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="676" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="676" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="677" fillId="1170" borderId="1218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1218" fillId="1170" fontId="677" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="678" fillId="1173" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1173" fontId="678" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="679" fillId="1176" borderId="1222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1222" fillId="1176" fontId="679" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="680" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="680" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="681" fillId="1179" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1179" fontId="681" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="682" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="682" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="683" fillId="1182" borderId="1226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1226" fillId="1182" fontId="683" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="684" fillId="1185" borderId="1230" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1230" fillId="1185" fontId="684" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="685" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="685" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="686" fillId="1188" borderId="1234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1234" fillId="1188" fontId="686" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="687" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="687" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="688" fillId="1191" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1191" fontId="688" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="689" fillId="1176" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1176" fontId="689" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="690" fillId="1194" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="690" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="693" fillId="1200" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="695" fillId="1206" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="697" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="699" fillId="1212" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="700" fillId="1215" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="701" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="703" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="704" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="705" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -27782,7 +28405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -27834,51 +28457,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>536</v>
+      </c>
+      <c r="O1" t="s">
         <v>501</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>197</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>240</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>54</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>397</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>430</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>431</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>358</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>398</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>55</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>56</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>57</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>58</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>432</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -27923,51 +28549,54 @@
         <v>436</v>
       </c>
       <c r="N2" t="s">
+        <v>537</v>
+      </c>
+      <c r="O2" t="s">
         <v>504</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>437</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>438</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>254</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>218</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>399</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>442</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>443</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>382</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>408</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>98</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>172</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>177</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>184</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>451</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -28012,45 +28641,48 @@
         <v>87</v>
       </c>
       <c r="N3" t="s">
+        <v>538</v>
+      </c>
+      <c r="O3" t="s">
         <v>505</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>439</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>241</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>219</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>400</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>444</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>383</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>99</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>173</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>178</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>365</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>185</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -28092,45 +28724,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>539</v>
+      </c>
+      <c r="O4" t="s">
         <v>506</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>242</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>220</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>401</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>445</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>359</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>355</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>174</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>179</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>185</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>452</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -28165,40 +28800,43 @@
       <c r="M5" t="s">
         <v>88</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>540</v>
+      </c>
+      <c r="Q5" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>243</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>221</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>402</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>446</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>175</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>180</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>186</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>453</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -28230,37 +28868,40 @@
       <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q6" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>244</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>392</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>403</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>100</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>465</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>181</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>187</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>454</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -28286,37 +28927,40 @@
       <c r="M7" t="s">
         <v>316</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q7" t="s">
         <v>33</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>245</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>441</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>404</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>101</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>466</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>182</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>188</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>455</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -28342,34 +28986,34 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>246</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>405</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>102</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>176</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>183</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>189</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>456</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>234</v>
       </c>
     </row>
@@ -28395,25 +29039,25 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>247</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>406</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>235</v>
       </c>
     </row>
@@ -28436,22 +29080,22 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>440</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>248</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>499</v>
       </c>
     </row>
@@ -28474,19 +29118,19 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>516</v>
       </c>
     </row>
@@ -28509,19 +29153,19 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>517</v>
       </c>
     </row>
@@ -28544,25 +29188,25 @@
       <c r="M13" t="s">
         <v>497</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>95</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="E14" t="s">
         <v>37</v>
@@ -28579,25 +29223,25 @@
       <c r="M14" t="s">
         <v>39</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>96</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>197</v>
+        <v>501</v>
       </c>
       <c r="E15" t="s">
         <v>60</v>
@@ -28611,25 +29255,25 @@
       <c r="M15" t="s">
         <v>40</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>524</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="E16" t="s">
         <v>386</v>
@@ -28643,25 +29287,25 @@
       <c r="M16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>525</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>387</v>
@@ -28672,19 +29316,19 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>526</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>240</v>
       </c>
       <c r="E18" t="s">
         <v>433</v>
@@ -28695,16 +29339,16 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>397</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
         <v>61</v>
@@ -28715,16 +29359,16 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="E20" t="s">
         <v>62</v>
@@ -28735,16 +29379,16 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
         <v>257</v>
@@ -28755,16 +29399,16 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
         <v>63</v>
@@ -28775,13 +29419,13 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="E23" t="s">
         <v>322</v>
@@ -28792,13 +29436,13 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="E24" t="s">
         <v>64</v>
@@ -28809,13 +29453,13 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>470</v>
@@ -28826,13 +29470,13 @@
       <c r="K25" t="s">
         <v>86</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>226</v>
@@ -28843,13 +29487,13 @@
       <c r="K26" t="s">
         <v>460</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>227</v>
@@ -28860,13 +29504,13 @@
       <c r="K27" t="s">
         <v>45</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>493</v>
@@ -28877,13 +29521,13 @@
       <c r="K28" t="s">
         <v>46</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="E29" t="s">
         <v>494</v>
@@ -28891,18 +29535,21 @@
       <c r="G29" t="s">
         <v>285</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>228</v>
+      </c>
       <c r="E30" t="s">
         <v>434</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
@@ -28913,7 +29560,7 @@
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -28924,7 +29571,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -28935,7 +29582,7 @@
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -28946,7 +29593,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -28957,7 +29604,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -28968,7 +29615,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -28979,7 +29626,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -28990,7 +29637,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>447</v>
       </c>
     </row>
@@ -28998,7 +29645,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>394</v>
       </c>
     </row>
@@ -29006,7 +29653,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>123</v>
       </c>
     </row>
@@ -29014,7 +29661,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>124</v>
       </c>
     </row>
@@ -29022,7 +29669,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>125</v>
       </c>
     </row>
@@ -29030,7 +29677,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>126</v>
       </c>
     </row>
@@ -29038,7 +29685,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>127</v>
       </c>
     </row>
@@ -29046,7 +29693,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>128</v>
       </c>
     </row>
@@ -29054,7 +29701,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>462</v>
       </c>
     </row>
@@ -29062,7 +29709,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>214</v>
       </c>
     </row>
@@ -29070,7 +29717,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>78</v>
       </c>
     </row>
@@ -29078,7 +29725,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>129</v>
       </c>
     </row>
@@ -29086,7 +29733,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>130</v>
       </c>
     </row>
@@ -29094,7 +29741,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>131</v>
       </c>
     </row>
@@ -29102,7 +29749,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>508</v>
       </c>
     </row>
@@ -29110,7 +29757,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>488</v>
       </c>
     </row>
@@ -29118,7 +29765,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>132</v>
       </c>
     </row>
@@ -29126,7 +29773,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>347</v>
       </c>
     </row>
@@ -29134,7 +29781,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>481</v>
       </c>
     </row>
@@ -29142,7 +29789,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>133</v>
       </c>
     </row>
@@ -29150,7 +29797,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>134</v>
       </c>
     </row>
@@ -29158,7 +29805,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>135</v>
       </c>
     </row>
@@ -29166,7 +29813,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>136</v>
       </c>
     </row>
@@ -29174,7 +29821,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>137</v>
       </c>
     </row>
@@ -29182,7 +29829,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>138</v>
       </c>
     </row>
@@ -29190,7 +29837,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>139</v>
       </c>
     </row>
@@ -29198,7 +29845,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>458</v>
       </c>
     </row>
@@ -29206,7 +29853,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>498</v>
       </c>
     </row>
@@ -29214,7 +29861,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>215</v>
       </c>
     </row>
@@ -29222,7 +29869,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>390</v>
       </c>
     </row>
@@ -29230,7 +29877,7 @@
       <c r="G68" t="s">
         <v>354</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>463</v>
       </c>
     </row>
@@ -29238,7 +29885,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>140</v>
       </c>
     </row>
@@ -29246,7 +29893,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>141</v>
       </c>
     </row>
@@ -29254,7 +29901,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>142</v>
       </c>
     </row>
@@ -29262,7 +29909,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>143</v>
       </c>
     </row>
@@ -29270,7 +29917,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>198</v>
       </c>
     </row>
@@ -29278,7 +29925,7 @@
       <c r="G74" t="s">
         <v>533</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>199</v>
       </c>
     </row>
@@ -29286,7 +29933,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>476</v>
       </c>
     </row>
@@ -29294,7 +29941,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>492</v>
       </c>
     </row>
@@ -29302,7 +29949,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>144</v>
       </c>
     </row>
@@ -29310,7 +29957,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>145</v>
       </c>
     </row>
@@ -29318,7 +29965,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>146</v>
       </c>
     </row>
@@ -29326,7 +29973,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>520</v>
       </c>
     </row>
@@ -29334,7 +29981,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>147</v>
       </c>
     </row>
@@ -29342,7 +29989,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>148</v>
       </c>
     </row>
@@ -29350,7 +29997,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>200</v>
       </c>
     </row>
@@ -29358,7 +30005,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>509</v>
       </c>
     </row>
@@ -29366,7 +30013,7 @@
       <c r="G85" t="s">
         <v>272</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>201</v>
       </c>
     </row>
@@ -29374,7 +30021,7 @@
       <c r="G86" t="s">
         <v>289</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>475</v>
       </c>
     </row>
@@ -29382,7 +30029,7 @@
       <c r="G87" t="s">
         <v>273</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>202</v>
       </c>
     </row>
@@ -29390,7 +30037,7 @@
       <c r="G88" t="s">
         <v>274</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>203</v>
       </c>
     </row>
@@ -29398,7 +30045,7 @@
       <c r="G89" t="s">
         <v>306</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>216</v>
       </c>
     </row>
@@ -29406,7 +30053,7 @@
       <c r="G90" t="s">
         <v>312</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>149</v>
       </c>
     </row>
@@ -29414,7 +30061,7 @@
       <c r="G91" t="s">
         <v>296</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>204</v>
       </c>
     </row>
@@ -29422,7 +30069,7 @@
       <c r="G92" t="s">
         <v>341</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>449</v>
       </c>
     </row>
@@ -29430,7 +30077,7 @@
       <c r="G93" t="s">
         <v>278</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>457</v>
       </c>
     </row>
@@ -29438,172 +30085,172 @@
       <c r="G94" t="s">
         <v>279</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -27,7 +27,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
@@ -52,7 +52,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21895" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22958" uniqueCount="547">
   <si>
     <t>description</t>
   </si>
@@ -1696,6 +1696,18 @@
   </si>
   <si>
     <t>runSQLs(var,sqls)</t>
+  </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
 </sst>
 </file>
@@ -1703,7 +1715,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="707" x14ac:knownFonts="1">
+  <fonts count="739" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6157,8 +6169,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1225">
+  <fills count="1285">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13096,8 +13310,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1263">
+  <borders count="1319">
     <border>
       <left/>
       <right/>
@@ -13134,6 +13688,570 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -25832,7 +26950,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="734">
+  <cellXfs count="766">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -28005,52 +29123,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1194" fontId="690" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="691" fillId="1197" borderId="1242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1242" fillId="1197" fontId="691" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="692" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="692" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="693" fillId="1200" borderId="1246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1246" fillId="1200" fontId="693" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="694" fillId="1203" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1203" fontId="694" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="695" fillId="1206" borderId="1250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1250" fillId="1206" fontId="695" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="696" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="696" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="697" fillId="1209" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1209" fontId="697" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="698" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="698" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="699" fillId="1212" borderId="1254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1254" fillId="1212" fontId="699" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="700" fillId="1215" borderId="1258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1258" fillId="1215" fontId="700" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="701" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1218" fontId="701" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="702" fillId="1218" borderId="1262" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1262" fillId="1218" fontId="702" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="703" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="703" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="704" fillId="1221" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1221" fontId="704" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="705" fillId="1206" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1206" fontId="705" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="706" fillId="1224" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1224" fontId="706" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1270" fillId="1227" fontId="707" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="708" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1274" fillId="1230" fontId="709" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1233" fontId="710" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1278" fillId="1236" fontId="711" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="712" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1239" fontId="713" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="714" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1282" fillId="1242" fontId="715" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1286" fillId="1245" fontId="716" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1248" fontId="717" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1290" fillId="1248" fontId="718" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="719" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1251" fontId="720" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1236" fontId="721" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="722" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="1260" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="729" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="731" fillId="1272" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="734" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="735" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="736" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="737" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="738" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -28801,7 +30015,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -28869,7 +30083,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -28928,7 +30142,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -28986,6 +30200,9 @@
       <c r="M8" t="s">
         <v>34</v>
       </c>
+      <c r="N8" t="s">
+        <v>540</v>
+      </c>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
@@ -29039,6 +30256,9 @@
       <c r="M9" t="s">
         <v>35</v>
       </c>
+      <c r="N9" t="s">
+        <v>541</v>
+      </c>
       <c r="Q9" t="s">
         <v>93</v>
       </c>
@@ -29080,6 +30300,9 @@
       <c r="M10" t="s">
         <v>36</v>
       </c>
+      <c r="N10" t="s">
+        <v>542</v>
+      </c>
       <c r="Q10" t="s">
         <v>440</v>
       </c>
@@ -29468,7 +30691,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>86</v>
+        <v>546</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>
@@ -29485,7 +30708,7 @@
         <v>283</v>
       </c>
       <c r="K26" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Y26" t="s">
         <v>114</v>
@@ -29502,7 +30725,7 @@
         <v>267</v>
       </c>
       <c r="K27" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Y27" t="s">
         <v>115</v>
@@ -29519,7 +30742,7 @@
         <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y28" t="s">
         <v>328</v>
@@ -29534,6 +30757,9 @@
       </c>
       <c r="G29" t="s">
         <v>285</v>
+      </c>
+      <c r="K29" t="s">
+        <v>46</v>
       </c>
       <c r="Y29" t="s">
         <v>116</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -51,8 +51,8 @@
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$10</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22958" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23493" uniqueCount="551">
   <si>
     <t>description</t>
   </si>
@@ -1709,13 +1709,25 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="739" x14ac:knownFonts="1">
+  <fonts count="755" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6371,8 +6383,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1285">
+  <fills count="1315">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13650,8 +13763,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1319">
+  <borders count="1347">
     <border>
       <left/>
       <right/>
@@ -13688,6 +13971,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -26950,7 +27515,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="766">
+  <cellXfs count="782">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29219,52 +29784,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1254" fontId="722" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="723" fillId="1257" borderId="1298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1298" fillId="1257" fontId="723" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="724" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="724" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="725" fillId="1260" borderId="1302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1302" fillId="1260" fontId="725" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="726" fillId="1263" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1263" fontId="726" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="727" fillId="1266" borderId="1306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1306" fillId="1266" fontId="727" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="728" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="728" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="729" fillId="1269" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1269" fontId="729" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="730" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="730" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="731" fillId="1272" borderId="1310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1310" fillId="1272" fontId="731" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="732" fillId="1275" borderId="1314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1314" fillId="1275" fontId="732" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="733" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1278" fontId="733" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="734" fillId="1278" borderId="1318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1318" fillId="1278" fontId="734" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="735" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="735" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="736" fillId="1281" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1281" fontId="736" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="737" fillId="1266" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1266" fontId="737" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="738" fillId="1284" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="738" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="739" fillId="1287" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="741" fillId="1290" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="745" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="747" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="750" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="752" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="753" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="754" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -29825,7 +30438,7 @@
         <v>484</v>
       </c>
       <c r="D3" t="s">
-        <v>512</v>
+        <v>547</v>
       </c>
       <c r="E3" t="s">
         <v>479</v>
@@ -29908,7 +30521,7 @@
         <v>375</v>
       </c>
       <c r="D4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -29991,7 +30604,7 @@
         <v>376</v>
       </c>
       <c r="D5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E5" t="s">
         <v>480</v>
@@ -30015,7 +30628,7 @@
         <v>88</v>
       </c>
       <c r="N5" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q5" t="s">
         <v>30</v>
@@ -30061,6 +30674,9 @@
       <c r="B6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>514</v>
+      </c>
       <c r="E6" t="s">
         <v>27</v>
       </c>
@@ -30083,7 +30699,7 @@
         <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q6" t="s">
         <v>31</v>
@@ -30142,7 +30758,7 @@
         <v>316</v>
       </c>
       <c r="N7" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q7" t="s">
         <v>33</v>
@@ -30201,7 +30817,7 @@
         <v>34</v>
       </c>
       <c r="N8" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="Q8" t="s">
         <v>92</v>
@@ -30257,7 +30873,7 @@
         <v>35</v>
       </c>
       <c r="N9" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="Q9" t="s">
         <v>93</v>
@@ -30301,7 +30917,7 @@
         <v>36</v>
       </c>
       <c r="N10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q10" t="s">
         <v>440</v>
@@ -30341,6 +30957,9 @@
       <c r="M11" t="s">
         <v>496</v>
       </c>
+      <c r="N11" t="s">
+        <v>541</v>
+      </c>
       <c r="Q11" t="s">
         <v>94</v>
       </c>
@@ -30376,6 +30995,9 @@
       <c r="M12" t="s">
         <v>461</v>
       </c>
+      <c r="N12" t="s">
+        <v>542</v>
+      </c>
       <c r="Q12" t="s">
         <v>41</v>
       </c>
@@ -30691,7 +31313,7 @@
         <v>77</v>
       </c>
       <c r="K25" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y25" t="s">
         <v>113</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -25,7 +25,7 @@
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23493" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24030" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1721,13 +1721,19 @@
   <si>
     <t>importEXCEL(var,excel,sheet,ranges,table)</t>
   </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="755" x14ac:knownFonts="1">
+  <fonts count="771" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6484,8 +6490,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1315">
+  <fills count="1345">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13933,8 +14040,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1347">
+  <borders count="1375">
     <border>
       <left/>
       <right/>
@@ -13971,6 +14248,288 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -27515,7 +28074,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="782">
+  <cellXfs count="798">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -29832,52 +30391,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1284" fontId="738" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="739" fillId="1287" borderId="1326" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1326" fillId="1287" fontId="739" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="740" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="740" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="741" fillId="1290" borderId="1330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1330" fillId="1290" fontId="741" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="742" fillId="1293" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1293" fontId="742" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="743" fillId="1296" borderId="1334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1334" fillId="1296" fontId="743" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="744" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="744" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="745" fillId="1299" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1299" fontId="745" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="746" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="746" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="747" fillId="1302" borderId="1338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1338" fillId="1302" fontId="747" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="748" fillId="1305" borderId="1342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1342" fillId="1305" fontId="748" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="749" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1308" fontId="749" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="750" fillId="1308" borderId="1346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1346" fillId="1308" fontId="750" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="751" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="751" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="752" fillId="1311" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1311" fontId="752" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="753" fillId="1296" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1296" fontId="753" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="754" fillId="1314" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="754" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="755" fillId="1317" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="757" fillId="1320" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="761" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="1332" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="765" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="767" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="768" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="769" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="770" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30232,7 +30839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AE128"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -30618,6 +31225,9 @@
       <c r="H5" t="s">
         <v>477</v>
       </c>
+      <c r="I5" t="s">
+        <v>551</v>
+      </c>
       <c r="J5" t="s">
         <v>352</v>
       </c>
@@ -31494,7 +32104,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>394</v>
+        <v>552</v>
       </c>
     </row>
     <row r="40">
@@ -31502,7 +32112,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41">
@@ -31510,7 +32120,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42">
@@ -31518,7 +32128,7 @@
         <v>290</v>
       </c>
       <c r="Y42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43">
@@ -31526,7 +32136,7 @@
         <v>301</v>
       </c>
       <c r="Y43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44">
@@ -31534,7 +32144,7 @@
         <v>302</v>
       </c>
       <c r="Y44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45">
@@ -31542,7 +32152,7 @@
         <v>344</v>
       </c>
       <c r="Y45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46">
@@ -31550,7 +32160,7 @@
         <v>343</v>
       </c>
       <c r="Y46" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -31558,7 +32168,7 @@
         <v>212</v>
       </c>
       <c r="Y47" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="48">
@@ -31566,7 +32176,7 @@
         <v>321</v>
       </c>
       <c r="Y48" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="49">
@@ -31574,7 +32184,7 @@
         <v>340</v>
       </c>
       <c r="Y49" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
@@ -31582,7 +32192,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51">
@@ -31590,7 +32200,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52">
@@ -31598,7 +32208,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53">
@@ -31606,7 +32216,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="54">
@@ -31614,7 +32224,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55">
@@ -31622,7 +32232,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56">
@@ -31630,7 +32240,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57">
@@ -31638,7 +32248,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="58">
@@ -31646,7 +32256,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59">
@@ -31654,7 +32264,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60">
@@ -31662,7 +32272,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="61">
@@ -31670,7 +32280,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="62">
@@ -31678,7 +32288,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="63">
@@ -31686,7 +32296,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64">
@@ -31694,7 +32304,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="65">
@@ -31702,7 +32312,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66">
@@ -31710,7 +32320,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67">
@@ -31718,7 +32328,7 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="68">
@@ -31726,7 +32336,7 @@
         <v>354</v>
       </c>
       <c r="Y68" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="69">
@@ -31734,7 +32344,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="70">
@@ -31742,7 +32352,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71">
@@ -31750,7 +32360,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72">
@@ -31758,7 +32368,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73">
@@ -31766,7 +32376,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74">
@@ -31774,7 +32384,7 @@
         <v>533</v>
       </c>
       <c r="Y74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="75">
@@ -31782,7 +32392,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="76">
@@ -31790,7 +32400,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="77">
@@ -31798,7 +32408,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78">
@@ -31806,7 +32416,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="79">
@@ -31814,7 +32424,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="80">
@@ -31822,7 +32432,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81">
@@ -31830,7 +32440,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82">
@@ -31838,7 +32448,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="83">
@@ -31846,7 +32456,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84">
@@ -31854,7 +32464,7 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -31862,7 +32472,7 @@
         <v>272</v>
       </c>
       <c r="Y85" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="86">
@@ -31870,7 +32480,7 @@
         <v>289</v>
       </c>
       <c r="Y86" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87">
@@ -31878,7 +32488,7 @@
         <v>273</v>
       </c>
       <c r="Y87" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88">
@@ -31886,7 +32496,7 @@
         <v>274</v>
       </c>
       <c r="Y88" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
@@ -31894,7 +32504,7 @@
         <v>306</v>
       </c>
       <c r="Y89" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="90">
@@ -31902,7 +32512,7 @@
         <v>312</v>
       </c>
       <c r="Y90" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91">
@@ -31910,7 +32520,7 @@
         <v>296</v>
       </c>
       <c r="Y91" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92">
@@ -31918,7 +32528,7 @@
         <v>341</v>
       </c>
       <c r="Y92" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93">
@@ -31926,7 +32536,7 @@
         <v>278</v>
       </c>
       <c r="Y93" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="94">
@@ -31934,171 +32544,176 @@
         <v>279</v>
       </c>
       <c r="Y94" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="95">
       <c r="Y95" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="Y128" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -23,13 +23,13 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -43,12 +43,12 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$128</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24030" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24577" uniqueCount="564">
   <si>
     <t>description</t>
   </si>
@@ -1727,13 +1727,46 @@
   <si>
     <t>assertTextNotContains(locator,text)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="771" x14ac:knownFonts="1">
+  <fonts count="787" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6591,8 +6624,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1345">
+  <fills count="1372">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14210,8 +14344,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1375">
+  <borders count="1407">
     <border>
       <left/>
       <right/>
@@ -27889,6 +28176,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28074,7 +28687,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="798">
+  <cellXfs count="814">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -30439,52 +31052,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1314" fontId="754" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="755" fillId="1317" borderId="1354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1354" fillId="1317" fontId="755" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="756" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="756" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="757" fillId="1320" borderId="1358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1358" fillId="1320" fontId="757" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="758" fillId="1323" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1323" fontId="758" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="759" fillId="1326" borderId="1362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1362" fillId="1326" fontId="759" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="760" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="760" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="761" fillId="1329" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1329" fontId="761" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="762" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="762" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="763" fillId="1332" borderId="1366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1366" fillId="1332" fontId="763" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="764" fillId="1335" borderId="1370" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1370" fillId="1335" fontId="764" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="765" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1338" fontId="765" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="766" fillId="1338" borderId="1374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1374" fillId="1338" fontId="766" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="767" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="767" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="768" fillId="1341" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1341" fontId="768" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="769" fillId="1326" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1326" fontId="769" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="770" fillId="1344" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="770" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="771" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="773" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="774" fillId="1353" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="775" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="777" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="779" fillId="1362" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="781" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="783" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="784" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="785" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="786" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -30839,7 +31500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE128"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31361,6 +32022,9 @@
       <c r="H7" t="s">
         <v>468</v>
       </c>
+      <c r="J7" t="s">
+        <v>555</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -31401,7 +32065,7 @@
         <v>455</v>
       </c>
       <c r="AD7" t="s">
-        <v>233</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
@@ -31457,7 +32121,7 @@
         <v>456</v>
       </c>
       <c r="AD8" t="s">
-        <v>234</v>
+        <v>559</v>
       </c>
     </row>
     <row r="9">
@@ -31504,7 +32168,7 @@
         <v>190</v>
       </c>
       <c r="AD9" t="s">
-        <v>235</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10">
@@ -31545,7 +32209,7 @@
         <v>191</v>
       </c>
       <c r="AD10" t="s">
-        <v>499</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
@@ -31583,7 +32247,7 @@
         <v>260</v>
       </c>
       <c r="AD11" t="s">
-        <v>516</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
@@ -31603,7 +32267,7 @@
         <v>391</v>
       </c>
       <c r="M12" t="s">
-        <v>461</v>
+        <v>556</v>
       </c>
       <c r="N12" t="s">
         <v>542</v>
@@ -31621,7 +32285,7 @@
         <v>192</v>
       </c>
       <c r="AD12" t="s">
-        <v>517</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -31641,7 +32305,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="Q13" t="s">
         <v>95</v>
@@ -31656,7 +32320,7 @@
         <v>193</v>
       </c>
       <c r="AD13" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
@@ -31676,7 +32340,7 @@
         <v>42</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>497</v>
       </c>
       <c r="Q14" t="s">
         <v>96</v>
@@ -31691,7 +32355,7 @@
         <v>194</v>
       </c>
       <c r="AD14" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15">
@@ -31708,7 +32372,7 @@
         <v>530</v>
       </c>
       <c r="M15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" t="s">
         <v>524</v>
@@ -31723,7 +32387,7 @@
         <v>195</v>
       </c>
       <c r="AD15" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="16">
@@ -31740,7 +32404,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q16" t="s">
         <v>525</v>
@@ -31755,7 +32419,7 @@
         <v>196</v>
       </c>
       <c r="AD16" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="17">
@@ -31771,6 +32435,9 @@
       <c r="K17" t="s">
         <v>83</v>
       </c>
+      <c r="M17" t="s">
+        <v>43</v>
+      </c>
       <c r="Y17" t="s">
         <v>526</v>
       </c>
@@ -31778,7 +32445,7 @@
         <v>486</v>
       </c>
       <c r="AD17" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18">
@@ -31798,7 +32465,7 @@
         <v>106</v>
       </c>
       <c r="AD18" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19">
@@ -31818,7 +32485,7 @@
         <v>107</v>
       </c>
       <c r="AD19" t="s">
-        <v>236</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20">
@@ -31838,7 +32505,7 @@
         <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>237</v>
+        <v>519</v>
       </c>
     </row>
     <row r="21">
@@ -31858,7 +32525,7 @@
         <v>109</v>
       </c>
       <c r="AD21" t="s">
-        <v>238</v>
+        <v>523</v>
       </c>
     </row>
     <row r="22">
@@ -31877,6 +32544,9 @@
       <c r="Y22" t="s">
         <v>507</v>
       </c>
+      <c r="AD22" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -31894,6 +32564,9 @@
       <c r="Y23" t="s">
         <v>111</v>
       </c>
+      <c r="AD23" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -31911,6 +32584,9 @@
       <c r="Y24" t="s">
         <v>112</v>
       </c>
+      <c r="AD24" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -31928,6 +32604,9 @@
       <c r="Y25" t="s">
         <v>113</v>
       </c>
+      <c r="AD25" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -31945,6 +32624,9 @@
       <c r="Y26" t="s">
         <v>114</v>
       </c>
+      <c r="AD26" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -31962,6 +32644,9 @@
       <c r="Y27" t="s">
         <v>115</v>
       </c>
+      <c r="AD27" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -32192,7 +32877,7 @@
         <v>369</v>
       </c>
       <c r="Y50" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
     </row>
     <row r="51">
@@ -32200,7 +32885,7 @@
         <v>303</v>
       </c>
       <c r="Y51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -32208,7 +32893,7 @@
         <v>357</v>
       </c>
       <c r="Y52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53">
@@ -32216,7 +32901,7 @@
         <v>332</v>
       </c>
       <c r="Y53" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54">
@@ -32224,7 +32909,7 @@
         <v>269</v>
       </c>
       <c r="Y54" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
@@ -32232,7 +32917,7 @@
         <v>293</v>
       </c>
       <c r="Y55" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56">
@@ -32240,7 +32925,7 @@
         <v>294</v>
       </c>
       <c r="Y56" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57">
@@ -32248,7 +32933,7 @@
         <v>295</v>
       </c>
       <c r="Y57" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="58">
@@ -32256,7 +32941,7 @@
         <v>304</v>
       </c>
       <c r="Y58" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="59">
@@ -32264,7 +32949,7 @@
         <v>313</v>
       </c>
       <c r="Y59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60">
@@ -32272,7 +32957,7 @@
         <v>338</v>
       </c>
       <c r="Y60" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61">
@@ -32280,7 +32965,7 @@
         <v>310</v>
       </c>
       <c r="Y61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62">
@@ -32288,7 +32973,7 @@
         <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63">
@@ -32296,7 +32981,7 @@
         <v>370</v>
       </c>
       <c r="Y63" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="64">
@@ -32304,7 +32989,7 @@
         <v>371</v>
       </c>
       <c r="Y64" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="65">
@@ -32312,7 +32997,7 @@
         <v>346</v>
       </c>
       <c r="Y65" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="66">
@@ -32320,7 +33005,7 @@
         <v>314</v>
       </c>
       <c r="Y66" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="67">
@@ -32328,15 +33013,15 @@
         <v>270</v>
       </c>
       <c r="Y67" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>354</v>
+        <v>553</v>
       </c>
       <c r="Y68" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="69">
@@ -32344,7 +33029,7 @@
         <v>315</v>
       </c>
       <c r="Y69" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70">
@@ -32352,7 +33037,7 @@
         <v>411</v>
       </c>
       <c r="Y70" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="71">
@@ -32360,7 +33045,7 @@
         <v>305</v>
       </c>
       <c r="Y71" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72">
@@ -32368,7 +33053,7 @@
         <v>412</v>
       </c>
       <c r="Y72" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73">
@@ -32376,7 +33061,7 @@
         <v>263</v>
       </c>
       <c r="Y73" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="74">
@@ -32384,7 +33069,7 @@
         <v>533</v>
       </c>
       <c r="Y74" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="75">
@@ -32392,7 +33077,7 @@
         <v>345</v>
       </c>
       <c r="Y75" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="76">
@@ -32400,7 +33085,7 @@
         <v>281</v>
       </c>
       <c r="Y76" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="77">
@@ -32408,7 +33093,7 @@
         <v>287</v>
       </c>
       <c r="Y77" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78">
@@ -32416,7 +33101,7 @@
         <v>292</v>
       </c>
       <c r="Y78" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="79">
@@ -32424,7 +33109,7 @@
         <v>435</v>
       </c>
       <c r="Y79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80">
@@ -32432,7 +33117,7 @@
         <v>333</v>
       </c>
       <c r="Y80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="81">
@@ -32440,7 +33125,7 @@
         <v>271</v>
       </c>
       <c r="Y81" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82">
@@ -32448,7 +33133,7 @@
         <v>282</v>
       </c>
       <c r="Y82" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="83">
@@ -32456,7 +33141,7 @@
         <v>288</v>
       </c>
       <c r="Y83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="84">
@@ -32464,256 +33149,264 @@
         <v>277</v>
       </c>
       <c r="Y84" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>272</v>
+        <v>554</v>
       </c>
       <c r="Y85" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y86" t="s">
-        <v>201</v>
+        <v>509</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y87" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y88" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y89" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y90" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y91" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y92" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y93" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="96">
       <c r="Y96" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97">
       <c r="Y97" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -42,17 +42,18 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24577" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25128" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1760,13 +1761,22 @@
   <si>
     <t>storeSoapFaultString(var,xml)</t>
   </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="787" x14ac:knownFonts="1">
+  <fonts count="803" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6725,8 +6735,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1372">
+  <fills count="1399">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14497,8 +14608,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1407">
+  <borders count="1439">
     <border>
       <left/>
       <right/>
@@ -28176,6 +28440,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -28687,7 +29277,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="814">
+  <cellXfs count="830">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31100,52 +31690,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1344" fontId="770" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="771" fillId="1347" borderId="1382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1382" fillId="1347" fontId="771" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="772" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="772" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="773" fillId="1350" borderId="1386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1386" fillId="1350" fontId="773" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="774" fillId="1353" borderId="1390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1390" fillId="1353" fontId="774" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="775" fillId="1356" borderId="1394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1394" fillId="1356" fontId="775" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="776" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="776" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="777" fillId="1359" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1359" fontId="777" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="778" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="778" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="779" fillId="1362" borderId="1398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1398" fillId="1362" fontId="779" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="780" fillId="1353" borderId="1402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1402" fillId="1353" fontId="780" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="781" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1365" fontId="781" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="782" fillId="1365" borderId="1406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1406" fillId="1365" fontId="782" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="783" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="783" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="784" fillId="1368" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1368" fontId="784" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="785" fillId="1356" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1356" fontId="785" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="786" fillId="1371" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="786" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="1374" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="1377" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="790" fillId="1380" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="1383" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="793" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="795" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="796" fillId="1380" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="797" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="799" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="800" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="801" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="802" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -31500,7 +32138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -31585,21 +32223,24 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
+        <v>564</v>
+      </c>
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>432</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -31677,21 +32318,24 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
+        <v>566</v>
+      </c>
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -31762,22 +32406,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -31845,22 +32489,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>452</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -31919,22 +32563,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>356</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>453</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -31987,22 +32631,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>454</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -32049,22 +32693,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>455</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -32105,22 +32749,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>456</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
@@ -32161,13 +32805,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -32202,13 +32846,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -32240,13 +32884,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -32278,13 +32922,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -32313,13 +32957,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -32348,13 +32992,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>516</v>
       </c>
     </row>
@@ -32380,13 +33024,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>517</v>
       </c>
     </row>
@@ -32412,13 +33056,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -32438,13 +33082,13 @@
       <c r="M17" t="s">
         <v>43</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>526</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -32461,10 +33105,10 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>500</v>
       </c>
     </row>
@@ -32481,10 +33125,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -32501,10 +33145,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>519</v>
       </c>
     </row>
@@ -32521,10 +33165,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -32533,7 +33177,7 @@
         <v>431</v>
       </c>
       <c r="E22" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="G22" t="s">
         <v>300</v>
@@ -32541,10 +33185,10 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -32553,7 +33197,7 @@
         <v>358</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="G23" t="s">
         <v>291</v>
@@ -32561,10 +33205,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -32573,7 +33217,7 @@
         <v>398</v>
       </c>
       <c r="E24" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="G24" t="s">
         <v>280</v>
@@ -32581,19 +33225,19 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>112</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>564</v>
       </c>
       <c r="E25" t="s">
-        <v>470</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
         <v>77</v>
@@ -32601,19 +33245,19 @@
       <c r="K25" t="s">
         <v>548</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>113</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="G26" t="s">
         <v>283</v>
@@ -32621,19 +33265,19 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>114</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
         <v>267</v>
@@ -32641,19 +33285,19 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>115</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="G28" t="s">
         <v>284</v>
@@ -32661,16 +33305,16 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G29" t="s">
         <v>285</v>
@@ -32678,117 +33322,123 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="E30" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>72</v>
+      </c>
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>552</v>
       </c>
     </row>
@@ -32796,7 +33446,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -32804,7 +33454,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Y41" t="s">
+      <c r="Z41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -32812,7 +33462,7 @@
       <c r="G42" t="s">
         <v>290</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -32820,7 +33470,7 @@
       <c r="G43" t="s">
         <v>301</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -32828,7 +33478,7 @@
       <c r="G44" t="s">
         <v>302</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -32836,7 +33486,7 @@
       <c r="G45" t="s">
         <v>344</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -32844,7 +33494,7 @@
       <c r="G46" t="s">
         <v>343</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -32852,7 +33502,7 @@
       <c r="G47" t="s">
         <v>212</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -32860,7 +33510,7 @@
       <c r="G48" t="s">
         <v>321</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -32868,7 +33518,7 @@
       <c r="G49" t="s">
         <v>340</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -32876,7 +33526,7 @@
       <c r="G50" t="s">
         <v>369</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>557</v>
       </c>
     </row>
@@ -32884,7 +33534,7 @@
       <c r="G51" t="s">
         <v>303</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -32892,7 +33542,7 @@
       <c r="G52" t="s">
         <v>357</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -32900,7 +33550,7 @@
       <c r="G53" t="s">
         <v>332</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -32908,7 +33558,7 @@
       <c r="G54" t="s">
         <v>269</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>508</v>
       </c>
     </row>
@@ -32916,7 +33566,7 @@
       <c r="G55" t="s">
         <v>293</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>488</v>
       </c>
     </row>
@@ -32924,7 +33574,7 @@
       <c r="G56" t="s">
         <v>294</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -32932,7 +33582,7 @@
       <c r="G57" t="s">
         <v>295</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -32940,7 +33590,7 @@
       <c r="G58" t="s">
         <v>304</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>481</v>
       </c>
     </row>
@@ -32948,7 +33598,7 @@
       <c r="G59" t="s">
         <v>313</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -32956,7 +33606,7 @@
       <c r="G60" t="s">
         <v>338</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -32964,7 +33614,7 @@
       <c r="G61" t="s">
         <v>310</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -32972,7 +33622,7 @@
       <c r="G62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -32980,7 +33630,7 @@
       <c r="G63" t="s">
         <v>370</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -32988,7 +33638,7 @@
       <c r="G64" t="s">
         <v>371</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -32996,7 +33646,7 @@
       <c r="G65" t="s">
         <v>346</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -33004,7 +33654,7 @@
       <c r="G66" t="s">
         <v>314</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -33012,7 +33662,7 @@
       <c r="G67" t="s">
         <v>270</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>498</v>
       </c>
     </row>
@@ -33020,7 +33670,7 @@
       <c r="G68" t="s">
         <v>553</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -33028,7 +33678,7 @@
       <c r="G69" t="s">
         <v>315</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -33036,7 +33686,7 @@
       <c r="G70" t="s">
         <v>411</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -33044,7 +33694,7 @@
       <c r="G71" t="s">
         <v>305</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -33052,7 +33702,7 @@
       <c r="G72" t="s">
         <v>412</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -33060,7 +33710,7 @@
       <c r="G73" t="s">
         <v>263</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -33068,7 +33718,7 @@
       <c r="G74" t="s">
         <v>533</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -33076,7 +33726,7 @@
       <c r="G75" t="s">
         <v>345</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -33084,7 +33734,7 @@
       <c r="G76" t="s">
         <v>281</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -33092,7 +33742,7 @@
       <c r="G77" t="s">
         <v>287</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>476</v>
       </c>
     </row>
@@ -33100,7 +33750,7 @@
       <c r="G78" t="s">
         <v>292</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>492</v>
       </c>
     </row>
@@ -33108,7 +33758,7 @@
       <c r="G79" t="s">
         <v>435</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -33116,7 +33766,7 @@
       <c r="G80" t="s">
         <v>333</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -33124,7 +33774,7 @@
       <c r="G81" t="s">
         <v>271</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -33132,7 +33782,7 @@
       <c r="G82" t="s">
         <v>282</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>520</v>
       </c>
     </row>
@@ -33140,7 +33790,7 @@
       <c r="G83" t="s">
         <v>288</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -33148,7 +33798,7 @@
       <c r="G84" t="s">
         <v>277</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -33156,7 +33806,7 @@
       <c r="G85" t="s">
         <v>554</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -33164,7 +33814,7 @@
       <c r="G86" t="s">
         <v>272</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>509</v>
       </c>
     </row>
@@ -33172,7 +33822,7 @@
       <c r="G87" t="s">
         <v>289</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -33180,7 +33830,7 @@
       <c r="G88" t="s">
         <v>273</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>475</v>
       </c>
     </row>
@@ -33188,7 +33838,7 @@
       <c r="G89" t="s">
         <v>274</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -33196,7 +33846,7 @@
       <c r="G90" t="s">
         <v>306</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -33204,7 +33854,7 @@
       <c r="G91" t="s">
         <v>312</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -33212,7 +33862,7 @@
       <c r="G92" t="s">
         <v>296</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -33220,7 +33870,7 @@
       <c r="G93" t="s">
         <v>341</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -33228,7 +33878,7 @@
       <c r="G94" t="s">
         <v>278</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -33236,177 +33886,177 @@
       <c r="G95" t="s">
         <v>279</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Y108" t="s">
+      <c r="Z108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Y109" t="s">
+      <c r="Z109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Y110" t="s">
+      <c r="Z110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Y111" t="s">
+      <c r="Z111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Y112" t="s">
+      <c r="Z112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Y113" t="s">
+      <c r="Z113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Y114" t="s">
+      <c r="Z114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Y115" t="s">
+      <c r="Z115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Y116" t="s">
+      <c r="Z116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Y117" t="s">
+      <c r="Z117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Y118" t="s">
+      <c r="Z118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Y119" t="s">
+      <c r="Z119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Y120" t="s">
+      <c r="Z120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Y121" t="s">
+      <c r="Z121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Y122" t="s">
+      <c r="Z122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Y123" t="s">
+      <c r="Z123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Y124" t="s">
+      <c r="Z124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Y125" t="s">
+      <c r="Z125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Y126" t="s">
+      <c r="Z126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Y127" t="s">
+      <c r="Z127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Y128" t="s">
+      <c r="Z128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Y129" t="s">
+      <c r="Z129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$95</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25128" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25681" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1770,13 +1770,19 @@
   <si>
     <t>spellCheck(var,profile,text)</t>
   </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="803" x14ac:knownFonts="1">
+  <fonts count="819" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6836,8 +6842,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1399">
+  <fills count="1426">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -14761,8 +14868,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1439">
+  <borders count="1471">
     <border>
       <left/>
       <right/>
@@ -28440,6 +28700,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29277,7 +29863,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="830">
+  <cellXfs count="846">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -31738,52 +32324,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1371" fontId="786" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="787" fillId="1374" borderId="1414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1414" fillId="1374" fontId="787" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="788" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="788" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="789" fillId="1377" borderId="1418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1418" fillId="1377" fontId="789" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="790" fillId="1380" borderId="1422" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1422" fillId="1380" fontId="790" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="791" fillId="1383" borderId="1426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1426" fillId="1383" fontId="791" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="792" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="792" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="793" fillId="1386" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1386" fontId="793" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="794" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="794" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="795" fillId="1389" borderId="1430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1430" fillId="1389" fontId="795" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="796" fillId="1380" borderId="1434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1434" fillId="1380" fontId="796" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="797" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1392" fontId="797" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="798" fillId="1392" borderId="1438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1438" fillId="1392" fontId="798" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="799" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="799" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="800" fillId="1395" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1395" fontId="800" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="801" fillId="1383" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1383" fontId="801" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="802" fillId="1398" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="802" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="803" fillId="1401" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="805" fillId="1404" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="806" fillId="1407" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="807" fillId="1410" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="809" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="811" fillId="1416" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="813" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="815" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="816" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="817" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="818" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33460,7 +34094,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="Z42" t="s">
         <v>124</v>
@@ -33468,7 +34102,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Z43" t="s">
         <v>125</v>
@@ -33476,7 +34110,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Z44" t="s">
         <v>126</v>
@@ -33484,7 +34118,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Z45" t="s">
         <v>127</v>
@@ -33492,7 +34126,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Z46" t="s">
         <v>128</v>
@@ -33500,7 +34134,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Z47" t="s">
         <v>462</v>
@@ -33508,7 +34142,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Z48" t="s">
         <v>214</v>
@@ -33516,7 +34150,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Z49" t="s">
         <v>78</v>
@@ -33524,7 +34158,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Z50" t="s">
         <v>557</v>
@@ -33532,7 +34166,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Z51" t="s">
         <v>129</v>
@@ -33540,7 +34174,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Z52" t="s">
         <v>130</v>
@@ -33548,7 +34182,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Z53" t="s">
         <v>131</v>
@@ -33556,7 +34190,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Z54" t="s">
         <v>508</v>
@@ -33564,7 +34198,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Z55" t="s">
         <v>488</v>
@@ -33572,7 +34206,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Z56" t="s">
         <v>132</v>
@@ -33580,7 +34214,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Z57" t="s">
         <v>347</v>
@@ -33588,7 +34222,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>304</v>
+        <v>568</v>
       </c>
       <c r="Z58" t="s">
         <v>481</v>
@@ -33596,7 +34230,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="Z59" t="s">
         <v>133</v>
@@ -33604,7 +34238,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="Z60" t="s">
         <v>134</v>
@@ -33612,7 +34246,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z61" t="s">
         <v>135</v>
@@ -33620,7 +34254,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="Z62" t="s">
         <v>136</v>
@@ -33628,7 +34262,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>370</v>
+        <v>310</v>
       </c>
       <c r="Z63" t="s">
         <v>137</v>
@@ -33636,7 +34270,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>371</v>
+        <v>311</v>
       </c>
       <c r="Z64" t="s">
         <v>138</v>
@@ -33644,7 +34278,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="Z65" t="s">
         <v>139</v>
@@ -33652,7 +34286,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>314</v>
+        <v>371</v>
       </c>
       <c r="Z66" t="s">
         <v>458</v>
@@ -33660,7 +34294,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>270</v>
+        <v>346</v>
       </c>
       <c r="Z67" t="s">
         <v>498</v>
@@ -33668,7 +34302,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>553</v>
+        <v>314</v>
       </c>
       <c r="Z68" t="s">
         <v>215</v>
@@ -33676,7 +34310,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>315</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s">
         <v>390</v>
@@ -33684,7 +34318,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>411</v>
+        <v>553</v>
       </c>
       <c r="Z70" t="s">
         <v>463</v>
@@ -33692,7 +34326,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="Z71" t="s">
         <v>140</v>
@@ -33700,7 +34334,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="Z72" t="s">
         <v>141</v>
@@ -33708,7 +34342,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="Z73" t="s">
         <v>142</v>
@@ -33716,7 +34350,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>533</v>
+        <v>412</v>
       </c>
       <c r="Z74" t="s">
         <v>143</v>
@@ -33724,7 +34358,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>345</v>
+        <v>263</v>
       </c>
       <c r="Z75" t="s">
         <v>198</v>
@@ -33732,7 +34366,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>281</v>
+        <v>533</v>
       </c>
       <c r="Z76" t="s">
         <v>199</v>
@@ -33740,7 +34374,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>287</v>
+        <v>345</v>
       </c>
       <c r="Z77" t="s">
         <v>476</v>
@@ -33748,7 +34382,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="Z78" t="s">
         <v>492</v>
@@ -33756,7 +34390,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>435</v>
+        <v>287</v>
       </c>
       <c r="Z79" t="s">
         <v>144</v>
@@ -33764,7 +34398,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>333</v>
+        <v>292</v>
       </c>
       <c r="Z80" t="s">
         <v>145</v>
@@ -33772,7 +34406,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>271</v>
+        <v>435</v>
       </c>
       <c r="Z81" t="s">
         <v>146</v>
@@ -33780,7 +34414,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="Z82" t="s">
         <v>520</v>
@@ -33788,7 +34422,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="Z83" t="s">
         <v>147</v>
@@ -33796,7 +34430,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Z84" t="s">
         <v>148</v>
@@ -33804,7 +34438,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>554</v>
+        <v>288</v>
       </c>
       <c r="Z85" t="s">
         <v>200</v>
@@ -33812,7 +34446,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Z86" t="s">
         <v>509</v>
@@ -33820,7 +34454,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>289</v>
+        <v>554</v>
       </c>
       <c r="Z87" t="s">
         <v>201</v>
@@ -33828,7 +34462,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Z88" t="s">
         <v>475</v>
@@ -33836,7 +34470,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="Z89" t="s">
         <v>202</v>
@@ -33844,7 +34478,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="Z90" t="s">
         <v>203</v>
@@ -33852,7 +34486,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="Z91" t="s">
         <v>216</v>
@@ -33860,7 +34494,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Z92" t="s">
         <v>149</v>
@@ -33868,7 +34502,7 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>341</v>
+        <v>312</v>
       </c>
       <c r="Z93" t="s">
         <v>204</v>
@@ -33876,7 +34510,7 @@
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="Z94" t="s">
         <v>449</v>
@@ -33884,18 +34518,24 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>279</v>
+        <v>341</v>
       </c>
       <c r="Z95" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="96">
+      <c r="G96" t="s">
+        <v>278</v>
+      </c>
       <c r="Z96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
+      <c r="G97" t="s">
+        <v>279</v>
+      </c>
       <c r="Z97" t="s">
         <v>206</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -29,7 +29,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
@@ -42,13 +42,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25681" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26232" uniqueCount="570">
   <si>
     <t>description</t>
   </si>
@@ -1776,13 +1776,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="819" x14ac:knownFonts="1">
+  <fonts count="835" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6943,8 +6946,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1426">
+  <fills count="1453">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15021,8 +15125,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1471">
+  <borders count="1503">
     <border>
       <left/>
       <right/>
@@ -28700,6 +28957,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -29863,7 +30446,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="846">
+  <cellXfs count="862">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -32372,52 +32955,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1398" fontId="802" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="803" fillId="1401" borderId="1446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1446" fillId="1401" fontId="803" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="804" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="804" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="805" fillId="1404" borderId="1450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1450" fillId="1404" fontId="805" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="806" fillId="1407" borderId="1454" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1454" fillId="1407" fontId="806" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="807" fillId="1410" borderId="1458" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1458" fillId="1410" fontId="807" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="808" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="808" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="809" fillId="1413" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1413" fontId="809" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="810" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="810" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="811" fillId="1416" borderId="1462" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1462" fillId="1416" fontId="811" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="812" fillId="1407" borderId="1466" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1466" fillId="1407" fontId="812" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="813" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1419" fontId="813" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="814" fillId="1419" borderId="1470" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1470" fillId="1419" fontId="814" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="815" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="815" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="816" fillId="1422" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1422" fontId="816" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="817" fillId="1410" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1410" fontId="817" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="818" fillId="1425" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="818" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="819" fillId="1428" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="821" fillId="1431" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="822" fillId="1434" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="823" fillId="1437" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="825" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="827" fillId="1443" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="829" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="830" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="831" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="832" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="833" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="834" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -32772,7 +33403,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -32857,24 +33488,21 @@
         <v>398</v>
       </c>
       <c r="Y1" t="s">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="Z1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AA1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AB1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AC1" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="AD1" t="s">
-        <v>432</v>
-      </c>
-      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -32952,24 +33580,21 @@
         <v>408</v>
       </c>
       <c r="Y2" t="s">
-        <v>566</v>
+        <v>98</v>
       </c>
       <c r="Z2" t="s">
-        <v>98</v>
+        <v>172</v>
       </c>
       <c r="AA2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AC2" t="s">
-        <v>184</v>
+        <v>451</v>
       </c>
       <c r="AD2" t="s">
-        <v>451</v>
-      </c>
-      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -33040,22 +33665,22 @@
       <c r="X3" t="s">
         <v>409</v>
       </c>
+      <c r="Y3" t="s">
+        <v>99</v>
+      </c>
       <c r="Z3" t="s">
-        <v>99</v>
+        <v>173</v>
       </c>
       <c r="AA3" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB3" t="s">
-        <v>178</v>
+        <v>365</v>
       </c>
       <c r="AC3" t="s">
-        <v>365</v>
+        <v>185</v>
       </c>
       <c r="AD3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -33123,22 +33748,22 @@
       <c r="X4" t="s">
         <v>410</v>
       </c>
+      <c r="Y4" t="s">
+        <v>355</v>
+      </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>174</v>
       </c>
       <c r="AA4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="AB4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC4" t="s">
-        <v>185</v>
+        <v>452</v>
       </c>
       <c r="AD4" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -33197,22 +33822,22 @@
       <c r="W5" t="s">
         <v>360</v>
       </c>
+      <c r="Y5" t="s">
+        <v>356</v>
+      </c>
       <c r="Z5" t="s">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AA5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC5" t="s">
-        <v>186</v>
+        <v>453</v>
       </c>
       <c r="AD5" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -33265,22 +33890,22 @@
       <c r="W6" t="s">
         <v>362</v>
       </c>
+      <c r="Y6" t="s">
+        <v>100</v>
+      </c>
       <c r="Z6" t="s">
-        <v>100</v>
+        <v>465</v>
       </c>
       <c r="AA6" t="s">
-        <v>465</v>
+        <v>181</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC6" t="s">
-        <v>187</v>
+        <v>454</v>
       </c>
       <c r="AD6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -33327,22 +33952,22 @@
       <c r="W7" t="s">
         <v>361</v>
       </c>
+      <c r="Y7" t="s">
+        <v>101</v>
+      </c>
       <c r="Z7" t="s">
-        <v>101</v>
+        <v>466</v>
       </c>
       <c r="AA7" t="s">
-        <v>466</v>
+        <v>182</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AC7" t="s">
-        <v>188</v>
+        <v>455</v>
       </c>
       <c r="AD7" t="s">
-        <v>455</v>
-      </c>
-      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -33383,22 +34008,22 @@
       <c r="W8" t="s">
         <v>363</v>
       </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
       <c r="Z8" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="AA8" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AC8" t="s">
-        <v>189</v>
+        <v>456</v>
       </c>
       <c r="AD8" t="s">
-        <v>456</v>
-      </c>
-      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
@@ -33439,13 +34064,13 @@
       <c r="W9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>210</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -33480,13 +34105,13 @@
       <c r="T10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -33518,13 +34143,13 @@
       <c r="R11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -33556,13 +34181,13 @@
       <c r="R12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -33591,13 +34216,13 @@
       <c r="R13" t="s">
         <v>255</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -33626,13 +34251,13 @@
       <c r="R14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>516</v>
       </c>
     </row>
@@ -33658,13 +34283,13 @@
       <c r="R15" t="s">
         <v>252</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>105</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>517</v>
       </c>
     </row>
@@ -33682,7 +34307,7 @@
         <v>82</v>
       </c>
       <c r="M16" t="s">
-        <v>40</v>
+        <v>569</v>
       </c>
       <c r="Q16" t="s">
         <v>525</v>
@@ -33690,13 +34315,13 @@
       <c r="R16" t="s">
         <v>253</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>76</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -33714,15 +34339,15 @@
         <v>83</v>
       </c>
       <c r="M17" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y17" t="s">
         <v>526</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>486</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -33739,10 +34364,13 @@
       <c r="K18" t="s">
         <v>478</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" t="s">
         <v>106</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>500</v>
       </c>
     </row>
@@ -33759,10 +34387,10 @@
       <c r="K19" t="s">
         <v>84</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>107</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -33779,10 +34407,10 @@
       <c r="K20" t="s">
         <v>85</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>108</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>519</v>
       </c>
     </row>
@@ -33799,10 +34427,10 @@
       <c r="K21" t="s">
         <v>381</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>109</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -33819,10 +34447,10 @@
       <c r="K22" t="s">
         <v>495</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>507</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -33839,10 +34467,10 @@
       <c r="K23" t="s">
         <v>44</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>111</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -33859,16 +34487,16 @@
       <c r="K24" t="s">
         <v>393</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>112</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>564</v>
+        <v>55</v>
       </c>
       <c r="E25" t="s">
         <v>64</v>
@@ -33879,16 +34507,16 @@
       <c r="K25" t="s">
         <v>548</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>113</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E26" t="s">
         <v>470</v>
@@ -33899,16 +34527,16 @@
       <c r="K26" t="s">
         <v>86</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>114</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" t="s">
         <v>226</v>
@@ -33919,16 +34547,16 @@
       <c r="K27" t="s">
         <v>460</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>115</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>227</v>
@@ -33939,13 +34567,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>432</v>
       </c>
       <c r="E29" t="s">
         <v>493</v>
@@ -33956,13 +34584,13 @@
       <c r="K29" t="s">
         <v>46</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>228</v>
       </c>
       <c r="E30" t="s">
         <v>494</v>
@@ -33970,21 +34598,18 @@
       <c r="G30" t="s">
         <v>217</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>228</v>
-      </c>
       <c r="E31" t="s">
         <v>434</v>
       </c>
       <c r="G31" t="s">
         <v>276</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>118</v>
       </c>
     </row>
@@ -33995,7 +34620,7 @@
       <c r="G32" t="s">
         <v>286</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>119</v>
       </c>
     </row>
@@ -34006,7 +34631,7 @@
       <c r="G33" t="s">
         <v>532</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>120</v>
       </c>
     </row>
@@ -34017,7 +34642,7 @@
       <c r="G34" t="s">
         <v>261</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -34028,7 +34653,7 @@
       <c r="G35" t="s">
         <v>331</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>211</v>
       </c>
     </row>
@@ -34039,7 +34664,7 @@
       <c r="G36" t="s">
         <v>308</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -34050,7 +34675,7 @@
       <c r="G37" t="s">
         <v>262</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>339</v>
       </c>
     </row>
@@ -34061,7 +34686,7 @@
       <c r="G38" t="s">
         <v>309</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>447</v>
       </c>
     </row>
@@ -34072,7 +34697,7 @@
       <c r="G39" t="s">
         <v>268</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>552</v>
       </c>
     </row>
@@ -34080,7 +34705,7 @@
       <c r="G40" t="s">
         <v>79</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>394</v>
       </c>
     </row>
@@ -34088,7 +34713,7 @@
       <c r="G41" t="s">
         <v>213</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>123</v>
       </c>
     </row>
@@ -34096,7 +34721,7 @@
       <c r="G42" t="s">
         <v>567</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>124</v>
       </c>
     </row>
@@ -34104,7 +34729,7 @@
       <c r="G43" t="s">
         <v>290</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>125</v>
       </c>
     </row>
@@ -34112,7 +34737,7 @@
       <c r="G44" t="s">
         <v>301</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>126</v>
       </c>
     </row>
@@ -34120,7 +34745,7 @@
       <c r="G45" t="s">
         <v>302</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>127</v>
       </c>
     </row>
@@ -34128,7 +34753,7 @@
       <c r="G46" t="s">
         <v>344</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>128</v>
       </c>
     </row>
@@ -34136,7 +34761,7 @@
       <c r="G47" t="s">
         <v>343</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>462</v>
       </c>
     </row>
@@ -34144,7 +34769,7 @@
       <c r="G48" t="s">
         <v>212</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>214</v>
       </c>
     </row>
@@ -34152,7 +34777,7 @@
       <c r="G49" t="s">
         <v>321</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>78</v>
       </c>
     </row>
@@ -34160,7 +34785,7 @@
       <c r="G50" t="s">
         <v>340</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>557</v>
       </c>
     </row>
@@ -34168,7 +34793,7 @@
       <c r="G51" t="s">
         <v>369</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -34176,7 +34801,7 @@
       <c r="G52" t="s">
         <v>303</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>130</v>
       </c>
     </row>
@@ -34184,7 +34809,7 @@
       <c r="G53" t="s">
         <v>357</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>131</v>
       </c>
     </row>
@@ -34192,7 +34817,7 @@
       <c r="G54" t="s">
         <v>332</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>508</v>
       </c>
     </row>
@@ -34200,7 +34825,7 @@
       <c r="G55" t="s">
         <v>269</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>488</v>
       </c>
     </row>
@@ -34208,7 +34833,7 @@
       <c r="G56" t="s">
         <v>293</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>132</v>
       </c>
     </row>
@@ -34216,7 +34841,7 @@
       <c r="G57" t="s">
         <v>294</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>347</v>
       </c>
     </row>
@@ -34224,7 +34849,7 @@
       <c r="G58" t="s">
         <v>568</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>481</v>
       </c>
     </row>
@@ -34232,7 +34857,7 @@
       <c r="G59" t="s">
         <v>295</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -34240,7 +34865,7 @@
       <c r="G60" t="s">
         <v>304</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -34248,7 +34873,7 @@
       <c r="G61" t="s">
         <v>313</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -34256,7 +34881,7 @@
       <c r="G62" t="s">
         <v>338</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -34264,7 +34889,7 @@
       <c r="G63" t="s">
         <v>310</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -34272,7 +34897,7 @@
       <c r="G64" t="s">
         <v>311</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>138</v>
       </c>
     </row>
@@ -34280,7 +34905,7 @@
       <c r="G65" t="s">
         <v>370</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>139</v>
       </c>
     </row>
@@ -34288,7 +34913,7 @@
       <c r="G66" t="s">
         <v>371</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>458</v>
       </c>
     </row>
@@ -34296,7 +34921,7 @@
       <c r="G67" t="s">
         <v>346</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>498</v>
       </c>
     </row>
@@ -34304,7 +34929,7 @@
       <c r="G68" t="s">
         <v>314</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>215</v>
       </c>
     </row>
@@ -34312,7 +34937,7 @@
       <c r="G69" t="s">
         <v>270</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>390</v>
       </c>
     </row>
@@ -34320,7 +34945,7 @@
       <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>463</v>
       </c>
     </row>
@@ -34328,7 +34953,7 @@
       <c r="G71" t="s">
         <v>315</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -34336,7 +34961,7 @@
       <c r="G72" t="s">
         <v>411</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -34344,7 +34969,7 @@
       <c r="G73" t="s">
         <v>305</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>142</v>
       </c>
     </row>
@@ -34352,7 +34977,7 @@
       <c r="G74" t="s">
         <v>412</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>143</v>
       </c>
     </row>
@@ -34360,7 +34985,7 @@
       <c r="G75" t="s">
         <v>263</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>198</v>
       </c>
     </row>
@@ -34368,7 +34993,7 @@
       <c r="G76" t="s">
         <v>533</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>199</v>
       </c>
     </row>
@@ -34376,7 +35001,7 @@
       <c r="G77" t="s">
         <v>345</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>476</v>
       </c>
     </row>
@@ -34384,7 +35009,7 @@
       <c r="G78" t="s">
         <v>281</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>492</v>
       </c>
     </row>
@@ -34392,7 +35017,7 @@
       <c r="G79" t="s">
         <v>287</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -34400,7 +35025,7 @@
       <c r="G80" t="s">
         <v>292</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>145</v>
       </c>
     </row>
@@ -34408,7 +35033,7 @@
       <c r="G81" t="s">
         <v>435</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>146</v>
       </c>
     </row>
@@ -34416,7 +35041,7 @@
       <c r="G82" t="s">
         <v>333</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>520</v>
       </c>
     </row>
@@ -34424,7 +35049,7 @@
       <c r="G83" t="s">
         <v>271</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>147</v>
       </c>
     </row>
@@ -34432,7 +35057,7 @@
       <c r="G84" t="s">
         <v>282</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>148</v>
       </c>
     </row>
@@ -34440,7 +35065,7 @@
       <c r="G85" t="s">
         <v>288</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>200</v>
       </c>
     </row>
@@ -34448,7 +35073,7 @@
       <c r="G86" t="s">
         <v>277</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>509</v>
       </c>
     </row>
@@ -34456,7 +35081,7 @@
       <c r="G87" t="s">
         <v>554</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>201</v>
       </c>
     </row>
@@ -34464,7 +35089,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>475</v>
       </c>
     </row>
@@ -34472,7 +35097,7 @@
       <c r="G89" t="s">
         <v>289</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>202</v>
       </c>
     </row>
@@ -34480,7 +35105,7 @@
       <c r="G90" t="s">
         <v>273</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>203</v>
       </c>
     </row>
@@ -34488,7 +35113,7 @@
       <c r="G91" t="s">
         <v>274</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>216</v>
       </c>
     </row>
@@ -34496,7 +35121,7 @@
       <c r="G92" t="s">
         <v>306</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>149</v>
       </c>
     </row>
@@ -34504,7 +35129,7 @@
       <c r="G93" t="s">
         <v>312</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>204</v>
       </c>
     </row>
@@ -34512,7 +35137,7 @@
       <c r="G94" t="s">
         <v>296</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>449</v>
       </c>
     </row>
@@ -34520,7 +35145,7 @@
       <c r="G95" t="s">
         <v>341</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>457</v>
       </c>
     </row>
@@ -34528,7 +35153,7 @@
       <c r="G96" t="s">
         <v>278</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
@@ -34536,167 +35161,167 @@
       <c r="G97" t="s">
         <v>279</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26232" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29003" uniqueCount="574">
   <si>
     <t>description</t>
   </si>
@@ -1779,13 +1779,25 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>saveISTDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="835" x14ac:knownFonts="1">
+  <fonts count="915" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7047,8 +7059,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1453">
+  <fills count="1588">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -15278,8 +15795,773 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1503">
+  <borders count="1663">
     <border>
       <left/>
       <right/>
@@ -28957,6 +30239,1636 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -30446,7 +33358,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="862">
+  <cellXfs count="942">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -33003,52 +35915,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1425" fontId="818" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="819" fillId="1428" borderId="1478" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1478" fillId="1428" fontId="819" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="820" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="820" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="821" fillId="1431" borderId="1482" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1482" fillId="1431" fontId="821" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="822" fillId="1434" borderId="1486" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1486" fillId="1434" fontId="822" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="823" fillId="1437" borderId="1490" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1490" fillId="1437" fontId="823" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="824" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="824" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="825" fillId="1440" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1440" fontId="825" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="826" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="826" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="827" fillId="1443" borderId="1494" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1494" fillId="1443" fontId="827" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="828" fillId="1434" borderId="1498" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1498" fillId="1434" fontId="828" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="829" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1446" fontId="829" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="830" fillId="1446" borderId="1502" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1502" fillId="1446" fontId="830" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="831" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="831" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="832" fillId="1449" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1449" fontId="832" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="833" fillId="1437" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1437" fontId="833" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="834" fillId="1452" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1452" fontId="834" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1510" fillId="1455" fontId="835" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="836" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1514" fillId="1458" fontId="837" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1518" fillId="1461" fontId="838" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1522" fillId="1464" fontId="839" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="840" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1467" fontId="841" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="842" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1526" fillId="1470" fontId="843" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1530" fillId="1461" fontId="844" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1473" fontId="845" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1534" fillId="1473" fontId="846" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="847" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1476" fontId="848" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1464" fontId="849" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1479" fontId="850" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1542" fillId="1482" fontId="851" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="852" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1546" fillId="1485" fontId="853" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1550" fillId="1488" fontId="854" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1554" fillId="1491" fontId="855" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="856" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1494" fontId="857" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="858" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1558" fillId="1497" fontId="859" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1562" fillId="1488" fontId="860" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1500" fontId="861" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1566" fillId="1500" fontId="862" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="863" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1503" fontId="864" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1491" fontId="865" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1506" fontId="866" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1574" fillId="1509" fontId="867" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="868" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1578" fillId="1512" fontId="869" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1582" fillId="1515" fontId="870" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1586" fillId="1518" fontId="871" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="872" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1521" fontId="873" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="874" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1590" fillId="1524" fontId="875" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1594" fillId="1515" fontId="876" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1527" fontId="877" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1598" fillId="1527" fontId="878" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="879" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1530" fontId="880" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1518" fontId="881" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1533" fontId="882" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1606" fillId="1536" fontId="883" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="884" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1610" fillId="1539" fontId="885" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1614" fillId="1542" fontId="886" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1618" fillId="1545" fontId="887" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="888" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1548" fontId="889" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="890" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1622" fillId="1551" fontId="891" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1626" fillId="1542" fontId="892" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1554" fontId="893" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1630" fillId="1554" fontId="894" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="895" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1557" fontId="896" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1545" fontId="897" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="898" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="901" fillId="1566" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="902" fillId="1569" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="905" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="907" fillId="1578" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="908" fillId="1569" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="909" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="911" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="912" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="913" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="914" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -33403,7 +36555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE133"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -34488,7 +37640,7 @@
         <v>393</v>
       </c>
       <c r="Y24" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="AD24" t="s">
         <v>562</v>
@@ -34508,7 +37660,7 @@
         <v>548</v>
       </c>
       <c r="Y25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD25" t="s">
         <v>563</v>
@@ -34528,7 +37680,7 @@
         <v>86</v>
       </c>
       <c r="Y26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD26" t="s">
         <v>237</v>
@@ -34548,7 +37700,7 @@
         <v>460</v>
       </c>
       <c r="Y27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD27" t="s">
         <v>238</v>
@@ -34568,7 +37720,7 @@
         <v>45</v>
       </c>
       <c r="Y28" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -34585,7 +37737,7 @@
         <v>46</v>
       </c>
       <c r="Y29" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
@@ -34599,7 +37751,7 @@
         <v>217</v>
       </c>
       <c r="Y30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31">
@@ -34610,7 +37762,7 @@
         <v>276</v>
       </c>
       <c r="Y31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -34621,7 +37773,7 @@
         <v>286</v>
       </c>
       <c r="Y32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -34632,7 +37784,7 @@
         <v>532</v>
       </c>
       <c r="Y33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34">
@@ -34643,7 +37795,7 @@
         <v>261</v>
       </c>
       <c r="Y34" t="s">
-        <v>121</v>
+        <v>571</v>
       </c>
     </row>
     <row r="35">
@@ -34654,7 +37806,7 @@
         <v>331</v>
       </c>
       <c r="Y35" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -34665,7 +37817,7 @@
         <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37">
@@ -34676,7 +37828,7 @@
         <v>262</v>
       </c>
       <c r="Y37" t="s">
-        <v>339</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
@@ -34687,7 +37839,7 @@
         <v>309</v>
       </c>
       <c r="Y38" t="s">
-        <v>447</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -34698,7 +37850,7 @@
         <v>268</v>
       </c>
       <c r="Y39" t="s">
-        <v>552</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40">
@@ -34706,7 +37858,7 @@
         <v>79</v>
       </c>
       <c r="Y40" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41">
@@ -34714,7 +37866,7 @@
         <v>213</v>
       </c>
       <c r="Y41" t="s">
-        <v>123</v>
+        <v>552</v>
       </c>
     </row>
     <row r="42">
@@ -34722,7 +37874,7 @@
         <v>567</v>
       </c>
       <c r="Y42" t="s">
-        <v>124</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43">
@@ -34730,7 +37882,7 @@
         <v>290</v>
       </c>
       <c r="Y43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44">
@@ -34738,7 +37890,7 @@
         <v>301</v>
       </c>
       <c r="Y44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45">
@@ -34746,7 +37898,7 @@
         <v>302</v>
       </c>
       <c r="Y45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46">
@@ -34754,7 +37906,7 @@
         <v>344</v>
       </c>
       <c r="Y46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47">
@@ -34762,7 +37914,7 @@
         <v>343</v>
       </c>
       <c r="Y47" t="s">
-        <v>462</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -34770,7 +37922,7 @@
         <v>212</v>
       </c>
       <c r="Y48" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49">
@@ -34778,7 +37930,7 @@
         <v>321</v>
       </c>
       <c r="Y49" t="s">
-        <v>78</v>
+        <v>462</v>
       </c>
     </row>
     <row r="50">
@@ -34786,7 +37938,7 @@
         <v>340</v>
       </c>
       <c r="Y50" t="s">
-        <v>557</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
@@ -34794,7 +37946,7 @@
         <v>369</v>
       </c>
       <c r="Y51" t="s">
-        <v>129</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52">
@@ -34802,7 +37954,7 @@
         <v>303</v>
       </c>
       <c r="Y52" t="s">
-        <v>130</v>
+        <v>557</v>
       </c>
     </row>
     <row r="53">
@@ -34810,7 +37962,7 @@
         <v>357</v>
       </c>
       <c r="Y53" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -34818,7 +37970,7 @@
         <v>332</v>
       </c>
       <c r="Y54" t="s">
-        <v>508</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55">
@@ -34826,7 +37978,7 @@
         <v>269</v>
       </c>
       <c r="Y55" t="s">
-        <v>488</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56">
@@ -34834,7 +37986,7 @@
         <v>293</v>
       </c>
       <c r="Y56" t="s">
-        <v>132</v>
+        <v>508</v>
       </c>
     </row>
     <row r="57">
@@ -34842,7 +37994,7 @@
         <v>294</v>
       </c>
       <c r="Y57" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58">
@@ -34850,7 +38002,7 @@
         <v>568</v>
       </c>
       <c r="Y58" t="s">
-        <v>481</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59">
@@ -34858,7 +38010,7 @@
         <v>295</v>
       </c>
       <c r="Y59" t="s">
-        <v>133</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60">
@@ -34866,7 +38018,7 @@
         <v>304</v>
       </c>
       <c r="Y60" t="s">
-        <v>134</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61">
@@ -34874,7 +38026,7 @@
         <v>313</v>
       </c>
       <c r="Y61" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62">
@@ -34882,7 +38034,7 @@
         <v>338</v>
       </c>
       <c r="Y62" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63">
@@ -34890,7 +38042,7 @@
         <v>310</v>
       </c>
       <c r="Y63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64">
@@ -34898,7 +38050,7 @@
         <v>311</v>
       </c>
       <c r="Y64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65">
@@ -34906,7 +38058,7 @@
         <v>370</v>
       </c>
       <c r="Y65" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66">
@@ -34914,7 +38066,7 @@
         <v>371</v>
       </c>
       <c r="Y66" t="s">
-        <v>458</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67">
@@ -34922,7 +38074,7 @@
         <v>346</v>
       </c>
       <c r="Y67" t="s">
-        <v>498</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68">
@@ -34930,7 +38082,7 @@
         <v>314</v>
       </c>
       <c r="Y68" t="s">
-        <v>215</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69">
@@ -34938,7 +38090,7 @@
         <v>270</v>
       </c>
       <c r="Y69" t="s">
-        <v>390</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70">
@@ -34946,7 +38098,7 @@
         <v>553</v>
       </c>
       <c r="Y70" t="s">
-        <v>463</v>
+        <v>215</v>
       </c>
     </row>
     <row r="71">
@@ -34954,7 +38106,7 @@
         <v>315</v>
       </c>
       <c r="Y71" t="s">
-        <v>140</v>
+        <v>390</v>
       </c>
     </row>
     <row r="72">
@@ -34962,7 +38114,7 @@
         <v>411</v>
       </c>
       <c r="Y72" t="s">
-        <v>141</v>
+        <v>463</v>
       </c>
     </row>
     <row r="73">
@@ -34970,7 +38122,7 @@
         <v>305</v>
       </c>
       <c r="Y73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
@@ -34978,7 +38130,7 @@
         <v>412</v>
       </c>
       <c r="Y74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75">
@@ -34986,7 +38138,7 @@
         <v>263</v>
       </c>
       <c r="Y75" t="s">
-        <v>198</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76">
@@ -34994,7 +38146,7 @@
         <v>533</v>
       </c>
       <c r="Y76" t="s">
-        <v>199</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77">
@@ -35002,7 +38154,7 @@
         <v>345</v>
       </c>
       <c r="Y77" t="s">
-        <v>476</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78">
@@ -35010,7 +38162,7 @@
         <v>281</v>
       </c>
       <c r="Y78" t="s">
-        <v>492</v>
+        <v>199</v>
       </c>
     </row>
     <row r="79">
@@ -35018,7 +38170,7 @@
         <v>287</v>
       </c>
       <c r="Y79" t="s">
-        <v>144</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80">
@@ -35026,7 +38178,7 @@
         <v>292</v>
       </c>
       <c r="Y80" t="s">
-        <v>145</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81">
@@ -35034,7 +38186,7 @@
         <v>435</v>
       </c>
       <c r="Y81" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="82">
@@ -35042,7 +38194,7 @@
         <v>333</v>
       </c>
       <c r="Y82" t="s">
-        <v>520</v>
+        <v>145</v>
       </c>
     </row>
     <row r="83">
@@ -35050,7 +38202,7 @@
         <v>271</v>
       </c>
       <c r="Y83" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84">
@@ -35058,7 +38210,7 @@
         <v>282</v>
       </c>
       <c r="Y84" t="s">
-        <v>148</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85">
@@ -35066,7 +38218,7 @@
         <v>288</v>
       </c>
       <c r="Y85" t="s">
-        <v>200</v>
+        <v>147</v>
       </c>
     </row>
     <row r="86">
@@ -35074,7 +38226,7 @@
         <v>277</v>
       </c>
       <c r="Y86" t="s">
-        <v>509</v>
+        <v>148</v>
       </c>
     </row>
     <row r="87">
@@ -35082,7 +38234,7 @@
         <v>554</v>
       </c>
       <c r="Y87" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -35090,7 +38242,7 @@
         <v>272</v>
       </c>
       <c r="Y88" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89">
@@ -35098,7 +38250,7 @@
         <v>289</v>
       </c>
       <c r="Y89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90">
@@ -35106,7 +38258,7 @@
         <v>273</v>
       </c>
       <c r="Y90" t="s">
-        <v>203</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91">
@@ -35114,7 +38266,7 @@
         <v>274</v>
       </c>
       <c r="Y91" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="92">
@@ -35122,7 +38274,7 @@
         <v>306</v>
       </c>
       <c r="Y92" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
     </row>
     <row r="93">
@@ -35130,7 +38282,7 @@
         <v>312</v>
       </c>
       <c r="Y93" t="s">
-        <v>204</v>
+        <v>573</v>
       </c>
     </row>
     <row r="94">
@@ -35138,7 +38290,7 @@
         <v>296</v>
       </c>
       <c r="Y94" t="s">
-        <v>449</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95">
@@ -35146,7 +38298,7 @@
         <v>341</v>
       </c>
       <c r="Y95" t="s">
-        <v>457</v>
+        <v>149</v>
       </c>
     </row>
     <row r="96">
@@ -35154,7 +38306,7 @@
         <v>278</v>
       </c>
       <c r="Y96" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="97">
@@ -35162,166 +38314,186 @@
         <v>279</v>
       </c>
       <c r="Y97" t="s">
-        <v>206</v>
+        <v>449</v>
       </c>
     </row>
     <row r="98">
       <c r="Y98" t="s">
-        <v>207</v>
+        <v>457</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>531</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>534</v>
+        <v>224</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>384</v>
+        <v>534</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>152</v>
+        <v>535</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>153</v>
+        <v>384</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>464</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>166</v>
+        <v>464</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>47</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -23,7 +23,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29003" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29559" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1791,13 +1791,19 @@
   <si>
     <t>saveISTDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="915" x14ac:knownFonts="1">
+  <fonts count="931" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7564,8 +7570,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1588">
+  <fills count="1615">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16560,8 +16667,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1663">
+  <borders count="1695">
     <border>
       <left/>
       <right/>
@@ -30239,6 +30499,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33358,7 +33944,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="942">
+  <cellXfs count="958">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36155,52 +36741,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1560" fontId="898" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="899" fillId="1563" borderId="1638" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1638" fillId="1563" fontId="899" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="900" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="900" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="901" fillId="1566" borderId="1642" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1642" fillId="1566" fontId="901" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="902" fillId="1569" borderId="1646" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1646" fillId="1569" fontId="902" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="903" fillId="1572" borderId="1650" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1650" fillId="1572" fontId="903" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="904" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="904" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="905" fillId="1575" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1575" fontId="905" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="906" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="906" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="907" fillId="1578" borderId="1654" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1654" fillId="1578" fontId="907" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="908" fillId="1569" borderId="1658" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1658" fillId="1569" fontId="908" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="909" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1581" fontId="909" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="910" fillId="1581" borderId="1662" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1662" fillId="1581" fontId="910" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="911" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="911" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="912" fillId="1584" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1584" fontId="912" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="913" fillId="1572" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1572" fontId="913" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="914" fillId="1587" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="914" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="915" fillId="1590" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="917" fillId="1593" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="919" fillId="1599" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="921" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="924" fillId="1596" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="927" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="928" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="929" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="930" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -36936,7 +37570,7 @@
         <v>459</v>
       </c>
       <c r="G5" t="s">
-        <v>337</v>
+        <v>574</v>
       </c>
       <c r="H5" t="s">
         <v>477</v>
@@ -37010,7 +37644,7 @@
         <v>527</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
+        <v>337</v>
       </c>
       <c r="H6" t="s">
         <v>469</v>
@@ -37072,7 +37706,7 @@
         <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="H7" t="s">
         <v>468</v>
@@ -37134,7 +37768,7 @@
         <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H8" t="s">
         <v>329</v>
@@ -37190,7 +37824,7 @@
         <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>307</v>
+        <v>368</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
@@ -37234,7 +37868,7 @@
         <v>316</v>
       </c>
       <c r="G10" t="s">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="H10" t="s">
         <v>473</v>
@@ -37275,7 +37909,7 @@
         <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="H11" t="s">
         <v>323</v>
@@ -37313,7 +37947,7 @@
         <v>320</v>
       </c>
       <c r="G12" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="H12" t="s">
         <v>324</v>
@@ -37351,7 +37985,7 @@
         <v>342</v>
       </c>
       <c r="G13" t="s">
-        <v>317</v>
+        <v>264</v>
       </c>
       <c r="H13" t="s">
         <v>325</v>
@@ -37386,7 +38020,7 @@
         <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="H14" t="s">
         <v>326</v>
@@ -37421,7 +38055,7 @@
         <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K15" t="s">
         <v>530</v>
@@ -37453,7 +38087,7 @@
         <v>386</v>
       </c>
       <c r="G16" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
       <c r="K16" t="s">
         <v>82</v>
@@ -37485,7 +38119,7 @@
         <v>387</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="K17" t="s">
         <v>83</v>
@@ -37511,7 +38145,7 @@
         <v>433</v>
       </c>
       <c r="G18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
         <v>478</v>
@@ -37534,7 +38168,7 @@
         <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>297</v>
+        <v>91</v>
       </c>
       <c r="K19" t="s">
         <v>84</v>
@@ -37554,7 +38188,7 @@
         <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K20" t="s">
         <v>85</v>
@@ -37574,7 +38208,7 @@
         <v>257</v>
       </c>
       <c r="G21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K21" t="s">
         <v>381</v>
@@ -37594,7 +38228,7 @@
         <v>565</v>
       </c>
       <c r="G22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22" t="s">
         <v>495</v>
@@ -37614,7 +38248,7 @@
         <v>63</v>
       </c>
       <c r="G23" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -37634,7 +38268,7 @@
         <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="K24" t="s">
         <v>393</v>
@@ -37654,7 +38288,7 @@
         <v>64</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="K25" t="s">
         <v>548</v>
@@ -37674,7 +38308,7 @@
         <v>470</v>
       </c>
       <c r="G26" t="s">
-        <v>283</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s">
         <v>86</v>
@@ -37694,7 +38328,7 @@
         <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
         <v>460</v>
@@ -37714,7 +38348,7 @@
         <v>227</v>
       </c>
       <c r="G28" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s">
         <v>45</v>
@@ -37731,7 +38365,7 @@
         <v>493</v>
       </c>
       <c r="G29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K29" t="s">
         <v>46</v>
@@ -37748,7 +38382,7 @@
         <v>494</v>
       </c>
       <c r="G30" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="Y30" t="s">
         <v>116</v>
@@ -37759,7 +38393,7 @@
         <v>434</v>
       </c>
       <c r="G31" t="s">
-        <v>276</v>
+        <v>217</v>
       </c>
       <c r="Y31" t="s">
         <v>117</v>
@@ -37770,7 +38404,7 @@
         <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="Y32" t="s">
         <v>118</v>
@@ -37781,7 +38415,7 @@
         <v>66</v>
       </c>
       <c r="G33" t="s">
-        <v>532</v>
+        <v>286</v>
       </c>
       <c r="Y33" t="s">
         <v>119</v>
@@ -37792,7 +38426,7 @@
         <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>261</v>
+        <v>532</v>
       </c>
       <c r="Y34" t="s">
         <v>571</v>
@@ -37803,7 +38437,7 @@
         <v>68</v>
       </c>
       <c r="G35" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="Y35" t="s">
         <v>120</v>
@@ -37814,7 +38448,7 @@
         <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>308</v>
+        <v>331</v>
       </c>
       <c r="Y36" t="s">
         <v>121</v>
@@ -37825,7 +38459,7 @@
         <v>70</v>
       </c>
       <c r="G37" t="s">
-        <v>262</v>
+        <v>308</v>
       </c>
       <c r="Y37" t="s">
         <v>211</v>
@@ -37836,7 +38470,7 @@
         <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="Y38" t="s">
         <v>122</v>
@@ -37847,7 +38481,7 @@
         <v>72</v>
       </c>
       <c r="G39" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="Y39" t="s">
         <v>339</v>
@@ -37855,7 +38489,7 @@
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="Y40" t="s">
         <v>447</v>
@@ -37863,7 +38497,7 @@
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>213</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s">
         <v>552</v>
@@ -37871,7 +38505,7 @@
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>567</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s">
         <v>394</v>
@@ -37879,7 +38513,7 @@
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>290</v>
+        <v>567</v>
       </c>
       <c r="Y43" t="s">
         <v>123</v>
@@ -37887,7 +38521,7 @@
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="Y44" t="s">
         <v>124</v>
@@ -37895,7 +38529,7 @@
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Y45" t="s">
         <v>125</v>
@@ -37903,7 +38537,7 @@
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="Y46" t="s">
         <v>126</v>
@@ -37911,7 +38545,7 @@
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Y47" t="s">
         <v>127</v>
@@ -37919,7 +38553,7 @@
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>212</v>
+        <v>343</v>
       </c>
       <c r="Y48" t="s">
         <v>128</v>
@@ -37927,7 +38561,7 @@
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>321</v>
+        <v>212</v>
       </c>
       <c r="Y49" t="s">
         <v>462</v>
@@ -37935,7 +38569,7 @@
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="Y50" t="s">
         <v>214</v>
@@ -37943,7 +38577,7 @@
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="Y51" t="s">
         <v>78</v>
@@ -37951,7 +38585,7 @@
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s">
         <v>557</v>
@@ -37959,7 +38593,7 @@
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="Y53" t="s">
         <v>129</v>
@@ -37967,7 +38601,7 @@
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="Y54" t="s">
         <v>130</v>
@@ -37975,7 +38609,7 @@
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="Y55" t="s">
         <v>131</v>
@@ -37983,7 +38617,7 @@
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="Y56" t="s">
         <v>508</v>
@@ -37991,7 +38625,7 @@
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Y57" t="s">
         <v>488</v>
@@ -37999,7 +38633,7 @@
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>568</v>
+        <v>294</v>
       </c>
       <c r="Y58" t="s">
         <v>132</v>
@@ -38007,7 +38641,7 @@
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>295</v>
+        <v>568</v>
       </c>
       <c r="Y59" t="s">
         <v>347</v>
@@ -38015,7 +38649,7 @@
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Y60" t="s">
         <v>481</v>
@@ -38023,7 +38657,7 @@
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s">
         <v>133</v>
@@ -38031,7 +38665,7 @@
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
       <c r="Y62" t="s">
         <v>134</v>
@@ -38039,7 +38673,7 @@
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="Y63" t="s">
         <v>135</v>
@@ -38047,7 +38681,7 @@
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Y64" t="s">
         <v>136</v>
@@ -38055,7 +38689,7 @@
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>370</v>
+        <v>311</v>
       </c>
       <c r="Y65" t="s">
         <v>137</v>
@@ -38063,7 +38697,7 @@
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="Y66" t="s">
         <v>138</v>
@@ -38071,7 +38705,7 @@
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="Y67" t="s">
         <v>139</v>
@@ -38079,7 +38713,7 @@
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="Y68" t="s">
         <v>458</v>
@@ -38087,7 +38721,7 @@
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>270</v>
+        <v>314</v>
       </c>
       <c r="Y69" t="s">
         <v>498</v>
@@ -38095,7 +38729,7 @@
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>553</v>
+        <v>270</v>
       </c>
       <c r="Y70" t="s">
         <v>215</v>
@@ -38103,7 +38737,7 @@
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>315</v>
+        <v>553</v>
       </c>
       <c r="Y71" t="s">
         <v>390</v>
@@ -38111,7 +38745,7 @@
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>411</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s">
         <v>463</v>
@@ -38119,7 +38753,7 @@
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>305</v>
+        <v>411</v>
       </c>
       <c r="Y73" t="s">
         <v>140</v>
@@ -38127,7 +38761,7 @@
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>412</v>
+        <v>305</v>
       </c>
       <c r="Y74" t="s">
         <v>141</v>
@@ -38135,7 +38769,7 @@
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>263</v>
+        <v>412</v>
       </c>
       <c r="Y75" t="s">
         <v>142</v>
@@ -38143,7 +38777,7 @@
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>533</v>
+        <v>263</v>
       </c>
       <c r="Y76" t="s">
         <v>143</v>
@@ -38151,7 +38785,7 @@
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>345</v>
+        <v>533</v>
       </c>
       <c r="Y77" t="s">
         <v>198</v>
@@ -38159,7 +38793,7 @@
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>281</v>
+        <v>345</v>
       </c>
       <c r="Y78" t="s">
         <v>199</v>
@@ -38167,7 +38801,7 @@
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="Y79" t="s">
         <v>476</v>
@@ -38175,7 +38809,7 @@
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="Y80" t="s">
         <v>492</v>
@@ -38183,7 +38817,7 @@
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>435</v>
+        <v>292</v>
       </c>
       <c r="Y81" t="s">
         <v>144</v>
@@ -38191,7 +38825,7 @@
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>333</v>
+        <v>435</v>
       </c>
       <c r="Y82" t="s">
         <v>145</v>
@@ -38199,7 +38833,7 @@
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>271</v>
+        <v>333</v>
       </c>
       <c r="Y83" t="s">
         <v>146</v>
@@ -38207,7 +38841,7 @@
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="Y84" t="s">
         <v>520</v>
@@ -38215,7 +38849,7 @@
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Y85" t="s">
         <v>147</v>
@@ -38223,7 +38857,7 @@
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="Y86" t="s">
         <v>148</v>
@@ -38231,7 +38865,7 @@
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>554</v>
+        <v>277</v>
       </c>
       <c r="Y87" t="s">
         <v>200</v>
@@ -38239,7 +38873,7 @@
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
+        <v>554</v>
       </c>
       <c r="Y88" t="s">
         <v>509</v>
@@ -38247,7 +38881,7 @@
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="Y89" t="s">
         <v>201</v>
@@ -38255,7 +38889,7 @@
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="Y90" t="s">
         <v>475</v>
@@ -38263,7 +38897,7 @@
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Y91" t="s">
         <v>202</v>
@@ -38271,7 +38905,7 @@
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Y92" t="s">
         <v>203</v>
@@ -38279,15 +38913,15 @@
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="Y93" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="Y94" t="s">
         <v>216</v>
@@ -38295,7 +38929,7 @@
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="Y95" t="s">
         <v>149</v>
@@ -38303,7 +38937,7 @@
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="Y96" t="s">
         <v>204</v>
@@ -38311,13 +38945,16 @@
     </row>
     <row r="97">
       <c r="G97" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Y97" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="98">
+      <c r="G98" t="s">
+        <v>279</v>
+      </c>
       <c r="Y98" t="s">
         <v>457</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$133</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29559" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30116" uniqueCount="577">
   <si>
     <t>description</t>
   </si>
@@ -1797,13 +1797,16 @@
   <si>
     <t>saveInfiniteDivsAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="931" x14ac:knownFonts="1">
+  <fonts count="947" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7671,8 +7674,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1615">
+  <fills count="1642">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -16820,8 +16924,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1695">
+  <borders count="1727">
     <border>
       <left/>
       <right/>
@@ -30499,6 +30756,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -33944,7 +34527,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="958">
+  <cellXfs count="974">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -36789,52 +37372,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1587" fontId="914" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="915" fillId="1590" borderId="1670" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1670" fillId="1590" fontId="915" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="916" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="916" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="917" fillId="1593" borderId="1674" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1674" fillId="1593" fontId="917" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="918" fillId="1596" borderId="1678" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1678" fillId="1596" fontId="918" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="919" fillId="1599" borderId="1682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1682" fillId="1599" fontId="919" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="920" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="920" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="921" fillId="1602" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1602" fontId="921" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="922" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="922" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="923" fillId="1605" borderId="1686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1686" fillId="1605" fontId="923" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="924" fillId="1596" borderId="1690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1690" fillId="1596" fontId="924" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="925" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1608" fontId="925" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="926" fillId="1608" borderId="1694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1694" fillId="1608" fontId="926" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="927" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="927" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="928" fillId="1611" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1611" fontId="928" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="929" fillId="1599" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1599" fontId="929" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="930" fillId="1614" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="930" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="933" fillId="1620" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="934" fillId="1623" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="937" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="939" fillId="1632" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="940" fillId="1623" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="941" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="943" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="944" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="945" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="946" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37189,7 +37820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE133"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -38924,7 +39555,7 @@
         <v>312</v>
       </c>
       <c r="Y94" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="95">
@@ -38932,7 +39563,7 @@
         <v>296</v>
       </c>
       <c r="Y95" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="96">
@@ -38940,7 +39571,7 @@
         <v>341</v>
       </c>
       <c r="Y96" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="97">
@@ -38948,7 +39579,7 @@
         <v>278</v>
       </c>
       <c r="Y97" t="s">
-        <v>449</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98">
@@ -38956,181 +39587,186 @@
         <v>279</v>
       </c>
       <c r="Y98" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>205</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>531</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>150</v>
+        <v>534</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>535</v>
+        <v>150</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>151</v>
+        <v>384</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>464</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>164</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>572</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>165</v>
+        <v>572</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
     </row>
     <row r="130">
       <c r="Y130" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="131">
       <c r="Y131" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="132">
       <c r="Y132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="133">
       <c r="Y133" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,41 +19,42 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30116" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30677" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1800,13 +1801,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="947" x14ac:knownFonts="1">
+  <fonts count="963" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7775,8 +7794,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1642">
+  <fills count="1669">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17077,8 +17197,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1727">
+  <borders count="1759">
     <border>
       <left/>
       <right/>
@@ -30756,6 +31029,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -34527,7 +35126,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="974">
+  <cellXfs count="990">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -37420,52 +38019,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1614" fontId="930" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="931" fillId="1617" borderId="1702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1702" fillId="1617" fontId="931" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="932" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="932" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="933" fillId="1620" borderId="1706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1706" fillId="1620" fontId="933" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="934" fillId="1623" borderId="1710" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1710" fillId="1623" fontId="934" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="935" fillId="1626" borderId="1714" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1714" fillId="1626" fontId="935" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="936" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="936" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="937" fillId="1629" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1629" fontId="937" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="938" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="938" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="939" fillId="1632" borderId="1718" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1718" fillId="1632" fontId="939" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="940" fillId="1623" borderId="1722" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1722" fillId="1623" fontId="940" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="941" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1635" fontId="941" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="942" fillId="1635" borderId="1726" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1726" fillId="1635" fontId="942" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="943" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="943" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="944" fillId="1638" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1638" fontId="944" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="945" fillId="1626" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1626" fontId="945" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="946" fillId="1641" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="946" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="947" fillId="1644" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="949" fillId="1647" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="950" fillId="1650" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="951" fillId="1653" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="953" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="955" fillId="1659" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="956" fillId="1650" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="957" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="959" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="960" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="961" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="962" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -37820,7 +38467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -37845,81 +38492,84 @@
         <v>510</v>
       </c>
       <c r="E1" t="s">
+        <v>577</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>52</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>348</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>334</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>536</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>501</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>53</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>240</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>54</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>397</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>430</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>431</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>358</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>398</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>432</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -37937,81 +38587,84 @@
         <v>511</v>
       </c>
       <c r="E2" t="s">
+        <v>578</v>
+      </c>
+      <c r="F2" t="s">
         <v>59</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>73</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>75</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>471</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>80</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>491</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>316</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>385</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>436</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>537</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>504</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>437</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>438</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>254</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>218</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>399</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>442</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>443</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>382</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>408</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>98</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>172</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>177</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>184</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>451</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -38028,76 +38681,76 @@
       <c r="D3" t="s">
         <v>547</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>479</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>366</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>89</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>50</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>502</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>350</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>342</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>335</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>87</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>538</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>505</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>439</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>241</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>219</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>400</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>444</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>383</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>409</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>99</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>173</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>178</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>365</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>185</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -38111,82 +38764,82 @@
       <c r="D4" t="s">
         <v>512</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>74</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>388</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>472</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>503</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>351</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>539</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>506</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>242</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>220</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>401</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>445</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>359</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>410</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>355</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>174</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>179</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>185</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>452</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>376</v>
@@ -38194,73 +38847,73 @@
       <c r="D5" t="s">
         <v>513</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>480</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>459</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>574</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>477</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>551</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>352</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>485</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>88</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>549</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>243</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>221</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>402</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>446</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>360</v>
       </c>
-      <c r="Y5" t="s">
-        <v>356</v>
-      </c>
       <c r="Z5" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA5" t="s">
         <v>175</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>180</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>186</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>453</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>377</v>
@@ -38268,1505 +38921,1513 @@
       <c r="D6" t="s">
         <v>514</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>527</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>337</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>469</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>349</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>73</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>29</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>543</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>31</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>244</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>392</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>403</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>362</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>100</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>465</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>181</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>187</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>454</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
         <v>378</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>225</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>389</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>468</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>555</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>316</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>544</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>33</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>245</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>441</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>404</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>101</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>466</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>182</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>188</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>455</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>379</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>319</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>367</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>329</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>528</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>34</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>545</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>92</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>246</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>405</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>102</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>176</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>183</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>189</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>456</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>380</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>368</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>330</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>81</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>35</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>550</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>93</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>247</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>406</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>190</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>348</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>307</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>473</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>38</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>36</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>540</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>440</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>248</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>191</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>256</v>
-      </c>
-      <c r="G11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" t="s">
         <v>353</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>323</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>529</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>496</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>541</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>94</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>259</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>260</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>320</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>275</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>324</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>391</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>556</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>542</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>41</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>103</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>192</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F13" t="s">
         <v>342</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>264</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>325</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>461</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>95</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>255</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>327</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>193</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>536</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>317</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>326</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>42</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>497</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>96</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>104</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>194</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>501</v>
-      </c>
-      <c r="E15" t="s">
+        <v>536</v>
+      </c>
+      <c r="F15" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>265</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>530</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>524</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>252</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>105</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>195</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
-      </c>
-      <c r="E16" t="s">
+        <v>501</v>
+      </c>
+      <c r="F16" t="s">
         <v>386</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>266</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>82</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>569</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>525</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>253</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>76</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>196</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" t="s">
         <v>387</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>318</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>83</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>40</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>526</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>486</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>240</v>
-      </c>
-      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
         <v>433</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>90</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>478</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>106</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" t="s">
         <v>61</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>91</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>84</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>107</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>397</v>
-      </c>
-      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>297</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>85</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>108</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>430</v>
-      </c>
-      <c r="E21" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" t="s">
         <v>257</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>298</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>381</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>109</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>431</v>
-      </c>
-      <c r="E22" t="s">
+        <v>430</v>
+      </c>
+      <c r="F22" t="s">
         <v>565</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>495</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>507</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F23" t="s">
         <v>63</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>300</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>44</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>111</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>398</v>
-      </c>
-      <c r="E24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F24" t="s">
         <v>322</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>291</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>393</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>570</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" t="s">
+        <v>398</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>280</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>548</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>112</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
         <v>470</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>77</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>86</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>113</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
         <v>226</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>283</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>460</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>114</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
         <v>227</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>267</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>45</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>432</v>
-      </c>
-      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
         <v>493</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>284</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>46</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>432</v>
+      </c>
+      <c r="F30" t="s">
+        <v>494</v>
+      </c>
+      <c r="H30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>228</v>
       </c>
-      <c r="E30" t="s">
-        <v>494</v>
-      </c>
-      <c r="G30" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>434</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>65</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>67</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>532</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>68</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>69</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>70</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>72</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Y41" t="s">
-        <v>552</v>
+      <c r="Z41" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>567</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>568</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>553</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>305</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>412</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>263</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>533</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>345</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>281</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>287</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>292</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>435</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>333</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>271</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>282</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>288</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>277</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>554</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>272</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>289</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>273</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>274</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>306</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>312</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>296</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>341</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>278</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>279</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>531</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30677" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31238" uniqueCount="583">
   <si>
     <t>description</t>
   </si>
@@ -1825,7 +1825,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="963" x14ac:knownFonts="1">
+  <fonts count="979" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7895,8 +7895,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1669">
+  <fills count="1696">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17350,8 +17451,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1759">
+  <borders count="1791">
     <border>
       <left/>
       <right/>
@@ -31029,6 +31283,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35126,7 +35706,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="990">
+  <cellXfs count="1006">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38067,52 +38647,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1641" fontId="946" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="947" fillId="1644" borderId="1734" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1734" fillId="1644" fontId="947" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="948" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="948" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="949" fillId="1647" borderId="1738" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1738" fillId="1647" fontId="949" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="950" fillId="1650" borderId="1742" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1742" fillId="1650" fontId="950" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="951" fillId="1653" borderId="1746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1746" fillId="1653" fontId="951" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="952" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="952" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="953" fillId="1656" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1656" fontId="953" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="954" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="954" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="955" fillId="1659" borderId="1750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1750" fillId="1659" fontId="955" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="956" fillId="1650" borderId="1754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1754" fillId="1650" fontId="956" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="957" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1662" fontId="957" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="958" fillId="1662" borderId="1758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1758" fillId="1662" fontId="958" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="959" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="959" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="960" fillId="1665" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1665" fontId="960" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="961" fillId="1653" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1653" fontId="961" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="962" fillId="1668" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="962" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="963" fillId="1671" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="965" fillId="1674" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="966" fillId="1677" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="967" fillId="1680" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="969" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="971" fillId="1686" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="972" fillId="1677" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="973" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="974" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="975" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="976" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="977" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="978" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31238" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32362" uniqueCount="585">
   <si>
     <t>description</t>
   </si>
@@ -1819,13 +1819,19 @@
   <si>
     <t>screenshot(file,locator)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="979" x14ac:knownFonts="1">
+  <fonts count="1011" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -7996,8 +8002,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1696">
+  <fills count="1750">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -17604,8 +17812,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1791">
+  <borders count="1855">
     <border>
       <left/>
       <right/>
@@ -31283,6 +31797,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -35706,7 +36872,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1006">
+  <cellXfs count="1038">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -38695,52 +39861,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1668" fontId="962" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="963" fillId="1671" borderId="1766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1766" fillId="1671" fontId="963" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="964" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="964" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="965" fillId="1674" borderId="1770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1770" fillId="1674" fontId="965" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="966" fillId="1677" borderId="1774" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1774" fillId="1677" fontId="966" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="967" fillId="1680" borderId="1778" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1778" fillId="1680" fontId="967" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="968" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="968" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="969" fillId="1683" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1683" fontId="969" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="970" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="970" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="971" fillId="1686" borderId="1782" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1782" fillId="1686" fontId="971" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="972" fillId="1677" borderId="1786" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1786" fillId="1677" fontId="972" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="973" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1689" fontId="973" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="974" fillId="1689" borderId="1790" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1790" fillId="1689" fontId="974" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="975" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="975" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="976" fillId="1692" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1692" fontId="976" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="977" fillId="1680" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1680" fontId="977" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="978" fillId="1695" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1695" fontId="978" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1798" fillId="1698" fontId="979" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="980" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1802" fillId="1701" fontId="981" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1806" fillId="1704" fontId="982" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1810" fillId="1707" fontId="983" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="984" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1710" fontId="985" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="986" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1814" fillId="1713" fontId="987" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1818" fillId="1704" fontId="988" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1716" fontId="989" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1822" fillId="1716" fontId="990" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="991" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1719" fontId="992" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1707" fontId="993" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="994" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="995" fillId="1725" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="997" fillId="1728" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="998" fillId="1731" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="999" fillId="1734" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1001" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1003" fillId="1740" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1004" fillId="1731" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1005" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1007" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1008" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1009" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1010" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40054,7 +41316,7 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
@@ -40077,7 +41339,7 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
@@ -40097,7 +41359,7 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
@@ -40117,13 +41379,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>381</v>
+        <v>584</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -40137,7 +41399,7 @@
         <v>430</v>
       </c>
       <c r="F22" t="s">
-        <v>565</v>
+        <v>257</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
@@ -40157,7 +41419,7 @@
         <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>565</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
@@ -40177,7 +41439,7 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>322</v>
+        <v>63</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
@@ -40197,7 +41459,7 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
@@ -40217,7 +41479,7 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>470</v>
+        <v>64</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
@@ -40237,7 +41499,7 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>226</v>
+        <v>470</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
@@ -40257,7 +41519,7 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
@@ -40274,7 +41536,7 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>493</v>
+        <v>227</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
@@ -40291,7 +41553,7 @@
         <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
@@ -40305,7 +41567,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>434</v>
+        <v>494</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -40316,7 +41578,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>65</v>
+        <v>434</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -40327,7 +41589,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -40338,7 +41600,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" t="s">
         <v>532</v>
@@ -40349,7 +41611,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -40360,7 +41622,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -40371,7 +41633,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -40382,7 +41644,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -40393,7 +41655,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -40403,6 +41665,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -19,15 +19,15 @@
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32362" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32927" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1825,13 +1825,28 @@
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1011" x14ac:knownFonts="1">
+  <fonts count="1027" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8204,8 +8219,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1750">
+  <fills count="1777">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18118,8 +18234,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1855">
+  <borders count="1887">
     <border>
       <left/>
       <right/>
@@ -31797,6 +32066,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -36872,7 +37467,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1038">
+  <cellXfs count="1054">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -39957,52 +40552,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1722" fontId="994" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="995" fillId="1725" borderId="1830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1830" fillId="1725" fontId="995" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="996" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="996" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="997" fillId="1728" borderId="1834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1834" fillId="1728" fontId="997" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="998" fillId="1731" borderId="1838" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1838" fillId="1731" fontId="998" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="999" fillId="1734" borderId="1842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1842" fillId="1734" fontId="999" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1000" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1000" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1001" fillId="1737" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1737" fontId="1001" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1002" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1002" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1003" fillId="1740" borderId="1846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1846" fillId="1740" fontId="1003" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1004" fillId="1731" borderId="1850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1850" fillId="1731" fontId="1004" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1005" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1743" fontId="1005" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1006" fillId="1743" borderId="1854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1854" fillId="1743" fontId="1006" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1007" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1007" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1008" fillId="1746" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1746" fontId="1008" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1009" fillId="1734" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1734" fontId="1009" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1010" fillId="1749" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1010" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1011" fillId="1752" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1013" fillId="1755" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1014" fillId="1758" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1015" fillId="1761" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1017" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1019" fillId="1767" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1020" fillId="1758" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1021" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1023" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1024" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1025" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1026" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -40357,7 +41000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -40673,7 +41316,7 @@
         <v>351</v>
       </c>
       <c r="L4" t="s">
-        <v>239</v>
+        <v>586</v>
       </c>
       <c r="M4" t="s">
         <v>336</v>
@@ -40709,7 +41352,7 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
-        <v>355</v>
+        <v>587</v>
       </c>
       <c r="AA4" t="s">
         <v>174</v>
@@ -40756,7 +41399,7 @@
         <v>352</v>
       </c>
       <c r="L5" t="s">
-        <v>485</v>
+        <v>239</v>
       </c>
       <c r="N5" t="s">
         <v>88</v>
@@ -40823,11 +41466,14 @@
       <c r="I6" t="s">
         <v>469</v>
       </c>
+      <c r="J6" t="s">
+        <v>585</v>
+      </c>
       <c r="K6" t="s">
         <v>349</v>
       </c>
       <c r="L6" t="s">
-        <v>73</v>
+        <v>485</v>
       </c>
       <c r="N6" t="s">
         <v>29</v>
@@ -40889,7 +41535,7 @@
         <v>555</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s">
         <v>316</v>
@@ -40948,7 +41594,7 @@
         <v>329</v>
       </c>
       <c r="L8" t="s">
-        <v>528</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>34</v>
@@ -41004,7 +41650,7 @@
         <v>330</v>
       </c>
       <c r="L9" t="s">
-        <v>81</v>
+        <v>528</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -41048,7 +41694,7 @@
         <v>473</v>
       </c>
       <c r="L10" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="N10" t="s">
         <v>36</v>
@@ -41089,7 +41735,7 @@
         <v>323</v>
       </c>
       <c r="L11" t="s">
-        <v>529</v>
+        <v>38</v>
       </c>
       <c r="N11" t="s">
         <v>496</v>
@@ -41127,7 +41773,7 @@
         <v>324</v>
       </c>
       <c r="L12" t="s">
-        <v>391</v>
+        <v>529</v>
       </c>
       <c r="N12" t="s">
         <v>556</v>
@@ -41165,7 +41811,7 @@
         <v>325</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>391</v>
       </c>
       <c r="N13" t="s">
         <v>461</v>
@@ -41200,7 +41846,7 @@
         <v>326</v>
       </c>
       <c r="L14" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>497</v>
@@ -41232,7 +41878,7 @@
         <v>265</v>
       </c>
       <c r="L15" t="s">
-        <v>530</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
         <v>39</v>
@@ -41264,7 +41910,7 @@
         <v>266</v>
       </c>
       <c r="L16" t="s">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="N16" t="s">
         <v>569</v>
@@ -41296,7 +41942,7 @@
         <v>318</v>
       </c>
       <c r="L17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N17" t="s">
         <v>40</v>
@@ -41316,13 +41962,13 @@
         <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>583</v>
+        <v>433</v>
       </c>
       <c r="H18" t="s">
         <v>90</v>
       </c>
       <c r="L18" t="s">
-        <v>478</v>
+        <v>83</v>
       </c>
       <c r="N18" t="s">
         <v>43</v>
@@ -41339,13 +41985,13 @@
         <v>240</v>
       </c>
       <c r="F19" t="s">
-        <v>433</v>
+        <v>61</v>
       </c>
       <c r="H19" t="s">
         <v>91</v>
       </c>
       <c r="L19" t="s">
-        <v>84</v>
+        <v>478</v>
       </c>
       <c r="Z19" t="s">
         <v>107</v>
@@ -41359,13 +42005,13 @@
         <v>54</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H20" t="s">
         <v>297</v>
       </c>
       <c r="L20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Z20" t="s">
         <v>108</v>
@@ -41379,13 +42025,13 @@
         <v>397</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="H21" t="s">
         <v>298</v>
       </c>
       <c r="L21" t="s">
-        <v>584</v>
+        <v>85</v>
       </c>
       <c r="Z21" t="s">
         <v>109</v>
@@ -41399,13 +42045,13 @@
         <v>430</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>565</v>
       </c>
       <c r="H22" t="s">
         <v>299</v>
       </c>
       <c r="L22" t="s">
-        <v>495</v>
+        <v>584</v>
       </c>
       <c r="Z22" t="s">
         <v>507</v>
@@ -41419,13 +42065,13 @@
         <v>431</v>
       </c>
       <c r="F23" t="s">
-        <v>565</v>
+        <v>63</v>
       </c>
       <c r="H23" t="s">
         <v>300</v>
       </c>
       <c r="L23" t="s">
-        <v>44</v>
+        <v>495</v>
       </c>
       <c r="Z23" t="s">
         <v>111</v>
@@ -41439,13 +42085,13 @@
         <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>322</v>
       </c>
       <c r="H24" t="s">
         <v>291</v>
       </c>
       <c r="L24" t="s">
-        <v>393</v>
+        <v>44</v>
       </c>
       <c r="Z24" t="s">
         <v>570</v>
@@ -41459,13 +42105,13 @@
         <v>398</v>
       </c>
       <c r="F25" t="s">
-        <v>322</v>
+        <v>64</v>
       </c>
       <c r="H25" t="s">
         <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="Z25" t="s">
         <v>112</v>
@@ -41479,13 +42125,13 @@
         <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="H26" t="s">
         <v>77</v>
       </c>
       <c r="L26" t="s">
-        <v>86</v>
+        <v>548</v>
       </c>
       <c r="Z26" t="s">
         <v>113</v>
@@ -41499,13 +42145,13 @@
         <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>470</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>283</v>
       </c>
       <c r="L27" t="s">
-        <v>460</v>
+        <v>86</v>
       </c>
       <c r="Z27" t="s">
         <v>114</v>
@@ -41519,13 +42165,13 @@
         <v>57</v>
       </c>
       <c r="F28" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H28" t="s">
         <v>267</v>
       </c>
       <c r="L28" t="s">
-        <v>45</v>
+        <v>460</v>
       </c>
       <c r="Z28" t="s">
         <v>115</v>
@@ -41536,13 +42182,13 @@
         <v>58</v>
       </c>
       <c r="F29" t="s">
-        <v>227</v>
+        <v>493</v>
       </c>
       <c r="H29" t="s">
         <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z29" t="s">
         <v>328</v>
@@ -41553,10 +42199,13 @@
         <v>432</v>
       </c>
       <c r="F30" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H30" t="s">
         <v>285</v>
+      </c>
+      <c r="L30" t="s">
+        <v>46</v>
       </c>
       <c r="Z30" t="s">
         <v>116</v>
@@ -41567,7 +42216,7 @@
         <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>494</v>
+        <v>434</v>
       </c>
       <c r="H31" t="s">
         <v>217</v>
@@ -41578,7 +42227,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>434</v>
+        <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
@@ -41589,7 +42238,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H33" t="s">
         <v>286</v>
@@ -41600,7 +42249,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H34" t="s">
         <v>532</v>
@@ -41611,7 +42260,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
         <v>261</v>
@@ -41622,7 +42271,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H36" t="s">
         <v>331</v>
@@ -41633,7 +42282,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
         <v>308</v>
@@ -41644,7 +42293,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H38" t="s">
         <v>262</v>
@@ -41655,7 +42304,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H39" t="s">
         <v>309</v>
@@ -41665,9 +42314,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>72</v>
-      </c>
       <c r="H40" t="s">
         <v>268</v>
       </c>
@@ -42141,186 +42787,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="Z100" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="Z101" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32927" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33492" uniqueCount="590">
   <si>
     <t>description</t>
   </si>
@@ -1846,7 +1846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1027" x14ac:knownFonts="1">
+  <fonts count="1043" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8320,8 +8320,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1777">
+  <fills count="1804">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18387,8 +18488,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1887">
+  <borders count="1919">
     <border>
       <left/>
       <right/>
@@ -32066,6 +32320,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -37467,7 +38047,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1054">
+  <cellXfs count="1070">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -40600,52 +41180,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1749" fontId="1010" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1011" fillId="1752" borderId="1862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1862" fillId="1752" fontId="1011" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1012" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1012" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1013" fillId="1755" borderId="1866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1866" fillId="1755" fontId="1013" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1014" fillId="1758" borderId="1870" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1870" fillId="1758" fontId="1014" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1015" fillId="1761" borderId="1874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1874" fillId="1761" fontId="1015" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1016" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1016" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1017" fillId="1764" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1764" fontId="1017" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1018" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1018" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1019" fillId="1767" borderId="1878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1878" fillId="1767" fontId="1019" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1020" fillId="1758" borderId="1882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1882" fillId="1758" fontId="1020" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1021" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1770" fontId="1021" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1022" fillId="1770" borderId="1886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1886" fillId="1770" fontId="1022" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1023" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1023" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1024" fillId="1773" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1773" fontId="1024" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1025" fillId="1761" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1761" fontId="1025" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1026" fillId="1776" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1026" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1027" fillId="1779" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1029" fillId="1782" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1030" fillId="1785" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1031" fillId="1788" borderId="1906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1033" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1035" fillId="1794" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1036" fillId="1785" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1037" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1038" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1039" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1040" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1041" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1042" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -43,7 +43,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33492" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34624" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1840,13 +1840,16 @@
   <si>
     <t>saveSelectedValue(var,locator)</t>
   </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1043" x14ac:knownFonts="1">
+  <fonts count="1075" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8421,8 +8424,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1804">
+  <fills count="1858">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18641,8 +18846,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1919">
+  <borders count="1983">
     <border>
       <left/>
       <right/>
@@ -32320,6 +32831,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -38047,7 +39210,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1070">
+  <cellXfs count="1102">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -41228,52 +42391,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1776" fontId="1026" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1027" fillId="1779" borderId="1894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1028" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1894" fillId="1779" fontId="1027" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1028" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1029" fillId="1782" borderId="1898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1898" fillId="1782" fontId="1029" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1030" fillId="1785" borderId="1902" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1902" fillId="1785" fontId="1030" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1031" fillId="1788" borderId="1906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1906" fillId="1788" fontId="1031" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1032" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1032" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1033" fillId="1791" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1791" fontId="1033" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1034" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1035" fillId="1794" borderId="1910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1036" fillId="1785" borderId="1914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1037" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1038" fillId="1797" borderId="1918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1039" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1040" fillId="1800" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1041" fillId="1788" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1042" fillId="1803" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1034" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1910" fillId="1794" fontId="1035" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1914" fillId="1785" fontId="1036" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1797" fontId="1037" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1918" fillId="1797" fontId="1038" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1039" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1800" fontId="1040" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1788" fontId="1041" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1803" fontId="1042" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1926" fillId="1806" fontId="1043" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1044" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1930" fillId="1809" fontId="1045" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1934" fillId="1812" fontId="1046" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1938" fillId="1815" fontId="1047" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1048" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1818" fontId="1049" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1050" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1942" fillId="1821" fontId="1051" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1946" fillId="1812" fontId="1052" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1824" fontId="1053" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1950" fillId="1824" fontId="1054" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1055" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1827" fontId="1056" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1815" fontId="1057" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1058" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1059" fillId="1833" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1061" fillId="1836" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1062" fillId="1839" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1063" fillId="1842" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1065" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1067" fillId="1848" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1068" fillId="1839" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1069" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1071" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1072" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1073" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1074" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -41628,7 +42887,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43338,7 +44597,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="90">
@@ -43346,7 +44605,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="91">
@@ -43354,7 +44613,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92">
@@ -43362,7 +44621,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93">
@@ -43370,7 +44629,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>575</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94">
@@ -43378,7 +44637,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="95">
@@ -43386,7 +44645,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="96">
@@ -43394,7 +44653,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97">
@@ -43402,7 +44661,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
     </row>
     <row r="98">
@@ -43410,201 +44669,206 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34624" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35190" uniqueCount="591">
   <si>
     <t>description</t>
   </si>
@@ -1849,7 +1849,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1075" x14ac:knownFonts="1">
+  <fonts count="1091" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8626,8 +8626,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1858">
+  <fills count="1885">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19152,8 +19253,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1983">
+  <borders count="2015">
     <border>
       <left/>
       <right/>
@@ -32831,6 +33085,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39210,7 +39790,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1102">
+  <cellXfs count="1118">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -42487,52 +43067,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1830" fontId="1058" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1059" fillId="1833" borderId="1958" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1060" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1958" fillId="1833" fontId="1059" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1060" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1061" fillId="1836" borderId="1962" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1962" fillId="1836" fontId="1061" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1062" fillId="1839" borderId="1966" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1966" fillId="1839" fontId="1062" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1063" fillId="1842" borderId="1970" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1970" fillId="1842" fontId="1063" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1064" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1064" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1065" fillId="1845" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1845" fontId="1065" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1066" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1067" fillId="1848" borderId="1974" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1068" fillId="1839" borderId="1978" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1069" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1070" fillId="1851" borderId="1982" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1071" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1072" fillId="1854" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1073" fillId="1842" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1074" fillId="1857" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1066" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1974" fillId="1848" fontId="1067" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1978" fillId="1839" fontId="1068" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1851" fontId="1069" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1982" fillId="1851" fontId="1070" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1071" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1854" fontId="1072" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1842" fontId="1073" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1074" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1075" fillId="1860" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1077" fillId="1863" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1078" fillId="1866" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1079" fillId="1869" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1081" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1083" fillId="1875" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1084" fillId="1866" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1085" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1087" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1088" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1089" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1090" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -35,7 +35,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -43,9 +43,9 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35190" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35766" uniqueCount="601">
   <si>
     <t>description</t>
   </si>
@@ -1843,13 +1843,43 @@
   <si>
     <t>saveBrowserVersion(var)</t>
   </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1091" x14ac:knownFonts="1">
+  <fonts count="1107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8727,8 +8757,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1885">
+  <fills count="1912">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19406,8 +19537,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2015">
+  <borders count="2047">
     <border>
       <left/>
       <right/>
@@ -33085,6 +33369,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -39790,7 +40400,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1118">
+  <cellXfs count="1134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43115,52 +43725,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1857" fontId="1074" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1075" fillId="1860" borderId="1990" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1076" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1990" fillId="1860" fontId="1075" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1076" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1077" fillId="1863" borderId="1994" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1994" fillId="1863" fontId="1077" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1078" fillId="1866" borderId="1998" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="1998" fillId="1866" fontId="1078" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1079" fillId="1869" borderId="2002" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2002" fillId="1869" fontId="1079" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1080" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1080" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1081" fillId="1872" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1872" fontId="1081" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1082" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1083" fillId="1875" borderId="2006" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1084" fillId="1866" borderId="2010" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1085" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1086" fillId="1878" borderId="2014" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1087" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1088" fillId="1881" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1089" fillId="1869" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1090" fillId="1884" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1082" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2006" fillId="1875" fontId="1083" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2010" fillId="1866" fontId="1084" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1878" fontId="1085" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2014" fillId="1878" fontId="1086" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1087" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1881" fontId="1088" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1869" fontId="1089" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1090" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1091" fillId="1887" borderId="2022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1093" fillId="1890" borderId="2026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1094" fillId="1893" borderId="2030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1095" fillId="1896" borderId="2034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1097" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1099" fillId="1902" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1100" fillId="1893" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1101" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1102" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1103" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1104" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1105" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1106" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -43515,7 +44173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -43947,7 +44605,7 @@
         <v>175</v>
       </c>
       <c r="AB5" t="s">
-        <v>180</v>
+        <v>599</v>
       </c>
       <c r="AC5" t="s">
         <v>186</v>
@@ -44018,7 +44676,7 @@
         <v>465</v>
       </c>
       <c r="AB6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AC6" t="s">
         <v>187</v>
@@ -44080,7 +44738,7 @@
         <v>466</v>
       </c>
       <c r="AB7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AC7" t="s">
         <v>188</v>
@@ -44136,7 +44794,7 @@
         <v>176</v>
       </c>
       <c r="AB8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AC8" t="s">
         <v>189</v>
@@ -44188,6 +44846,9 @@
       <c r="Z9" t="s">
         <v>210</v>
       </c>
+      <c r="AB9" t="s">
+        <v>183</v>
+      </c>
       <c r="AC9" t="s">
         <v>190</v>
       </c>
@@ -44206,7 +44867,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -44229,6 +44890,9 @@
       <c r="Z10" t="s">
         <v>258</v>
       </c>
+      <c r="AB10" t="s">
+        <v>600</v>
+      </c>
       <c r="AC10" t="s">
         <v>191</v>
       </c>
@@ -44247,7 +44911,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -44285,7 +44949,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L12" t="s">
         <v>529</v>
@@ -44323,7 +44987,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -44335,7 +44999,7 @@
         <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>255</v>
+        <v>592</v>
       </c>
       <c r="Z13" t="s">
         <v>327</v>
@@ -44358,7 +45022,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -44370,7 +45034,7 @@
         <v>96</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Z14" t="s">
         <v>104</v>
@@ -44391,6 +45055,9 @@
       </c>
       <c r="H15" t="s">
         <v>265</v>
+      </c>
+      <c r="I15" t="s">
+        <v>326</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -44402,10 +45069,10 @@
         <v>524</v>
       </c>
       <c r="S15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Z15" t="s">
-        <v>105</v>
+        <v>593</v>
       </c>
       <c r="AC15" t="s">
         <v>195</v>
@@ -44434,10 +45101,10 @@
         <v>525</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Z16" t="s">
-        <v>76</v>
+        <v>105</v>
       </c>
       <c r="AC16" t="s">
         <v>196</v>
@@ -44462,8 +45129,11 @@
       <c r="N17" t="s">
         <v>40</v>
       </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
       <c r="Z17" t="s">
-        <v>526</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s">
         <v>486</v>
@@ -44489,7 +45159,7 @@
         <v>43</v>
       </c>
       <c r="Z18" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="AE18" t="s">
         <v>500</v>
@@ -44509,7 +45179,7 @@
         <v>478</v>
       </c>
       <c r="Z19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AE19" t="s">
         <v>518</v>
@@ -44529,7 +45199,7 @@
         <v>84</v>
       </c>
       <c r="Z20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AE20" t="s">
         <v>519</v>
@@ -44549,7 +45219,7 @@
         <v>85</v>
       </c>
       <c r="Z21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s">
         <v>523</v>
@@ -44569,7 +45239,7 @@
         <v>584</v>
       </c>
       <c r="Z22" t="s">
-        <v>507</v>
+        <v>109</v>
       </c>
       <c r="AE22" t="s">
         <v>236</v>
@@ -44589,7 +45259,7 @@
         <v>495</v>
       </c>
       <c r="Z23" t="s">
-        <v>111</v>
+        <v>507</v>
       </c>
       <c r="AE23" t="s">
         <v>561</v>
@@ -44609,7 +45279,7 @@
         <v>44</v>
       </c>
       <c r="Z24" t="s">
-        <v>570</v>
+        <v>111</v>
       </c>
       <c r="AE24" t="s">
         <v>562</v>
@@ -44629,7 +45299,7 @@
         <v>393</v>
       </c>
       <c r="Z25" t="s">
-        <v>112</v>
+        <v>570</v>
       </c>
       <c r="AE25" t="s">
         <v>563</v>
@@ -44649,7 +45319,7 @@
         <v>548</v>
       </c>
       <c r="Z26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AE26" t="s">
         <v>237</v>
@@ -44669,7 +45339,7 @@
         <v>86</v>
       </c>
       <c r="Z27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE27" t="s">
         <v>238</v>
@@ -44689,7 +45359,7 @@
         <v>460</v>
       </c>
       <c r="Z28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29">
@@ -44706,7 +45376,7 @@
         <v>45</v>
       </c>
       <c r="Z29" t="s">
-        <v>328</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30">
@@ -44723,7 +45393,7 @@
         <v>46</v>
       </c>
       <c r="Z30" t="s">
-        <v>116</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31">
@@ -44737,7 +45407,7 @@
         <v>217</v>
       </c>
       <c r="Z31" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
@@ -44748,7 +45418,7 @@
         <v>276</v>
       </c>
       <c r="Z32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33">
@@ -44759,7 +45429,7 @@
         <v>286</v>
       </c>
       <c r="Z33" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34">
@@ -44770,7 +45440,7 @@
         <v>532</v>
       </c>
       <c r="Z34" t="s">
-        <v>571</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -44781,7 +45451,7 @@
         <v>261</v>
       </c>
       <c r="Z35" t="s">
-        <v>120</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36">
@@ -44792,7 +45462,7 @@
         <v>331</v>
       </c>
       <c r="Z36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -44803,7 +45473,7 @@
         <v>308</v>
       </c>
       <c r="Z37" t="s">
-        <v>211</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38">
@@ -44814,7 +45484,7 @@
         <v>262</v>
       </c>
       <c r="Z38" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39">
@@ -44825,7 +45495,7 @@
         <v>309</v>
       </c>
       <c r="Z39" t="s">
-        <v>339</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
@@ -44833,7 +45503,7 @@
         <v>268</v>
       </c>
       <c r="Z40" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41">
@@ -44841,7 +45511,7 @@
         <v>79</v>
       </c>
       <c r="Z41" t="s">
-        <v>581</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42">
@@ -44849,7 +45519,7 @@
         <v>213</v>
       </c>
       <c r="Z42" t="s">
-        <v>394</v>
+        <v>581</v>
       </c>
     </row>
     <row r="43">
@@ -44857,7 +45527,7 @@
         <v>567</v>
       </c>
       <c r="Z43" t="s">
-        <v>123</v>
+        <v>394</v>
       </c>
     </row>
     <row r="44">
@@ -44865,7 +45535,7 @@
         <v>290</v>
       </c>
       <c r="Z44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -44873,7 +45543,7 @@
         <v>301</v>
       </c>
       <c r="Z45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46">
@@ -44881,7 +45551,7 @@
         <v>302</v>
       </c>
       <c r="Z46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -44889,7 +45559,7 @@
         <v>344</v>
       </c>
       <c r="Z47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48">
@@ -44897,7 +45567,7 @@
         <v>343</v>
       </c>
       <c r="Z48" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -44905,7 +45575,7 @@
         <v>212</v>
       </c>
       <c r="Z49" t="s">
-        <v>462</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50">
@@ -44913,7 +45583,7 @@
         <v>321</v>
       </c>
       <c r="Z50" t="s">
-        <v>214</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
@@ -44921,7 +45591,7 @@
         <v>340</v>
       </c>
       <c r="Z51" t="s">
-        <v>78</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52">
@@ -44929,7 +45599,7 @@
         <v>369</v>
       </c>
       <c r="Z52" t="s">
-        <v>557</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53">
@@ -44937,7 +45607,7 @@
         <v>303</v>
       </c>
       <c r="Z53" t="s">
-        <v>129</v>
+        <v>557</v>
       </c>
     </row>
     <row r="54">
@@ -44945,7 +45615,7 @@
         <v>357</v>
       </c>
       <c r="Z54" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -44953,7 +45623,7 @@
         <v>332</v>
       </c>
       <c r="Z55" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56">
@@ -44961,7 +45631,7 @@
         <v>269</v>
       </c>
       <c r="Z56" t="s">
-        <v>508</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57">
@@ -44969,7 +45639,7 @@
         <v>293</v>
       </c>
       <c r="Z57" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
     </row>
     <row r="58">
@@ -44977,7 +45647,7 @@
         <v>294</v>
       </c>
       <c r="Z58" t="s">
-        <v>132</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59">
@@ -44985,7 +45655,7 @@
         <v>568</v>
       </c>
       <c r="Z59" t="s">
-        <v>347</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60">
@@ -44993,7 +45663,7 @@
         <v>295</v>
       </c>
       <c r="Z60" t="s">
-        <v>481</v>
+        <v>347</v>
       </c>
     </row>
     <row r="61">
@@ -45001,7 +45671,7 @@
         <v>304</v>
       </c>
       <c r="Z61" t="s">
-        <v>133</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62">
@@ -45009,7 +45679,7 @@
         <v>313</v>
       </c>
       <c r="Z62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="63">
@@ -45017,7 +45687,7 @@
         <v>338</v>
       </c>
       <c r="Z63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64">
@@ -45025,7 +45695,7 @@
         <v>310</v>
       </c>
       <c r="Z64" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65">
@@ -45033,7 +45703,7 @@
         <v>311</v>
       </c>
       <c r="Z65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="66">
@@ -45041,7 +45711,7 @@
         <v>370</v>
       </c>
       <c r="Z66" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67">
@@ -45049,7 +45719,7 @@
         <v>371</v>
       </c>
       <c r="Z67" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68">
@@ -45057,7 +45727,7 @@
         <v>346</v>
       </c>
       <c r="Z68" t="s">
-        <v>458</v>
+        <v>139</v>
       </c>
     </row>
     <row r="69">
@@ -45065,7 +45735,7 @@
         <v>314</v>
       </c>
       <c r="Z69" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="70">
@@ -45073,7 +45743,7 @@
         <v>270</v>
       </c>
       <c r="Z70" t="s">
-        <v>215</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71">
@@ -45081,7 +45751,7 @@
         <v>553</v>
       </c>
       <c r="Z71" t="s">
-        <v>390</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72">
@@ -45089,7 +45759,7 @@
         <v>315</v>
       </c>
       <c r="Z72" t="s">
-        <v>463</v>
+        <v>390</v>
       </c>
     </row>
     <row r="73">
@@ -45097,7 +45767,7 @@
         <v>411</v>
       </c>
       <c r="Z73" t="s">
-        <v>140</v>
+        <v>463</v>
       </c>
     </row>
     <row r="74">
@@ -45105,7 +45775,7 @@
         <v>305</v>
       </c>
       <c r="Z74" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75">
@@ -45113,7 +45783,7 @@
         <v>412</v>
       </c>
       <c r="Z75" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76">
@@ -45121,7 +45791,7 @@
         <v>263</v>
       </c>
       <c r="Z76" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="77">
@@ -45129,7 +45799,7 @@
         <v>533</v>
       </c>
       <c r="Z77" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
     <row r="78">
@@ -45137,7 +45807,7 @@
         <v>345</v>
       </c>
       <c r="Z78" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79">
@@ -45145,7 +45815,7 @@
         <v>281</v>
       </c>
       <c r="Z79" t="s">
-        <v>476</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80">
@@ -45153,7 +45823,7 @@
         <v>287</v>
       </c>
       <c r="Z80" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81">
@@ -45161,7 +45831,7 @@
         <v>292</v>
       </c>
       <c r="Z81" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82">
@@ -45169,7 +45839,7 @@
         <v>435</v>
       </c>
       <c r="Z82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="83">
@@ -45177,7 +45847,7 @@
         <v>333</v>
       </c>
       <c r="Z83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="84">
@@ -45185,7 +45855,7 @@
         <v>271</v>
       </c>
       <c r="Z84" t="s">
-        <v>520</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85">
@@ -45193,7 +45863,7 @@
         <v>282</v>
       </c>
       <c r="Z85" t="s">
-        <v>147</v>
+        <v>520</v>
       </c>
     </row>
     <row r="86">
@@ -45201,7 +45871,7 @@
         <v>288</v>
       </c>
       <c r="Z86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="87">
@@ -45209,7 +45879,7 @@
         <v>277</v>
       </c>
       <c r="Z87" t="s">
-        <v>200</v>
+        <v>148</v>
       </c>
     </row>
     <row r="88">
@@ -45217,7 +45887,7 @@
         <v>554</v>
       </c>
       <c r="Z88" t="s">
-        <v>509</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -45225,7 +45895,7 @@
         <v>272</v>
       </c>
       <c r="Z89" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
     </row>
     <row r="90">
@@ -45233,7 +45903,7 @@
         <v>289</v>
       </c>
       <c r="Z90" t="s">
-        <v>201</v>
+        <v>590</v>
       </c>
     </row>
     <row r="91">
@@ -45241,7 +45911,7 @@
         <v>273</v>
       </c>
       <c r="Z91" t="s">
-        <v>475</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92">
@@ -45249,7 +45919,7 @@
         <v>274</v>
       </c>
       <c r="Z92" t="s">
-        <v>202</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93">
@@ -45257,7 +45927,7 @@
         <v>306</v>
       </c>
       <c r="Z93" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94">
@@ -45265,7 +45935,7 @@
         <v>312</v>
       </c>
       <c r="Z94" t="s">
-        <v>575</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95">
@@ -45273,7 +45943,7 @@
         <v>296</v>
       </c>
       <c r="Z95" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="96">
@@ -45281,7 +45951,7 @@
         <v>341</v>
       </c>
       <c r="Z96" t="s">
-        <v>216</v>
+        <v>576</v>
       </c>
     </row>
     <row r="97">
@@ -45289,7 +45959,7 @@
         <v>278</v>
       </c>
       <c r="Z97" t="s">
-        <v>149</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
@@ -45297,206 +45967,236 @@
         <v>279</v>
       </c>
       <c r="Z98" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="Z99" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Z99" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Z100" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Z101" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Z102" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Z103" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Z104" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Z105" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Z106" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Z107" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Z108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="Z110" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Z109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Z110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Z111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Z112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Z113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Z114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Z115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Z116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Z117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="Z120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Z118" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Z119" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="Z123" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Z120" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Z121" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Z122" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Z123" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Z124" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Z125" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Z130" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Z126" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Z127" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Z128" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Z129" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Z130" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Z131" t="s">
+    <row r="136">
+      <c r="Z136" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Z132" t="s">
+    <row r="137">
+      <c r="Z137" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Z133" t="s">
+    <row r="138">
+      <c r="Z138" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Z134" t="s">
+    <row r="139">
+      <c r="Z139" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="135">
-      <c r="Z135" t="s">
+    <row r="140">
+      <c r="Z140" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="136">
-      <c r="Z136" t="s">
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="137">
-      <c r="Z137" t="s">
+    <row r="143">
+      <c r="Z143" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="138">
-      <c r="Z138" t="s">
+    <row r="144">
+      <c r="Z144" t="s">
         <v>171</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -24,7 +24,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35766" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36343" uniqueCount="603">
   <si>
     <t>description</t>
   </si>
@@ -1873,13 +1873,19 @@
   <si>
     <t>saveAllAsText(var,exclude)</t>
   </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1107" x14ac:knownFonts="1">
+  <fonts count="1123" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8858,8 +8864,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1912">
+  <fills count="1939">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19690,8 +19797,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2047">
+  <borders count="2079">
     <border>
       <left/>
       <right/>
@@ -33369,6 +33629,332 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40400,7 +40986,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1134">
+  <cellXfs count="1150">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -43773,52 +44359,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1884" fontId="1090" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1091" fillId="1887" borderId="2022" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1092" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2022" fillId="1887" fontId="1091" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1092" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1093" fillId="1890" borderId="2026" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2026" fillId="1890" fontId="1093" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1094" fillId="1893" borderId="2030" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2030" fillId="1893" fontId="1094" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1095" fillId="1896" borderId="2034" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2034" fillId="1896" fontId="1095" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1096" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1096" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1097" fillId="1899" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1899" fontId="1097" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1098" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1099" fillId="1902" borderId="2038" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1100" fillId="1893" borderId="2042" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1101" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1102" fillId="1905" borderId="2046" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1103" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1104" fillId="1908" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1105" fillId="1896" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1106" fillId="1911" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1098" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2038" fillId="1902" fontId="1099" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2042" fillId="1893" fontId="1100" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="1905" fontId="1101" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2046" fillId="1905" fontId="1102" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1103" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1908" fontId="1104" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1896" fontId="1105" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1911" fontId="1106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1107" fillId="1914" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1109" fillId="1917" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1110" fillId="1920" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1111" fillId="1923" borderId="2066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1113" fillId="1926" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1115" fillId="1929" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1116" fillId="1920" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1117" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1118" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1119" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1120" fillId="1935" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1121" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1122" fillId="1938" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44867,7 +45501,7 @@
         <v>307</v>
       </c>
       <c r="I10" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="L10" t="s">
         <v>81</v>
@@ -44911,7 +45545,7 @@
         <v>353</v>
       </c>
       <c r="I11" t="s">
-        <v>473</v>
+        <v>602</v>
       </c>
       <c r="L11" t="s">
         <v>38</v>
@@ -44949,7 +45583,7 @@
         <v>275</v>
       </c>
       <c r="I12" t="s">
-        <v>323</v>
+        <v>473</v>
       </c>
       <c r="L12" t="s">
         <v>529</v>
@@ -44987,7 +45621,7 @@
         <v>264</v>
       </c>
       <c r="I13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L13" t="s">
         <v>391</v>
@@ -45022,7 +45656,7 @@
         <v>317</v>
       </c>
       <c r="I14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -45057,7 +45691,7 @@
         <v>265</v>
       </c>
       <c r="I15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L15" t="s">
         <v>42</v>
@@ -45090,6 +45724,9 @@
       </c>
       <c r="H16" t="s">
         <v>266</v>
+      </c>
+      <c r="I16" t="s">
+        <v>326</v>
       </c>
       <c r="L16" t="s">
         <v>530</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_base_macro3.xlsx
@@ -26,7 +26,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -42,19 +42,20 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36343" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37513" uniqueCount="611">
   <si>
     <t>description</t>
   </si>
@@ -1879,13 +1880,37 @@
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1123" x14ac:knownFonts="1">
+  <fonts count="1155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -8965,8 +8990,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="1939">
+  <fills count="1993">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -19950,8 +20177,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2079">
+  <borders count="2143">
     <border>
       <left/>
       <right/>
@@ -33629,6 +34162,658 @@
       </top>
       <bottom style="thin">
         <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
       </bottom>
     </border>
     <border>
@@ -40986,7 +42171,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1150">
+  <cellXfs count="1182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -44407,52 +45592,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="1911" fontId="1106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1107" fillId="1914" borderId="2054" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1108" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2054" fillId="1914" fontId="1107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1108" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1109" fillId="1917" borderId="2058" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2058" fillId="1917" fontId="1109" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1110" fillId="1920" borderId="2062" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2062" fillId="1920" fontId="1110" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1111" fillId="1923" borderId="2066" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2066" fillId="1923" fontId="1111" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1112" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1112" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1113" fillId="1926" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1926" fontId="1113" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1114" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1115" fillId="1929" borderId="2070" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1116" fillId="1920" borderId="2074" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1117" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1118" fillId="1932" borderId="2078" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1119" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1120" fillId="1935" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1121" fillId="1923" borderId="0" xfId="0" applyFill="true" applyFont="true">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1122" fillId="1938" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2070" fillId="1929" fontId="1115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2074" fillId="1920" fontId="1116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2078" fillId="1932" fontId="1117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2078" fillId="1932" fontId="1118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1935" fontId="1120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1923" fontId="1121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1938" fontId="1122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2086" fillId="1941" fontId="1123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1124" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2090" fillId="1944" fontId="1125" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2094" fillId="1947" fontId="1126" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2098" fillId="1950" fontId="1127" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1128" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1953" fontId="1129" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="1130" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2102" fillId="1956" fontId="1131" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2106" fillId="1947" fontId="1132" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2110" fillId="1959" fontId="1133" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="2110" fillId="1959" fontId="1134" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1135" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1962" fontId="1136" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1950" fontId="1137" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="1965" fontId="1138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1139" fillId="1968" borderId="2118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1141" fillId="1971" borderId="2122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1142" fillId="1974" borderId="2126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1143" fillId="1977" borderId="2130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="1144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1145" fillId="1980" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1147" fillId="1983" borderId="2134" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1148" fillId="1974" borderId="2138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1149" fillId="1986" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1150" fillId="1986" borderId="2142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1151" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1152" fillId="1989" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1153" fillId="1977" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1154" fillId="1992" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -44807,7 +46088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -44895,21 +46176,24 @@
         <v>398</v>
       </c>
       <c r="Z1" t="s">
+        <v>603</v>
+      </c>
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>57</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>58</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>432</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -44945,7 +46229,7 @@
         <v>80</v>
       </c>
       <c r="K2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="L2" t="s">
         <v>316</v>
@@ -44990,21 +46274,24 @@
         <v>408</v>
       </c>
       <c r="Z2" t="s">
+        <v>605</v>
+      </c>
+      <c r="AA2" t="s">
         <v>98</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>172</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>177</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>184</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>451</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>515</v>
       </c>
     </row>
@@ -45076,21 +46363,24 @@
         <v>409</v>
       </c>
       <c r="Z3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AA3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>173</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>178</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>365</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>185</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>229</v>
       </c>
     </row>
@@ -45159,21 +46449,24 @@
         <v>410</v>
       </c>
       <c r="Z4" t="s">
+        <v>607</v>
+      </c>
+      <c r="AA4" t="s">
         <v>587</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>174</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>179</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>185</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>452</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>230</v>
       </c>
     </row>
@@ -45233,21 +46526,24 @@
         <v>360</v>
       </c>
       <c r="Z5" t="s">
+        <v>608</v>
+      </c>
+      <c r="AA5" t="s">
         <v>580</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>175</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>599</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>186</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>453</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>231</v>
       </c>
     </row>
@@ -45277,7 +46573,7 @@
         <v>585</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>610</v>
       </c>
       <c r="L6" t="s">
         <v>485</v>
@@ -45304,21 +46600,24 @@
         <v>362</v>
       </c>
       <c r="Z6" t="s">
+        <v>609</v>
+      </c>
+      <c r="AA6" t="s">
         <v>100</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>465</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>180</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>187</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>454</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -45339,7 +46638,7 @@
         <v>468</v>
       </c>
       <c r="K7" t="s">
-        <v>555</v>
+        <v>349</v>
       </c>
       <c r="L7" t="s">
         <v>73</v>
@@ -45365,22 +46664,22 @@
       <c r="X7" t="s">
         <v>361</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>466</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>181</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>188</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>455</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>558</v>
       </c>
     </row>
@@ -45399,6 +46698,9 @@
       </c>
       <c r="I8" t="s">
         <v>329</v>
+      </c>
+      <c r="K8" t="s">
+        <v>555</v>
       </c>
       <c r="L8" t="s">
         <v>16</v>
@@ -45421,22 +46723,22 @@
       <c r="X8" t="s">
         <v>363</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>102</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>176</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>182</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>189</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>456</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>559</v>
       </c>
     </row>
@@ -45477,16 +46779,16 @@
       <c r="X9" t="s">
         <v>364</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>210</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>183</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>190</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>560</v>
       </c>
     </row>
@@ -45521,16 +46823,16 @@
       <c r="U10" t="s">
         <v>407</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>258</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>600</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>191</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>233</v>
       </c>
     </row>
@@ -45562,13 +46864,13 @@
       <c r="S11" t="s">
         <v>249</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>259</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>260</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>234</v>
       </c>
     </row>
@@ -45600,13 +46902,13 @@
       <c r="S12" t="s">
         <v>250</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>192</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>235</v>
       </c>
     </row>
@@ -45635,13 +46937,13 @@
       <c r="S13" t="s">
         <v>592</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>327</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>193</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>499</v>
       </c>
     </row>
@@ -45670,13 +46972,13 @@
       <c r="S14" t="s">
         <v>255</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>194</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>516</v>
       </c>
     </row>
@@ -45705,13 +47007,13 @@
       <c r="S15" t="s">
         <v>251</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>593</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>195</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>517</v>
       </c>
     </row>
@@ -45740,13 +47042,13 @@
       <c r="S16" t="s">
         <v>252</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>105</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>196</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>521</v>
       </c>
     </row>
@@ -45769,13 +47071,13 @@
       <c r="S17" t="s">
         <v>253</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>76</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>486</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>522</v>
       </c>
     </row>
@@ -45795,10 +47097,10 @@
       <c r="N18" t="s">
         <v>43</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>526</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>500</v>
       </c>
     </row>
@@ -45815,10 +47117,10 @@
       <c r="L19" t="s">
         <v>478</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>106</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>518</v>
       </c>
     </row>
@@ -45835,10 +47137,10 @@
       <c r="L20" t="s">
         <v>84</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>107</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>519</v>
       </c>
     </row>
@@ -45855,10 +47157,10 @@
       <c r="L21" t="s">
         <v>85</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>108</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>523</v>
       </c>
     </row>
@@ -45875,10 +47177,10 @@
       <c r="L22" t="s">
         <v>584</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>109</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>236</v>
       </c>
     </row>
@@ -45895,10 +47197,10 @@
       <c r="L23" t="s">
         <v>495</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>507</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>561</v>
       </c>
     </row>
@@ -45915,10 +47217,10 @@
       <c r="L24" t="s">
         <v>44</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>111</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>562</v>
       </c>
     </row>
@@ -45935,16 +47237,16 @@
       <c r="L25" t="s">
         <v>393</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>570</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>603</v>
       </c>
       <c r="F26" t="s">
         <v>470</v>
@@ -45955,16 +47257,16 @@
       <c r="L26" t="s">
         <v>548</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>112</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
         <v>226</v>
@@ -45975,16 +47277,16 @@
       <c r="L27" t="s">
         <v>86</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F28" t="s">
         <v>227</v>
@@ -45995,13 +47297,13 @@
       <c r="L28" t="s">
         <v>460</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>493</v>
@@ -46012,13 +47314,13 @@
       <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>432</v>
+        <v>58</v>
       </c>
       <c r="F30" t="s">
         <v>494</v>
@@ -46029,13 +47331,13 @@
       <c r="L30" t="s">
         <v>46</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>432</v>
       </c>
       <c r="F31" t="s">
         <v>434</v>
@@ -46043,18 +47345,21 @@
       <c r="H31" t="s">
         <v>217</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>228</v>
+      </c>
       <c r="F32" t="s">
         <v>65</v>
       </c>
       <c r="H32" t="s">
         <v>276</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -46065,7 +47370,7 @@
       <c r="H33" t="s">
         <v>286</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -46076,7 +47381,7 @@
       <c r="H34" t="s">
         <v>532</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -46087,7 +47392,7 @@
       <c r="H35" t="s">
         <v>261</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>571</v>
       </c>
     </row>
@@ -46098,7 +47403,7 @@
       <c r="H36" t="s">
         <v>331</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -46109,7 +47414,7 @@
       <c r="H37" t="s">
         <v>308</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>121</v>
       </c>
     </row>
@@ -46120,7 +47425,7 @@
       <c r="H38" t="s">
         <v>262</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>211</v>
       </c>
     </row>
@@ -46131,7 +47436,7 @@
       <c r="H39" t="s">
         <v>309</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -46139,7 +47444,7 @@
       <c r="H40" t="s">
         <v>268</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>339</v>
       </c>
     </row>
@@ -46147,7 +47452,7 @@
       <c r="H41" t="s">
         <v>79</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>447</v>
       </c>
     </row>
@@ -46155,7 +47460,7 @@
       <c r="H42" t="s">
         <v>213</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>581</v>
       </c>
     </row>
@@ -46163,7 +47468,7 @@
       <c r="H43" t="s">
         <v>567</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>394</v>
       </c>
     </row>
@@ -46171,7 +47476,7 @@
       <c r="H44" t="s">
         <v>290</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>123</v>
       </c>
     </row>
@@ -46179,7 +47484,7 @@
       <c r="H45" t="s">
         <v>301</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>124</v>
       </c>
     </row>
@@ -46187,7 +47492,7 @@
       <c r="H46" t="s">
         <v>302</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>125</v>
       </c>
     </row>
@@ -46195,7 +47500,7 @@
       <c r="H47" t="s">
         <v>344</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>126</v>
       </c>
     </row>
@@ -46203,7 +47508,7 @@
       <c r="H48" t="s">
         <v>343</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>127</v>
       </c>
     </row>
@@ -46211,7 +47516,7 @@
       <c r="H49" t="s">
         <v>212</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>128</v>
       </c>
     </row>
@@ -46219,7 +47524,7 @@
       <c r="H50" t="s">
         <v>321</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>462</v>
       </c>
     </row>
@@ -46227,7 +47532,7 @@
       <c r="H51" t="s">
         <v>340</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>214</v>
       </c>
     </row>
@@ -46235,7 +47540,7 @@
       <c r="H52" t="s">
         <v>369</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>78</v>
       </c>
     </row>
@@ -46243,7 +47548,7 @@
       <c r="H53" t="s">
         <v>303</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>557</v>
       </c>
     </row>
@@ -46251,7 +47556,7 @@
       <c r="H54" t="s">
         <v>357</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>129</v>
       </c>
     </row>
@@ -46259,7 +47564,7 @@
       <c r="H55" t="s">
         <v>332</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>130</v>
       </c>
     </row>
@@ -46267,7 +47572,7 @@
       <c r="H56" t="s">
         <v>269</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>131</v>
       </c>
     </row>
@@ -46275,7 +47580,7 @@
       <c r="H57" t="s">
         <v>293</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>508</v>
       </c>
     </row>
@@ -46283,7 +47588,7 @@
       <c r="H58" t="s">
         <v>294</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>488</v>
       </c>
     </row>
@@ -46291,7 +47596,7 @@
       <c r="H59" t="s">
         <v>568</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>132</v>
       </c>
     </row>
@@ -46299,7 +47604,7 @@
       <c r="H60" t="s">
         <v>295</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>347</v>
       </c>
     </row>
@@ -46307,7 +47612,7 @@
       <c r="H61" t="s">
         <v>304</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>481</v>
       </c>
     </row>
@@ -46315,7 +47620,7 @@
       <c r="H62" t="s">
         <v>313</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>133</v>
       </c>
     </row>
@@ -46323,7 +47628,7 @@
       <c r="H63" t="s">
         <v>338</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>134</v>
       </c>
     </row>
@@ -46331,7 +47636,7 @@
       <c r="H64" t="s">
         <v>310</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>135</v>
       </c>
     </row>
@@ -46339,7 +47644,7 @@
       <c r="H65" t="s">
         <v>311</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>136</v>
       </c>
     </row>
@@ -46347,7 +47652,7 @@
       <c r="H66" t="s">
         <v>370</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>137</v>
       </c>
     </row>
@@ -46355,7 +47660,7 @@
       <c r="H67" t="s">
         <v>371</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>138</v>
       </c>
     </row>
@@ -46363,7 +47668,7 @@
       <c r="H68" t="s">
         <v>346</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>139</v>
       </c>
     </row>
@@ -46371,7 +47676,7 @@
       <c r="H69" t="s">
         <v>314</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>458</v>
       </c>
     </row>
@@ -46379,7 +47684,7 @@
       <c r="H70" t="s">
         <v>270</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>498</v>
       </c>
     </row>
@@ -46387,7 +47692,7 @@
       <c r="H71" t="s">
         <v>553</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>215</v>
       </c>
     </row>
@@ -46395,7 +47700,7 @@
       <c r="H72" t="s">
         <v>315</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>390</v>
       </c>
     </row>
@@ -46403,7 +47708,7 @@
       <c r="H73" t="s">
         <v>411</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>463</v>
       </c>
     </row>
@@ -46411,7 +47716,7 @@
       <c r="H74" t="s">
         <v>305</v>
   